--- a/nanopore_pipeline_type1/data/medaka処理時間データ.xlsx
+++ b/nanopore_pipeline_type1/data/medaka処理時間データ.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aokada\Desktop\tele-work\nanopore\pipeline1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aokada\Desktop\tele-work\nanopore\dropbox_paper_scripts\nanopore_pipeline_type1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="36165" windowHeight="10680" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="36165" windowHeight="10680"/>
   </bookViews>
   <sheets>
     <sheet name="まとめ1(GPU)" sheetId="8" r:id="rId1"/>
     <sheet name="まとめ2(CPU付き)" sheetId="7" r:id="rId2"/>
-    <sheet name="gpu" sheetId="3" r:id="rId3"/>
-    <sheet name="cpu" sheetId="6" r:id="rId4"/>
-    <sheet name="cpu_split" sheetId="5" r:id="rId5"/>
+    <sheet name="まとめ3(chr22)" sheetId="10" r:id="rId3"/>
+    <sheet name="gpu" sheetId="3" r:id="rId4"/>
+    <sheet name="cpu" sheetId="6" r:id="rId5"/>
+    <sheet name="cpu_split" sheetId="5" r:id="rId6"/>
+    <sheet name="chr22" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="140">
   <si>
     <t>jobnumber</t>
   </si>
@@ -505,6 +507,62 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>COLO829BL_chr22</t>
+  </si>
+  <si>
+    <t>medaka_variant_20210107-141856.log</t>
+  </si>
+  <si>
+    <t>COLO829_chr22</t>
+  </si>
+  <si>
+    <t>medaka_variant_20210107-140247.log</t>
+  </si>
+  <si>
+    <t>gpu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cpu_split_t2</t>
+  </si>
+  <si>
+    <t>cpu_split_t4</t>
+  </si>
+  <si>
+    <t>cpu_split_t1</t>
+  </si>
+  <si>
+    <t>単位：分</t>
+    <rPh sb="0" eb="2">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>chr22</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>t1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>medaka 内訳 (時間:分)</t>
+    <rPh sb="7" eb="9">
+      <t>ウチワケ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -516,7 +574,7 @@
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,8 +618,16 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -627,8 +693,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -707,16 +778,34 @@
         <color theme="1" tint="0.499984740745262"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -768,24 +857,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -828,12 +899,6 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="46" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -852,8 +917,42 @@
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="46" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="メモ" xfId="2" builtinId="10"/>
     <cellStyle name="悪い" xfId="1" builtinId="27"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1135,7 +1234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -1149,41 +1248,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="33" t="s">
         <v>50</v>
       </c>
       <c r="H2" s="8" t="s">
@@ -1191,19 +1290,19 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="35"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:12" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="25" t="s">
         <v>123</v>
       </c>
       <c r="B4" s="37">
@@ -1224,12 +1323,12 @@
       <c r="G4" s="37">
         <v>8.217592621804215E-4</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="23" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="25" t="s">
         <v>112</v>
       </c>
       <c r="B5" s="37"/>
@@ -1238,76 +1337,76 @@
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="23" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="35"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="1:12" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="28">
         <v>0.14798611111473292</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="28">
         <v>0.14798611111473292</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="28">
         <v>0.13777777777431766</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="28">
         <v>0.19177083333488554</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="28">
         <v>0.16567129630129784</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="28">
         <v>0.17600694444263354</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="27" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="24">
         <v>0.67250000000058208</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="24">
         <v>0.66747685184964212</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="24">
         <v>0.59960648148262408</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="24">
         <v>0.62247685185138835</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="24">
         <v>0.61870370370161254</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="24">
         <v>0.62796296296437504</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="23" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="31" t="s">
         <v>119</v>
       </c>
       <c r="B9" s="37">
@@ -1328,12 +1427,12 @@
       <c r="G9" s="37">
         <v>0.49755787036701804</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="23" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="31" t="s">
         <v>118</v>
       </c>
       <c r="B10" s="37"/>
@@ -1342,12 +1441,12 @@
       <c r="E10" s="38"/>
       <c r="F10" s="38"/>
       <c r="G10" s="37"/>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="23" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="31" t="s">
         <v>116</v>
       </c>
       <c r="B11" s="37"/>
@@ -1356,12 +1455,12 @@
       <c r="E11" s="38"/>
       <c r="F11" s="38"/>
       <c r="G11" s="37"/>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="23" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="31" t="s">
         <v>115</v>
       </c>
       <c r="B12" s="37"/>
@@ -1370,12 +1469,12 @@
       <c r="E12" s="38"/>
       <c r="F12" s="38"/>
       <c r="G12" s="37"/>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="23" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="31" t="s">
         <v>113</v>
       </c>
       <c r="B13" s="37"/>
@@ -1384,12 +1483,12 @@
       <c r="E13" s="38"/>
       <c r="F13" s="38"/>
       <c r="G13" s="37"/>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="23" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="31" t="s">
         <v>112</v>
       </c>
       <c r="B14" s="37"/>
@@ -1398,186 +1497,181 @@
       <c r="E14" s="38"/>
       <c r="F14" s="38"/>
       <c r="G14" s="37"/>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="23" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="35"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="29"/>
     </row>
     <row r="16" spans="1:12" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="28">
         <v>0.13028935185138835</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="28">
         <v>0.13340277777751908</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="28">
         <v>0.16896990740497131</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="28">
         <v>0.16062500000407454</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="28">
         <v>0.15482638889079681</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="28">
         <v>0.15427083333634073</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="27" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="24">
         <v>0.30724537037167465</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="24">
         <v>0.29707175925432239</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="26">
         <v>0.33702546296990477</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="24">
         <v>0.39997685184789589</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="24">
         <v>0.36777777777751908</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="26">
         <v>0.35089120369957527</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="23" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="28">
         <v>0.10999999999330612</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="28">
         <v>0.10912037036905531</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="28">
         <v>0.12866898148058681</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="28">
         <v>0.14457175925781485</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="28">
         <v>0.14068287036934635</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G18" s="28">
         <v>0.16827546296553919</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="27" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="24">
         <v>0.37870370370364981</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="24">
         <v>0.32746527778363088</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="26">
         <v>0.34652777777228039</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="26">
         <v>0.39420138888817746</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="26">
         <v>0.38421296296291985</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="26">
         <v>0.39487268518860219</v>
       </c>
-      <c r="H19" s="29" t="s">
+      <c r="H19" s="23" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="24">
         <v>0.17687500000465661</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="24">
         <v>0.19126157407299615</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="24">
         <v>3.8043981483497191E-2</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="24">
         <v>3.5509259265381843E-2</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="24">
         <v>3.587962962774327E-2</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="24">
         <v>3.3043981478840578E-2</v>
       </c>
-      <c r="H20" s="29" t="s">
+      <c r="H20" s="23" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="21">
         <v>2.343819444446126</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="21">
         <v>2.2603819444484543</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="21">
         <v>2.1247800925921183</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="21">
         <v>2.5611805555599858</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="21">
         <v>2.3528935185167938</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="21">
         <v>2.403703703705105</v>
       </c>
-      <c r="H21" s="26"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="H22" s="24"/>
+      <c r="H22" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="D9:D14"/>
     <mergeCell ref="E9:E14"/>
@@ -1585,6 +1679,11 @@
     <mergeCell ref="G9:G14"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1596,97 +1695,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FD18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.25" customWidth="1"/>
-    <col min="2" max="31" width="5.875" customWidth="1"/>
+    <col min="2" max="31" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:160" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
     </row>
     <row r="2" spans="1:160" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="21" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="20" t="s">
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="19" t="s">
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="18" t="s">
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="17" t="s">
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
     </row>
     <row r="3" spans="1:160" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -3892,10 +3991,1454 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:EH18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.25" customWidth="1"/>
+    <col min="2" max="9" width="6.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:138" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:138" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+    </row>
+    <row r="3" spans="1:138" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:138" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:138" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:138" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:138" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="12">
+        <v>2.27</v>
+      </c>
+      <c r="C7" s="46">
+        <v>31.75</v>
+      </c>
+      <c r="D7" s="46">
+        <v>17.88</v>
+      </c>
+      <c r="E7" s="46">
+        <v>17.579999999999998</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1.97</v>
+      </c>
+      <c r="G7" s="47">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="H7" s="47">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="I7" s="46">
+        <v>20.13</v>
+      </c>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="1"/>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="1"/>
+      <c r="BJ7" s="1"/>
+      <c r="BK7" s="1"/>
+      <c r="BL7" s="1"/>
+      <c r="BM7" s="1"/>
+      <c r="BN7" s="1"/>
+      <c r="BO7" s="1"/>
+      <c r="BP7" s="1"/>
+      <c r="BQ7" s="1"/>
+      <c r="BR7" s="1"/>
+      <c r="BS7" s="1"/>
+      <c r="BT7" s="1"/>
+      <c r="BU7" s="1"/>
+      <c r="BV7" s="1"/>
+      <c r="BW7" s="1"/>
+      <c r="BX7" s="1"/>
+      <c r="BY7" s="1"/>
+      <c r="BZ7" s="1"/>
+      <c r="CA7" s="1"/>
+      <c r="CB7" s="1"/>
+      <c r="CC7" s="1"/>
+      <c r="CD7" s="1"/>
+      <c r="CE7" s="1"/>
+      <c r="CF7" s="1"/>
+      <c r="CG7" s="1"/>
+      <c r="CH7" s="1"/>
+      <c r="CI7" s="1"/>
+      <c r="CJ7" s="1"/>
+      <c r="CK7" s="1"/>
+      <c r="CL7" s="1"/>
+      <c r="CM7" s="1"/>
+      <c r="CN7" s="1"/>
+      <c r="CO7" s="1"/>
+      <c r="CP7" s="1"/>
+      <c r="CQ7" s="1"/>
+      <c r="CR7" s="1"/>
+      <c r="CS7" s="1"/>
+      <c r="CT7" s="1"/>
+      <c r="CU7" s="1"/>
+      <c r="CV7" s="1"/>
+      <c r="CW7" s="1"/>
+      <c r="CX7" s="1"/>
+      <c r="CY7" s="1"/>
+      <c r="CZ7" s="1"/>
+      <c r="DA7" s="1"/>
+      <c r="DB7" s="1"/>
+      <c r="DC7" s="1"/>
+      <c r="DD7" s="1"/>
+      <c r="DE7" s="1"/>
+      <c r="DF7" s="1"/>
+      <c r="DG7" s="1"/>
+      <c r="DH7" s="1"/>
+      <c r="DI7" s="1"/>
+      <c r="DJ7" s="1"/>
+      <c r="DK7" s="1"/>
+      <c r="DL7" s="1"/>
+      <c r="DM7" s="1"/>
+      <c r="DN7" s="1"/>
+      <c r="DO7" s="1"/>
+      <c r="DP7" s="1"/>
+      <c r="DQ7" s="1"/>
+      <c r="DR7" s="1"/>
+      <c r="DS7" s="1"/>
+      <c r="DT7" s="1"/>
+      <c r="DU7" s="1"/>
+      <c r="DV7" s="1"/>
+      <c r="DW7" s="1"/>
+      <c r="DX7" s="1"/>
+      <c r="DY7" s="1"/>
+      <c r="DZ7" s="1"/>
+      <c r="EA7" s="1"/>
+      <c r="EB7" s="1"/>
+      <c r="EC7" s="1"/>
+      <c r="ED7" s="1"/>
+      <c r="EE7" s="1"/>
+      <c r="EF7" s="1"/>
+      <c r="EG7" s="1"/>
+    </row>
+    <row r="8" spans="1:138" ht="99.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="7">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="C8" s="7">
+        <v>20.12</v>
+      </c>
+      <c r="D8" s="7">
+        <v>20.38</v>
+      </c>
+      <c r="E8" s="7">
+        <v>20.75</v>
+      </c>
+      <c r="F8" s="7">
+        <v>20.58</v>
+      </c>
+      <c r="G8" s="8">
+        <v>24.23</v>
+      </c>
+      <c r="H8" s="8">
+        <v>23.83</v>
+      </c>
+      <c r="I8" s="7">
+        <v>22.63</v>
+      </c>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
+      <c r="BB8" s="1"/>
+      <c r="BC8" s="1"/>
+      <c r="BD8" s="1"/>
+      <c r="BE8" s="1"/>
+      <c r="BF8" s="1"/>
+      <c r="BG8" s="1"/>
+      <c r="BH8" s="1"/>
+      <c r="BI8" s="1"/>
+      <c r="BJ8" s="1"/>
+      <c r="BK8" s="1"/>
+      <c r="BL8" s="1"/>
+      <c r="BM8" s="1"/>
+      <c r="BN8" s="1"/>
+      <c r="BO8" s="1"/>
+      <c r="BP8" s="1"/>
+      <c r="BQ8" s="1"/>
+      <c r="BR8" s="1"/>
+      <c r="BS8" s="1"/>
+      <c r="BT8" s="1"/>
+      <c r="BU8" s="1"/>
+      <c r="BV8" s="1"/>
+      <c r="BW8" s="1"/>
+      <c r="BX8" s="1"/>
+      <c r="BY8" s="1"/>
+      <c r="BZ8" s="1"/>
+      <c r="CA8" s="1"/>
+      <c r="CB8" s="1"/>
+      <c r="CC8" s="1"/>
+      <c r="CD8" s="1"/>
+      <c r="CE8" s="1"/>
+      <c r="CF8" s="1"/>
+      <c r="CG8" s="1"/>
+      <c r="CH8" s="1"/>
+      <c r="CI8" s="1"/>
+      <c r="CJ8" s="1"/>
+      <c r="CK8" s="1"/>
+      <c r="CL8" s="1"/>
+      <c r="CM8" s="1"/>
+      <c r="CN8" s="1"/>
+      <c r="CO8" s="1"/>
+      <c r="CP8" s="1"/>
+      <c r="CQ8" s="1"/>
+      <c r="CR8" s="1"/>
+      <c r="CS8" s="1"/>
+      <c r="CT8" s="1"/>
+      <c r="CU8" s="1"/>
+      <c r="CV8" s="1"/>
+      <c r="CW8" s="1"/>
+      <c r="CX8" s="1"/>
+      <c r="CY8" s="1"/>
+      <c r="CZ8" s="1"/>
+      <c r="DA8" s="1"/>
+      <c r="DB8" s="1"/>
+      <c r="DC8" s="1"/>
+      <c r="DD8" s="1"/>
+      <c r="DE8" s="1"/>
+      <c r="DF8" s="1"/>
+      <c r="DG8" s="1"/>
+      <c r="DH8" s="1"/>
+      <c r="DI8" s="1"/>
+      <c r="DJ8" s="1"/>
+      <c r="DK8" s="1"/>
+      <c r="DL8" s="1"/>
+      <c r="DM8" s="1"/>
+      <c r="DN8" s="1"/>
+      <c r="DO8" s="1"/>
+      <c r="DP8" s="1"/>
+      <c r="DQ8" s="1"/>
+      <c r="DR8" s="1"/>
+      <c r="DS8" s="1"/>
+      <c r="DT8" s="1"/>
+      <c r="DU8" s="1"/>
+      <c r="DV8" s="1"/>
+      <c r="DW8" s="1"/>
+      <c r="DX8" s="1"/>
+      <c r="DY8" s="1"/>
+      <c r="DZ8" s="1"/>
+      <c r="EA8" s="1"/>
+      <c r="EB8" s="1"/>
+      <c r="EC8" s="1"/>
+      <c r="ED8" s="1"/>
+      <c r="EE8" s="1"/>
+      <c r="EF8" s="1"/>
+      <c r="EG8" s="1"/>
+    </row>
+    <row r="9" spans="1:138" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="1"/>
+      <c r="BC9" s="1"/>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="1"/>
+      <c r="BF9" s="1"/>
+      <c r="BG9" s="1"/>
+      <c r="BH9" s="1"/>
+      <c r="BI9" s="1"/>
+      <c r="BJ9" s="1"/>
+      <c r="BK9" s="1"/>
+      <c r="BL9" s="1"/>
+      <c r="BM9" s="1"/>
+      <c r="BN9" s="1"/>
+      <c r="BO9" s="1"/>
+      <c r="BP9" s="1"/>
+      <c r="BQ9" s="1"/>
+      <c r="BR9" s="1"/>
+      <c r="BS9" s="1"/>
+      <c r="BT9" s="1"/>
+      <c r="BU9" s="1"/>
+      <c r="BV9" s="1"/>
+      <c r="BW9" s="1"/>
+      <c r="BX9" s="1"/>
+      <c r="BY9" s="1"/>
+      <c r="BZ9" s="1"/>
+      <c r="CA9" s="1"/>
+      <c r="CB9" s="1"/>
+      <c r="CC9" s="1"/>
+      <c r="CD9" s="1"/>
+      <c r="CE9" s="1"/>
+      <c r="CF9" s="1"/>
+      <c r="CG9" s="1"/>
+      <c r="CH9" s="1"/>
+      <c r="CI9" s="1"/>
+      <c r="CJ9" s="1"/>
+      <c r="CK9" s="1"/>
+      <c r="CL9" s="1"/>
+      <c r="CM9" s="1"/>
+      <c r="CN9" s="1"/>
+      <c r="CO9" s="1"/>
+      <c r="CP9" s="1"/>
+      <c r="CQ9" s="1"/>
+      <c r="CR9" s="1"/>
+      <c r="CS9" s="1"/>
+      <c r="CT9" s="1"/>
+      <c r="CU9" s="1"/>
+      <c r="CV9" s="1"/>
+      <c r="CW9" s="1"/>
+      <c r="CX9" s="1"/>
+      <c r="CY9" s="1"/>
+      <c r="CZ9" s="1"/>
+      <c r="DA9" s="1"/>
+      <c r="DB9" s="1"/>
+      <c r="DC9" s="1"/>
+      <c r="DD9" s="1"/>
+      <c r="DE9" s="1"/>
+      <c r="DF9" s="1"/>
+      <c r="DG9" s="1"/>
+      <c r="DH9" s="1"/>
+      <c r="DI9" s="1"/>
+      <c r="DJ9" s="1"/>
+      <c r="DK9" s="1"/>
+      <c r="DL9" s="1"/>
+      <c r="DM9" s="1"/>
+      <c r="DN9" s="1"/>
+      <c r="DO9" s="1"/>
+      <c r="DP9" s="1"/>
+      <c r="DQ9" s="1"/>
+      <c r="DR9" s="1"/>
+      <c r="DS9" s="1"/>
+      <c r="DT9" s="1"/>
+      <c r="DU9" s="1"/>
+      <c r="DV9" s="1"/>
+      <c r="DW9" s="1"/>
+      <c r="DX9" s="1"/>
+      <c r="DY9" s="1"/>
+      <c r="DZ9" s="1"/>
+      <c r="EA9" s="1"/>
+      <c r="EB9" s="1"/>
+      <c r="EC9" s="1"/>
+      <c r="ED9" s="1"/>
+      <c r="EE9" s="1"/>
+      <c r="EF9" s="1"/>
+      <c r="EG9" s="1"/>
+    </row>
+    <row r="10" spans="1:138" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1.72</v>
+      </c>
+      <c r="C10" s="46">
+        <v>29.15</v>
+      </c>
+      <c r="D10" s="46">
+        <v>15.8</v>
+      </c>
+      <c r="E10" s="46">
+        <v>15.7</v>
+      </c>
+      <c r="F10" s="12">
+        <v>2.35</v>
+      </c>
+      <c r="G10" s="47">
+        <v>29.38</v>
+      </c>
+      <c r="H10" s="47">
+        <v>16.829999999999998</v>
+      </c>
+      <c r="I10" s="46">
+        <v>16.95</v>
+      </c>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
+      <c r="BB10" s="1"/>
+      <c r="BC10" s="1"/>
+      <c r="BD10" s="1"/>
+      <c r="BE10" s="1"/>
+      <c r="BF10" s="1"/>
+      <c r="BG10" s="1"/>
+      <c r="BH10" s="1"/>
+      <c r="BI10" s="1"/>
+      <c r="BJ10" s="1"/>
+      <c r="BK10" s="1"/>
+      <c r="BL10" s="1"/>
+      <c r="BM10" s="1"/>
+      <c r="BN10" s="1"/>
+      <c r="BO10" s="1"/>
+      <c r="BP10" s="1"/>
+      <c r="BQ10" s="1"/>
+      <c r="BR10" s="1"/>
+      <c r="BS10" s="1"/>
+      <c r="BT10" s="1"/>
+      <c r="BU10" s="1"/>
+      <c r="BV10" s="1"/>
+      <c r="BW10" s="1"/>
+      <c r="BX10" s="1"/>
+      <c r="BY10" s="1"/>
+      <c r="BZ10" s="1"/>
+      <c r="CA10" s="1"/>
+      <c r="CB10" s="1"/>
+      <c r="CC10" s="1"/>
+      <c r="CD10" s="1"/>
+      <c r="CE10" s="1"/>
+      <c r="CF10" s="1"/>
+      <c r="CG10" s="1"/>
+      <c r="CH10" s="1"/>
+      <c r="CI10" s="1"/>
+      <c r="CJ10" s="1"/>
+      <c r="CK10" s="1"/>
+      <c r="CL10" s="1"/>
+      <c r="CM10" s="1"/>
+      <c r="CN10" s="1"/>
+      <c r="CO10" s="1"/>
+      <c r="CP10" s="1"/>
+      <c r="CQ10" s="1"/>
+      <c r="CR10" s="1"/>
+      <c r="CS10" s="1"/>
+      <c r="CT10" s="1"/>
+      <c r="CU10" s="1"/>
+      <c r="CV10" s="1"/>
+      <c r="CW10" s="1"/>
+      <c r="CX10" s="1"/>
+      <c r="CY10" s="1"/>
+      <c r="CZ10" s="1"/>
+      <c r="DA10" s="1"/>
+      <c r="DB10" s="1"/>
+      <c r="DC10" s="1"/>
+      <c r="DD10" s="1"/>
+      <c r="DE10" s="1"/>
+      <c r="DF10" s="1"/>
+      <c r="DG10" s="1"/>
+      <c r="DH10" s="1"/>
+      <c r="DI10" s="1"/>
+      <c r="DJ10" s="1"/>
+      <c r="DK10" s="1"/>
+      <c r="DL10" s="1"/>
+      <c r="DM10" s="1"/>
+      <c r="DN10" s="1"/>
+      <c r="DO10" s="1"/>
+      <c r="DP10" s="1"/>
+      <c r="DQ10" s="1"/>
+      <c r="DR10" s="1"/>
+      <c r="DS10" s="1"/>
+      <c r="DT10" s="1"/>
+      <c r="DU10" s="1"/>
+      <c r="DV10" s="1"/>
+      <c r="DW10" s="1"/>
+      <c r="DX10" s="1"/>
+      <c r="DY10" s="1"/>
+      <c r="DZ10" s="1"/>
+      <c r="EA10" s="1"/>
+      <c r="EB10" s="1"/>
+      <c r="EC10" s="1"/>
+      <c r="ED10" s="1"/>
+      <c r="EE10" s="1"/>
+      <c r="EF10" s="1"/>
+      <c r="EG10" s="1"/>
+    </row>
+    <row r="11" spans="1:138" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="7">
+        <v>6.37</v>
+      </c>
+      <c r="C11" s="7">
+        <v>6.22</v>
+      </c>
+      <c r="D11" s="7">
+        <v>6.18</v>
+      </c>
+      <c r="E11" s="7">
+        <v>5.97</v>
+      </c>
+      <c r="F11" s="7">
+        <v>6.38</v>
+      </c>
+      <c r="G11" s="8">
+        <v>6.43</v>
+      </c>
+      <c r="H11" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>6.35</v>
+      </c>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="1"/>
+      <c r="BF11" s="1"/>
+      <c r="BG11" s="1"/>
+      <c r="BH11" s="1"/>
+      <c r="BI11" s="1"/>
+      <c r="BJ11" s="1"/>
+      <c r="BK11" s="1"/>
+      <c r="BL11" s="1"/>
+      <c r="BM11" s="1"/>
+      <c r="BN11" s="1"/>
+      <c r="BO11" s="1"/>
+      <c r="BP11" s="1"/>
+      <c r="BQ11" s="1"/>
+      <c r="BR11" s="1"/>
+      <c r="BS11" s="1"/>
+      <c r="BT11" s="1"/>
+      <c r="BU11" s="1"/>
+      <c r="BV11" s="1"/>
+      <c r="BW11" s="1"/>
+      <c r="BX11" s="1"/>
+      <c r="BY11" s="1"/>
+      <c r="BZ11" s="1"/>
+      <c r="CA11" s="1"/>
+      <c r="CB11" s="1"/>
+      <c r="CC11" s="1"/>
+      <c r="CD11" s="1"/>
+      <c r="CE11" s="1"/>
+      <c r="CF11" s="1"/>
+      <c r="CG11" s="1"/>
+      <c r="CH11" s="1"/>
+      <c r="CI11" s="1"/>
+      <c r="CJ11" s="1"/>
+      <c r="CK11" s="1"/>
+      <c r="CL11" s="1"/>
+      <c r="CM11" s="1"/>
+      <c r="CN11" s="1"/>
+      <c r="CO11" s="1"/>
+      <c r="CP11" s="1"/>
+      <c r="CQ11" s="1"/>
+      <c r="CR11" s="1"/>
+      <c r="CS11" s="1"/>
+      <c r="CT11" s="1"/>
+      <c r="CU11" s="1"/>
+      <c r="CV11" s="1"/>
+      <c r="CW11" s="1"/>
+      <c r="CX11" s="1"/>
+      <c r="CY11" s="1"/>
+      <c r="CZ11" s="1"/>
+      <c r="DA11" s="1"/>
+      <c r="DB11" s="1"/>
+      <c r="DC11" s="1"/>
+      <c r="DD11" s="1"/>
+      <c r="DE11" s="1"/>
+      <c r="DF11" s="1"/>
+      <c r="DG11" s="1"/>
+      <c r="DH11" s="1"/>
+      <c r="DI11" s="1"/>
+      <c r="DJ11" s="1"/>
+      <c r="DK11" s="1"/>
+      <c r="DL11" s="1"/>
+      <c r="DM11" s="1"/>
+      <c r="DN11" s="1"/>
+      <c r="DO11" s="1"/>
+      <c r="DP11" s="1"/>
+      <c r="DQ11" s="1"/>
+      <c r="DR11" s="1"/>
+      <c r="DS11" s="1"/>
+      <c r="DT11" s="1"/>
+      <c r="DU11" s="1"/>
+      <c r="DV11" s="1"/>
+      <c r="DW11" s="1"/>
+      <c r="DX11" s="1"/>
+      <c r="DY11" s="1"/>
+      <c r="DZ11" s="1"/>
+      <c r="EA11" s="1"/>
+      <c r="EB11" s="1"/>
+      <c r="EC11" s="1"/>
+      <c r="ED11" s="1"/>
+      <c r="EE11" s="1"/>
+      <c r="EF11" s="1"/>
+      <c r="EG11" s="1"/>
+    </row>
+    <row r="12" spans="1:138" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1.98</v>
+      </c>
+      <c r="C12" s="46">
+        <v>29.97</v>
+      </c>
+      <c r="D12" s="46">
+        <v>16.53</v>
+      </c>
+      <c r="E12" s="46">
+        <v>15.52</v>
+      </c>
+      <c r="F12" s="12">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="G12" s="47">
+        <v>29.27</v>
+      </c>
+      <c r="H12" s="47">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="I12" s="46">
+        <v>17.079999999999998</v>
+      </c>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="1"/>
+      <c r="BF12" s="1"/>
+      <c r="BG12" s="1"/>
+      <c r="BH12" s="1"/>
+      <c r="BI12" s="1"/>
+      <c r="BJ12" s="1"/>
+      <c r="BK12" s="1"/>
+      <c r="BL12" s="1"/>
+      <c r="BM12" s="1"/>
+      <c r="BN12" s="1"/>
+      <c r="BO12" s="1"/>
+      <c r="BP12" s="1"/>
+      <c r="BQ12" s="1"/>
+      <c r="BR12" s="1"/>
+      <c r="BS12" s="1"/>
+      <c r="BT12" s="1"/>
+      <c r="BU12" s="1"/>
+      <c r="BV12" s="1"/>
+      <c r="BW12" s="1"/>
+      <c r="BX12" s="1"/>
+      <c r="BY12" s="1"/>
+      <c r="BZ12" s="1"/>
+      <c r="CA12" s="1"/>
+      <c r="CB12" s="1"/>
+      <c r="CC12" s="1"/>
+      <c r="CD12" s="1"/>
+      <c r="CE12" s="1"/>
+      <c r="CF12" s="1"/>
+      <c r="CG12" s="1"/>
+      <c r="CH12" s="1"/>
+      <c r="CI12" s="1"/>
+      <c r="CJ12" s="1"/>
+      <c r="CK12" s="1"/>
+      <c r="CL12" s="1"/>
+      <c r="CM12" s="1"/>
+      <c r="CN12" s="1"/>
+      <c r="CO12" s="1"/>
+      <c r="CP12" s="1"/>
+      <c r="CQ12" s="1"/>
+      <c r="CR12" s="1"/>
+      <c r="CS12" s="1"/>
+      <c r="CT12" s="1"/>
+      <c r="CU12" s="1"/>
+      <c r="CV12" s="1"/>
+      <c r="CW12" s="1"/>
+      <c r="CX12" s="1"/>
+      <c r="CY12" s="1"/>
+      <c r="CZ12" s="1"/>
+      <c r="DA12" s="1"/>
+      <c r="DB12" s="1"/>
+      <c r="DC12" s="1"/>
+      <c r="DD12" s="1"/>
+      <c r="DE12" s="1"/>
+      <c r="DF12" s="1"/>
+      <c r="DG12" s="1"/>
+      <c r="DH12" s="1"/>
+      <c r="DI12" s="1"/>
+      <c r="DJ12" s="1"/>
+      <c r="DK12" s="1"/>
+      <c r="DL12" s="1"/>
+      <c r="DM12" s="1"/>
+      <c r="DN12" s="1"/>
+      <c r="DO12" s="1"/>
+      <c r="DP12" s="1"/>
+      <c r="DQ12" s="1"/>
+      <c r="DR12" s="1"/>
+      <c r="DS12" s="1"/>
+      <c r="DT12" s="1"/>
+      <c r="DU12" s="1"/>
+      <c r="DV12" s="1"/>
+      <c r="DW12" s="1"/>
+      <c r="DX12" s="1"/>
+      <c r="DY12" s="1"/>
+      <c r="DZ12" s="1"/>
+      <c r="EA12" s="1"/>
+      <c r="EB12" s="1"/>
+      <c r="EC12" s="1"/>
+      <c r="ED12" s="1"/>
+      <c r="EE12" s="1"/>
+      <c r="EF12" s="1"/>
+      <c r="EG12" s="1"/>
+    </row>
+    <row r="13" spans="1:138" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="7">
+        <v>7.22</v>
+      </c>
+      <c r="C13" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="E13" s="7">
+        <v>6.98</v>
+      </c>
+      <c r="F13" s="7">
+        <v>6.68</v>
+      </c>
+      <c r="G13" s="8">
+        <v>6.92</v>
+      </c>
+      <c r="H13" s="8">
+        <v>6.83</v>
+      </c>
+      <c r="I13" s="7">
+        <v>6.92</v>
+      </c>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="1"/>
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="1"/>
+      <c r="BB13" s="1"/>
+      <c r="BC13" s="1"/>
+      <c r="BD13" s="1"/>
+      <c r="BE13" s="1"/>
+      <c r="BF13" s="1"/>
+      <c r="BG13" s="1"/>
+      <c r="BH13" s="1"/>
+      <c r="BI13" s="1"/>
+      <c r="BJ13" s="1"/>
+      <c r="BK13" s="1"/>
+      <c r="BL13" s="1"/>
+      <c r="BM13" s="1"/>
+      <c r="BN13" s="1"/>
+      <c r="BO13" s="1"/>
+      <c r="BP13" s="1"/>
+      <c r="BQ13" s="1"/>
+      <c r="BR13" s="1"/>
+      <c r="BS13" s="1"/>
+      <c r="BT13" s="1"/>
+      <c r="BU13" s="1"/>
+      <c r="BV13" s="1"/>
+      <c r="BW13" s="1"/>
+      <c r="BX13" s="1"/>
+      <c r="BY13" s="1"/>
+      <c r="BZ13" s="1"/>
+      <c r="CA13" s="1"/>
+      <c r="CB13" s="1"/>
+      <c r="CC13" s="1"/>
+      <c r="CD13" s="1"/>
+      <c r="CE13" s="1"/>
+      <c r="CF13" s="1"/>
+      <c r="CG13" s="1"/>
+      <c r="CH13" s="1"/>
+      <c r="CI13" s="1"/>
+      <c r="CJ13" s="1"/>
+      <c r="CK13" s="1"/>
+      <c r="CL13" s="1"/>
+      <c r="CM13" s="1"/>
+      <c r="CN13" s="1"/>
+      <c r="CO13" s="1"/>
+      <c r="CP13" s="1"/>
+      <c r="CQ13" s="1"/>
+      <c r="CR13" s="1"/>
+      <c r="CS13" s="1"/>
+      <c r="CT13" s="1"/>
+      <c r="CU13" s="1"/>
+      <c r="CV13" s="1"/>
+      <c r="CW13" s="1"/>
+      <c r="CX13" s="1"/>
+      <c r="CY13" s="1"/>
+      <c r="CZ13" s="1"/>
+      <c r="DA13" s="1"/>
+      <c r="DB13" s="1"/>
+      <c r="DC13" s="1"/>
+      <c r="DD13" s="1"/>
+      <c r="DE13" s="1"/>
+      <c r="DF13" s="1"/>
+      <c r="DG13" s="1"/>
+      <c r="DH13" s="1"/>
+      <c r="DI13" s="1"/>
+      <c r="DJ13" s="1"/>
+      <c r="DK13" s="1"/>
+      <c r="DL13" s="1"/>
+      <c r="DM13" s="1"/>
+      <c r="DN13" s="1"/>
+      <c r="DO13" s="1"/>
+      <c r="DP13" s="1"/>
+      <c r="DQ13" s="1"/>
+      <c r="DR13" s="1"/>
+      <c r="DS13" s="1"/>
+      <c r="DT13" s="1"/>
+      <c r="DU13" s="1"/>
+      <c r="DV13" s="1"/>
+      <c r="DW13" s="1"/>
+      <c r="DX13" s="1"/>
+      <c r="DY13" s="1"/>
+      <c r="DZ13" s="1"/>
+      <c r="EA13" s="1"/>
+      <c r="EB13" s="1"/>
+      <c r="EC13" s="1"/>
+      <c r="ED13" s="1"/>
+      <c r="EE13" s="1"/>
+      <c r="EF13" s="1"/>
+      <c r="EG13" s="1"/>
+    </row>
+    <row r="14" spans="1:138" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1.97</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2.72</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2.48</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2.48</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1.45</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1.93</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1.82</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1.93</v>
+      </c>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
+      <c r="AZ14" s="1"/>
+      <c r="BA14" s="1"/>
+      <c r="BB14" s="1"/>
+      <c r="BC14" s="1"/>
+      <c r="BD14" s="1"/>
+      <c r="BE14" s="1"/>
+      <c r="BF14" s="1"/>
+      <c r="BG14" s="1"/>
+      <c r="BH14" s="1"/>
+      <c r="BI14" s="1"/>
+      <c r="BJ14" s="1"/>
+      <c r="BK14" s="1"/>
+      <c r="BL14" s="1"/>
+      <c r="BM14" s="1"/>
+      <c r="BN14" s="1"/>
+      <c r="BO14" s="1"/>
+      <c r="BP14" s="1"/>
+      <c r="BQ14" s="1"/>
+      <c r="BR14" s="1"/>
+      <c r="BS14" s="1"/>
+      <c r="BT14" s="1"/>
+      <c r="BU14" s="1"/>
+      <c r="BV14" s="1"/>
+      <c r="BW14" s="1"/>
+      <c r="BX14" s="1"/>
+      <c r="BY14" s="1"/>
+      <c r="BZ14" s="1"/>
+      <c r="CA14" s="1"/>
+      <c r="CB14" s="1"/>
+      <c r="CC14" s="1"/>
+      <c r="CD14" s="1"/>
+      <c r="CE14" s="1"/>
+      <c r="CF14" s="1"/>
+      <c r="CG14" s="1"/>
+      <c r="CH14" s="1"/>
+      <c r="CI14" s="1"/>
+      <c r="CJ14" s="1"/>
+      <c r="CK14" s="1"/>
+      <c r="CL14" s="1"/>
+      <c r="CM14" s="1"/>
+      <c r="CN14" s="1"/>
+      <c r="CO14" s="1"/>
+      <c r="CP14" s="1"/>
+      <c r="CQ14" s="1"/>
+      <c r="CR14" s="1"/>
+      <c r="CS14" s="1"/>
+      <c r="CT14" s="1"/>
+      <c r="CU14" s="1"/>
+      <c r="CV14" s="1"/>
+      <c r="CW14" s="1"/>
+      <c r="CX14" s="1"/>
+      <c r="CY14" s="1"/>
+      <c r="CZ14" s="1"/>
+      <c r="DA14" s="1"/>
+      <c r="DB14" s="1"/>
+      <c r="DC14" s="1"/>
+      <c r="DD14" s="1"/>
+      <c r="DE14" s="1"/>
+      <c r="DF14" s="1"/>
+      <c r="DG14" s="1"/>
+      <c r="DH14" s="1"/>
+      <c r="DI14" s="1"/>
+      <c r="DJ14" s="1"/>
+      <c r="DK14" s="1"/>
+      <c r="DL14" s="1"/>
+      <c r="DM14" s="1"/>
+      <c r="DN14" s="1"/>
+      <c r="DO14" s="1"/>
+      <c r="DP14" s="1"/>
+      <c r="DQ14" s="1"/>
+      <c r="DR14" s="1"/>
+      <c r="DS14" s="1"/>
+      <c r="DT14" s="1"/>
+      <c r="DU14" s="1"/>
+      <c r="DV14" s="1"/>
+      <c r="DW14" s="1"/>
+      <c r="DX14" s="1"/>
+      <c r="DY14" s="1"/>
+      <c r="DZ14" s="1"/>
+      <c r="EA14" s="1"/>
+      <c r="EB14" s="1"/>
+      <c r="EC14" s="1"/>
+      <c r="ED14" s="1"/>
+      <c r="EE14" s="1"/>
+      <c r="EF14" s="1"/>
+      <c r="EG14" s="1"/>
+    </row>
+    <row r="15" spans="1:138" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="7">
+        <v>42.25</v>
+      </c>
+      <c r="C15" s="7">
+        <v>129.9</v>
+      </c>
+      <c r="D15" s="7">
+        <v>87.75</v>
+      </c>
+      <c r="E15" s="7">
+        <v>86.03</v>
+      </c>
+      <c r="F15" s="7">
+        <v>43.65</v>
+      </c>
+      <c r="G15" s="7">
+        <v>135.63</v>
+      </c>
+      <c r="H15" s="7">
+        <v>93.3</v>
+      </c>
+      <c r="I15" s="7">
+        <v>93.2</v>
+      </c>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="1"/>
+      <c r="BC15" s="1"/>
+      <c r="BD15" s="1"/>
+      <c r="BE15" s="1"/>
+      <c r="BF15" s="1"/>
+      <c r="BG15" s="1"/>
+      <c r="BH15" s="1"/>
+      <c r="BI15" s="1"/>
+      <c r="BJ15" s="1"/>
+      <c r="BK15" s="1"/>
+      <c r="BL15" s="1"/>
+      <c r="BM15" s="1"/>
+      <c r="BN15" s="1"/>
+      <c r="BO15" s="1"/>
+      <c r="BP15" s="1"/>
+      <c r="BQ15" s="1"/>
+      <c r="BR15" s="1"/>
+      <c r="BS15" s="1"/>
+      <c r="BT15" s="1"/>
+      <c r="BU15" s="1"/>
+      <c r="BV15" s="1"/>
+      <c r="BW15" s="1"/>
+      <c r="BX15" s="1"/>
+      <c r="BY15" s="1"/>
+      <c r="BZ15" s="1"/>
+      <c r="CA15" s="1"/>
+      <c r="CB15" s="1"/>
+      <c r="CC15" s="1"/>
+      <c r="CD15" s="1"/>
+      <c r="CE15" s="1"/>
+      <c r="CF15" s="1"/>
+      <c r="CG15" s="1"/>
+      <c r="CH15" s="1"/>
+      <c r="CI15" s="1"/>
+      <c r="CJ15" s="1"/>
+      <c r="CK15" s="1"/>
+      <c r="CL15" s="1"/>
+      <c r="CM15" s="1"/>
+      <c r="CN15" s="1"/>
+      <c r="CO15" s="1"/>
+      <c r="CP15" s="1"/>
+      <c r="CQ15" s="1"/>
+      <c r="CR15" s="1"/>
+      <c r="CS15" s="1"/>
+      <c r="CT15" s="1"/>
+      <c r="CU15" s="1"/>
+      <c r="CV15" s="1"/>
+      <c r="CW15" s="1"/>
+      <c r="CX15" s="1"/>
+      <c r="CY15" s="1"/>
+      <c r="CZ15" s="1"/>
+      <c r="DA15" s="1"/>
+      <c r="DB15" s="1"/>
+      <c r="DC15" s="1"/>
+      <c r="DD15" s="1"/>
+      <c r="DE15" s="1"/>
+      <c r="DF15" s="1"/>
+      <c r="DG15" s="1"/>
+      <c r="DH15" s="1"/>
+      <c r="DI15" s="1"/>
+      <c r="DJ15" s="1"/>
+      <c r="DK15" s="1"/>
+      <c r="DL15" s="1"/>
+      <c r="DM15" s="1"/>
+      <c r="DN15" s="1"/>
+      <c r="DO15" s="1"/>
+      <c r="DP15" s="1"/>
+      <c r="DQ15" s="1"/>
+      <c r="DR15" s="1"/>
+      <c r="DS15" s="1"/>
+      <c r="DT15" s="1"/>
+      <c r="DU15" s="1"/>
+      <c r="DV15" s="1"/>
+      <c r="DW15" s="1"/>
+      <c r="DX15" s="1"/>
+      <c r="DY15" s="1"/>
+      <c r="DZ15" s="1"/>
+      <c r="EA15" s="1"/>
+      <c r="EB15" s="1"/>
+      <c r="EC15" s="1"/>
+      <c r="ED15" s="1"/>
+      <c r="EE15" s="1"/>
+      <c r="EF15" s="1"/>
+      <c r="EG15" s="1"/>
+      <c r="EH15" s="1"/>
+    </row>
+    <row r="16" spans="1:138" x14ac:dyDescent="0.15">
+      <c r="B16" s="5"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I18" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4669,7 +6212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W14"/>
   <sheetViews>
@@ -5603,12 +7146,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15467,4 +17010,690 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V11" sqref="N3:V11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44203.59648148148</v>
+      </c>
+      <c r="F3" s="1">
+        <v>44203.598622685182</v>
+      </c>
+      <c r="G3" s="1">
+        <v>44203.60019675926</v>
+      </c>
+      <c r="H3" s="1">
+        <v>44203.612453703703</v>
+      </c>
+      <c r="I3" s="1">
+        <v>44203.613645833335</v>
+      </c>
+      <c r="J3" s="1">
+        <v>44203.618067129632</v>
+      </c>
+      <c r="K3" s="1">
+        <v>44203.619444444441</v>
+      </c>
+      <c r="L3" s="1">
+        <v>44203.624456018515</v>
+      </c>
+      <c r="M3" s="1">
+        <v>44203.625821759262</v>
+      </c>
+      <c r="N3">
+        <v>42.25</v>
+      </c>
+      <c r="O3">
+        <v>3.08</v>
+      </c>
+      <c r="P3">
+        <v>2.27</v>
+      </c>
+      <c r="Q3">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="R3">
+        <v>1.72</v>
+      </c>
+      <c r="S3">
+        <v>6.37</v>
+      </c>
+      <c r="T3">
+        <v>1.98</v>
+      </c>
+      <c r="U3">
+        <v>7.22</v>
+      </c>
+      <c r="V3">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44203.585266203707</v>
+      </c>
+      <c r="F4" s="1">
+        <v>44203.586782407408</v>
+      </c>
+      <c r="G4" s="1">
+        <v>44203.588148148148</v>
+      </c>
+      <c r="H4" s="1">
+        <v>44203.602442129632</v>
+      </c>
+      <c r="I4" s="1">
+        <v>44203.604074074072</v>
+      </c>
+      <c r="J4" s="1">
+        <v>44203.608506944445</v>
+      </c>
+      <c r="K4" s="1">
+        <v>44203.609930555554</v>
+      </c>
+      <c r="L4" s="1">
+        <v>44203.614571759259</v>
+      </c>
+      <c r="M4" s="1">
+        <v>44203.615578703706</v>
+      </c>
+      <c r="N4">
+        <v>43.65</v>
+      </c>
+      <c r="O4">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="P4">
+        <v>1.97</v>
+      </c>
+      <c r="Q4">
+        <v>20.58</v>
+      </c>
+      <c r="R4">
+        <v>2.35</v>
+      </c>
+      <c r="S4">
+        <v>6.38</v>
+      </c>
+      <c r="T4">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="U4">
+        <v>6.68</v>
+      </c>
+      <c r="V4">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6">
+        <v>30382596</v>
+      </c>
+      <c r="C6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44203.595868055556</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44203.597800925927</v>
+      </c>
+      <c r="G6" s="1">
+        <v>44203.619849537034</v>
+      </c>
+      <c r="H6" s="1">
+        <v>44203.633819444447</v>
+      </c>
+      <c r="I6" s="1">
+        <v>44203.654062499998</v>
+      </c>
+      <c r="J6" s="1">
+        <v>44203.658379629633</v>
+      </c>
+      <c r="K6" s="1">
+        <v>44203.679189814815</v>
+      </c>
+      <c r="L6" s="1">
+        <v>44203.684189814812</v>
+      </c>
+      <c r="M6" s="1">
+        <v>44203.686076388891</v>
+      </c>
+      <c r="N6">
+        <v>129.9</v>
+      </c>
+      <c r="O6">
+        <v>2.78</v>
+      </c>
+      <c r="P6">
+        <v>31.75</v>
+      </c>
+      <c r="Q6">
+        <v>20.12</v>
+      </c>
+      <c r="R6">
+        <v>29.15</v>
+      </c>
+      <c r="S6">
+        <v>6.22</v>
+      </c>
+      <c r="T6">
+        <v>29.97</v>
+      </c>
+      <c r="U6">
+        <v>7.2</v>
+      </c>
+      <c r="V6">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7">
+        <v>30382608</v>
+      </c>
+      <c r="C7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44203.595868055556</v>
+      </c>
+      <c r="F7" s="1">
+        <v>44203.596967592595</v>
+      </c>
+      <c r="G7" s="1">
+        <v>44203.609386574077</v>
+      </c>
+      <c r="H7" s="1">
+        <v>44203.623541666668</v>
+      </c>
+      <c r="I7" s="1">
+        <v>44203.634513888886</v>
+      </c>
+      <c r="J7" s="1">
+        <v>44203.638807870368</v>
+      </c>
+      <c r="K7" s="1">
+        <v>44203.650289351855</v>
+      </c>
+      <c r="L7" s="1">
+        <v>44203.655081018522</v>
+      </c>
+      <c r="M7" s="1">
+        <v>44203.656805555554</v>
+      </c>
+      <c r="N7">
+        <v>87.75</v>
+      </c>
+      <c r="O7">
+        <v>1.58</v>
+      </c>
+      <c r="P7">
+        <v>17.88</v>
+      </c>
+      <c r="Q7">
+        <v>20.38</v>
+      </c>
+      <c r="R7">
+        <v>15.8</v>
+      </c>
+      <c r="S7">
+        <v>6.18</v>
+      </c>
+      <c r="T7">
+        <v>16.53</v>
+      </c>
+      <c r="U7">
+        <v>6.9</v>
+      </c>
+      <c r="V7">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8">
+        <v>30382619</v>
+      </c>
+      <c r="C8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1">
+        <v>44203.595868055556</v>
+      </c>
+      <c r="F8" s="1">
+        <v>44203.596597222226</v>
+      </c>
+      <c r="G8" s="1">
+        <v>44203.608807870369</v>
+      </c>
+      <c r="H8" s="1">
+        <v>44203.623217592591</v>
+      </c>
+      <c r="I8" s="1">
+        <v>44203.634120370371</v>
+      </c>
+      <c r="J8" s="1">
+        <v>44203.63826388889</v>
+      </c>
+      <c r="K8" s="1">
+        <v>44203.649039351854</v>
+      </c>
+      <c r="L8" s="1">
+        <v>44203.65388888889</v>
+      </c>
+      <c r="M8" s="1">
+        <v>44203.655613425923</v>
+      </c>
+      <c r="N8">
+        <v>86.03</v>
+      </c>
+      <c r="O8">
+        <v>1.05</v>
+      </c>
+      <c r="P8">
+        <v>17.579999999999998</v>
+      </c>
+      <c r="Q8">
+        <v>20.75</v>
+      </c>
+      <c r="R8">
+        <v>15.7</v>
+      </c>
+      <c r="S8">
+        <v>5.97</v>
+      </c>
+      <c r="T8">
+        <v>15.52</v>
+      </c>
+      <c r="U8">
+        <v>6.98</v>
+      </c>
+      <c r="V8">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9">
+        <v>30380489</v>
+      </c>
+      <c r="C9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1">
+        <v>44203.586828703701</v>
+      </c>
+      <c r="F9" s="1">
+        <v>44203.589375000003</v>
+      </c>
+      <c r="G9" s="1">
+        <v>44203.612847222219</v>
+      </c>
+      <c r="H9" s="1">
+        <v>44203.629675925928</v>
+      </c>
+      <c r="I9" s="1">
+        <v>44203.650081018517</v>
+      </c>
+      <c r="J9" s="1">
+        <v>44203.654548611114</v>
+      </c>
+      <c r="K9" s="1">
+        <v>44203.674872685187</v>
+      </c>
+      <c r="L9" s="1">
+        <v>44203.679675925923</v>
+      </c>
+      <c r="M9" s="1">
+        <v>44203.681018518517</v>
+      </c>
+      <c r="N9">
+        <v>135.63</v>
+      </c>
+      <c r="O9">
+        <v>3.67</v>
+      </c>
+      <c r="P9">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="Q9">
+        <v>24.23</v>
+      </c>
+      <c r="R9">
+        <v>29.38</v>
+      </c>
+      <c r="S9">
+        <v>6.43</v>
+      </c>
+      <c r="T9">
+        <v>29.27</v>
+      </c>
+      <c r="U9">
+        <v>6.92</v>
+      </c>
+      <c r="V9">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10">
+        <v>30380545</v>
+      </c>
+      <c r="C10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44203.587175925924</v>
+      </c>
+      <c r="F10" s="1">
+        <v>44203.588738425926</v>
+      </c>
+      <c r="G10" s="1">
+        <v>44203.601990740739</v>
+      </c>
+      <c r="H10" s="1">
+        <v>44203.618541666663</v>
+      </c>
+      <c r="I10" s="1">
+        <v>44203.630231481482</v>
+      </c>
+      <c r="J10" s="1">
+        <v>44203.634606481479</v>
+      </c>
+      <c r="K10" s="1">
+        <v>44203.645960648151</v>
+      </c>
+      <c r="L10" s="1">
+        <v>44203.650706018518</v>
+      </c>
+      <c r="M10" s="1">
+        <v>44203.651967592596</v>
+      </c>
+      <c r="N10">
+        <v>93.3</v>
+      </c>
+      <c r="O10">
+        <v>2.25</v>
+      </c>
+      <c r="P10">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="Q10">
+        <v>23.83</v>
+      </c>
+      <c r="R10">
+        <v>16.829999999999998</v>
+      </c>
+      <c r="S10">
+        <v>6.3</v>
+      </c>
+      <c r="T10">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="U10">
+        <v>6.83</v>
+      </c>
+      <c r="V10">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11">
+        <v>30380550</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44203.587175925924</v>
+      </c>
+      <c r="F11" s="1">
+        <v>44203.588009259256</v>
+      </c>
+      <c r="G11" s="1">
+        <v>44203.601990740739</v>
+      </c>
+      <c r="H11" s="1">
+        <v>44203.617708333331</v>
+      </c>
+      <c r="I11" s="1">
+        <v>44203.629479166666</v>
+      </c>
+      <c r="J11" s="1">
+        <v>44203.633888888886</v>
+      </c>
+      <c r="K11" s="1">
+        <v>44203.645752314813</v>
+      </c>
+      <c r="L11" s="1">
+        <v>44203.650555555556</v>
+      </c>
+      <c r="M11" s="1">
+        <v>44203.651898148149</v>
+      </c>
+      <c r="N11">
+        <v>93.2</v>
+      </c>
+      <c r="O11">
+        <v>1.2</v>
+      </c>
+      <c r="P11">
+        <v>20.13</v>
+      </c>
+      <c r="Q11">
+        <v>22.63</v>
+      </c>
+      <c r="R11">
+        <v>16.95</v>
+      </c>
+      <c r="S11">
+        <v>6.35</v>
+      </c>
+      <c r="T11">
+        <v>17.079999999999998</v>
+      </c>
+      <c r="U11">
+        <v>6.92</v>
+      </c>
+      <c r="V11">
+        <v>1.93</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/nanopore_pipeline_type1/data/medaka処理時間データ.xlsx
+++ b/nanopore_pipeline_type1/data/medaka処理時間データ.xlsx
@@ -9,17 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="36165" windowHeight="10680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="36165" windowHeight="10680" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="まとめ1(GPU)" sheetId="8" r:id="rId1"/>
-    <sheet name="まとめ2(CPU付き)" sheetId="7" r:id="rId2"/>
+    <sheet name="まとめ2(CPU)" sheetId="7" r:id="rId2"/>
     <sheet name="まとめ3(chr22)" sheetId="10" r:id="rId3"/>
     <sheet name="gpu" sheetId="3" r:id="rId4"/>
     <sheet name="cpu" sheetId="6" r:id="rId5"/>
     <sheet name="cpu_split" sheetId="5" r:id="rId6"/>
     <sheet name="chr22" sheetId="9" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">cpu_split!$A$2:$V$146</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="140">
   <si>
     <t>jobnumber</t>
   </si>
@@ -917,6 +920,15 @@
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="46" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -940,15 +952,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1234,7 +1237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -1305,22 +1308,22 @@
       <c r="A4" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="40">
         <v>1.5509259246755391E-3</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="40">
         <v>1.157407408754807E-3</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="40">
         <v>5.671296312357299E-4</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="40">
         <v>4.398148157633841E-4</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="40">
         <v>3.0092592351138592E-4</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="40">
         <v>8.217592621804215E-4</v>
       </c>
       <c r="H4" s="23" t="s">
@@ -1331,12 +1334,12 @@
       <c r="A5" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="23" t="s">
         <v>114</v>
       </c>
@@ -1409,22 +1412,22 @@
       <c r="A9" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="40">
         <v>0.41866898148145992</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="40">
         <v>0.38543981481780065</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="41">
         <v>0.36759259259270038</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="41">
         <v>0.61160879629460396</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="41">
         <v>0.48483796296204673</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="40">
         <v>0.49755787036701804</v>
       </c>
       <c r="H9" s="23" t="s">
@@ -1435,12 +1438,12 @@
       <c r="A10" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="37"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="23" t="s">
         <v>117</v>
       </c>
@@ -1449,12 +1452,12 @@
       <c r="A11" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="37"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="23" t="s">
         <v>108</v>
       </c>
@@ -1463,12 +1466,12 @@
       <c r="A12" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="37"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="40"/>
       <c r="H12" s="23" t="s">
         <v>114</v>
       </c>
@@ -1477,12 +1480,12 @@
       <c r="A13" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="37"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="23" t="s">
         <v>102</v>
       </c>
@@ -1491,12 +1494,12 @@
       <c r="A14" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="37"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="40"/>
       <c r="H14" s="23" t="s">
         <v>108</v>
       </c>
@@ -1672,6 +1675,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="D9:D14"/>
     <mergeCell ref="E9:E14"/>
@@ -1679,11 +1687,6 @@
     <mergeCell ref="G9:G14"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1744,48 +1747,48 @@
       <c r="A2" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42" t="s">
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="43" t="s">
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="44" t="s">
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="39" t="s">
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
     </row>
     <row r="3" spans="1:160" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -4020,18 +4023,18 @@
       <c r="A2" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="43" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:138" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -4140,25 +4143,25 @@
       <c r="B7" s="12">
         <v>2.27</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="38">
         <v>31.75</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="38">
         <v>17.88</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="38">
         <v>17.579999999999998</v>
       </c>
       <c r="F7" s="12">
         <v>1.97</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G7" s="39">
         <v>33.799999999999997</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H7" s="39">
         <v>19.079999999999998</v>
       </c>
-      <c r="I7" s="46">
+      <c r="I7" s="38">
         <v>20.13</v>
       </c>
       <c r="X7" s="1"/>
@@ -4553,25 +4556,25 @@
       <c r="B10" s="12">
         <v>1.72</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="38">
         <v>29.15</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="38">
         <v>15.8</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="38">
         <v>15.7</v>
       </c>
       <c r="F10" s="12">
         <v>2.35</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="39">
         <v>29.38</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="39">
         <v>16.829999999999998</v>
       </c>
-      <c r="I10" s="46">
+      <c r="I10" s="38">
         <v>16.95</v>
       </c>
       <c r="X10" s="1"/>
@@ -4839,25 +4842,25 @@
       <c r="B12" s="12">
         <v>1.98</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="38">
         <v>29.97</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="38">
         <v>16.53</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="38">
         <v>15.52</v>
       </c>
       <c r="F12" s="12">
         <v>2.0499999999999998</v>
       </c>
-      <c r="G12" s="47">
+      <c r="G12" s="39">
         <v>29.27</v>
       </c>
-      <c r="H12" s="47">
+      <c r="H12" s="39">
         <v>16.350000000000001</v>
       </c>
-      <c r="I12" s="46">
+      <c r="I12" s="38">
         <v>17.079999999999998</v>
       </c>
       <c r="X12" s="1"/>
@@ -6217,7 +6220,7 @@
   <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7148,10 +7151,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V145"/>
+  <dimension ref="A1:V146"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14291,64 +14294,64 @@
         <v>50</v>
       </c>
       <c r="B106">
-        <v>29211971</v>
+        <v>30411535</v>
       </c>
       <c r="C106" t="s">
         <v>21</v>
       </c>
       <c r="D106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E106" s="1">
-        <v>44190.624328703707</v>
+        <v>44203.747256944444</v>
       </c>
       <c r="F106" s="1">
-        <v>44190.628599537034</v>
+        <v>44203.752256944441</v>
       </c>
       <c r="G106" s="1">
-        <v>44190.662835648145</v>
+        <v>44203.801261574074</v>
       </c>
       <c r="H106" s="1">
-        <v>44190.697696759256</v>
+        <v>44203.842881944445</v>
       </c>
       <c r="I106" s="1">
-        <v>44190.724826388891</v>
+        <v>44203.88621527778</v>
       </c>
       <c r="J106" s="1">
-        <v>44190.735405092593</v>
+        <v>44203.900439814817</v>
       </c>
       <c r="K106" s="1">
-        <v>44190.762349537035</v>
+        <v>44203.942696759259</v>
       </c>
       <c r="L106" s="1">
-        <v>44190.773090277777</v>
+        <v>44203.956238425926</v>
       </c>
       <c r="M106" s="1">
-        <v>44190.77443287037</v>
+        <v>44203.957673611112</v>
       </c>
       <c r="N106">
-        <v>3.6</v>
+        <v>5.05</v>
       </c>
       <c r="O106">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="P106">
-        <v>0.82</v>
+        <v>1.18</v>
       </c>
       <c r="Q106">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="R106">
-        <v>0.65</v>
+        <v>1.04</v>
       </c>
       <c r="S106">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
       <c r="T106">
-        <v>0.65</v>
+        <v>1.01</v>
       </c>
       <c r="U106">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
       <c r="V106">
         <v>0.03</v>
@@ -14359,67 +14362,67 @@
         <v>50</v>
       </c>
       <c r="B107">
-        <v>29211973</v>
+        <v>29211971</v>
       </c>
       <c r="C107" t="s">
         <v>21</v>
       </c>
       <c r="D107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E107" s="1">
-        <v>44190.625613425924</v>
+        <v>44190.624328703707</v>
       </c>
       <c r="F107" s="1">
-        <v>44190.630254629628</v>
+        <v>44190.628599537034</v>
       </c>
       <c r="G107" s="1">
-        <v>44190.672523148147</v>
+        <v>44190.662835648145</v>
       </c>
       <c r="H107" s="1">
-        <v>44190.713125000002</v>
+        <v>44190.697696759256</v>
       </c>
       <c r="I107" s="1">
-        <v>44190.74900462963</v>
+        <v>44190.724826388891</v>
       </c>
       <c r="J107" s="1">
-        <v>44190.760405092595</v>
+        <v>44190.735405092593</v>
       </c>
       <c r="K107" s="1">
-        <v>44190.796678240738</v>
+        <v>44190.762349537035</v>
       </c>
       <c r="L107" s="1">
-        <v>44190.80840277778</v>
+        <v>44190.773090277777</v>
       </c>
       <c r="M107" s="1">
-        <v>44190.809953703705</v>
+        <v>44190.77443287037</v>
       </c>
       <c r="N107">
-        <v>4.42</v>
+        <v>3.6</v>
       </c>
       <c r="O107">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="P107">
-        <v>1.01</v>
+        <v>0.82</v>
       </c>
       <c r="Q107">
-        <v>0.97</v>
+        <v>0.84</v>
       </c>
       <c r="R107">
-        <v>0.86</v>
+        <v>0.65</v>
       </c>
       <c r="S107">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="T107">
-        <v>0.87</v>
+        <v>0.65</v>
       </c>
       <c r="U107">
-        <v>0.28000000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="V107">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.15">
@@ -14427,67 +14430,67 @@
         <v>50</v>
       </c>
       <c r="B108">
-        <v>29211975</v>
+        <v>29211973</v>
       </c>
       <c r="C108" t="s">
         <v>21</v>
       </c>
       <c r="D108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E108" s="1">
-        <v>44190.625960648147</v>
+        <v>44190.625613425924</v>
       </c>
       <c r="F108" s="1">
-        <v>44190.630659722221</v>
+        <v>44190.630254629628</v>
       </c>
       <c r="G108" s="1">
-        <v>44190.674224537041</v>
+        <v>44190.672523148147</v>
       </c>
       <c r="H108" s="1">
-        <v>44190.712314814817</v>
+        <v>44190.713125000002</v>
       </c>
       <c r="I108" s="1">
-        <v>44190.749803240738</v>
+        <v>44190.74900462963</v>
       </c>
       <c r="J108" s="1">
-        <v>44190.761192129627</v>
+        <v>44190.760405092595</v>
       </c>
       <c r="K108" s="1">
-        <v>44190.800196759257</v>
+        <v>44190.796678240738</v>
       </c>
       <c r="L108" s="1">
-        <v>44190.812280092592</v>
+        <v>44190.80840277778</v>
       </c>
       <c r="M108" s="1">
-        <v>44190.813576388886</v>
+        <v>44190.809953703705</v>
       </c>
       <c r="N108">
-        <v>4.5</v>
+        <v>4.42</v>
       </c>
       <c r="O108">
         <v>0.11</v>
       </c>
       <c r="P108">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="Q108">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="R108">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="S108">
         <v>0.27</v>
       </c>
       <c r="T108">
-        <v>0.94</v>
+        <v>0.87</v>
       </c>
       <c r="U108">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="V108">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.15">
@@ -14495,64 +14498,64 @@
         <v>50</v>
       </c>
       <c r="B109">
-        <v>29211977</v>
+        <v>29211975</v>
       </c>
       <c r="C109" t="s">
         <v>21</v>
       </c>
       <c r="D109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E109" s="1">
-        <v>44190.651782407411</v>
+        <v>44190.625960648147</v>
       </c>
       <c r="F109" s="1">
-        <v>44190.656053240738</v>
+        <v>44190.630659722221</v>
       </c>
       <c r="G109" s="1">
-        <v>44190.698206018518</v>
+        <v>44190.674224537041</v>
       </c>
       <c r="H109" s="1">
-        <v>44190.735601851855</v>
+        <v>44190.712314814817</v>
       </c>
       <c r="I109" s="1">
-        <v>44190.772534722222</v>
+        <v>44190.749803240738</v>
       </c>
       <c r="J109" s="1">
-        <v>44190.783912037034</v>
+        <v>44190.761192129627</v>
       </c>
       <c r="K109" s="1">
-        <v>44190.820115740738</v>
+        <v>44190.800196759257</v>
       </c>
       <c r="L109" s="1">
-        <v>44190.831562500003</v>
+        <v>44190.812280092592</v>
       </c>
       <c r="M109" s="1">
-        <v>44190.832800925928</v>
+        <v>44190.813576388886</v>
       </c>
       <c r="N109">
-        <v>4.34</v>
+        <v>4.5</v>
       </c>
       <c r="O109">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="P109">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="Q109">
+        <v>0.91</v>
+      </c>
+      <c r="R109">
         <v>0.9</v>
-      </c>
-      <c r="R109">
-        <v>0.89</v>
       </c>
       <c r="S109">
         <v>0.27</v>
       </c>
       <c r="T109">
-        <v>0.87</v>
+        <v>0.94</v>
       </c>
       <c r="U109">
-        <v>0.27</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="V109">
         <v>0.03</v>
@@ -14563,67 +14566,67 @@
         <v>50</v>
       </c>
       <c r="B110">
-        <v>29211979</v>
+        <v>29211977</v>
       </c>
       <c r="C110" t="s">
         <v>21</v>
       </c>
       <c r="D110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E110" s="1">
-        <v>44190.652453703704</v>
+        <v>44190.651782407411</v>
       </c>
       <c r="F110" s="1">
-        <v>44190.655787037038</v>
+        <v>44190.656053240738</v>
       </c>
       <c r="G110" s="1">
-        <v>44190.68650462963</v>
+        <v>44190.698206018518</v>
       </c>
       <c r="H110" s="1">
-        <v>44190.714560185188</v>
+        <v>44190.735601851855</v>
       </c>
       <c r="I110" s="1">
-        <v>44190.740069444444</v>
+        <v>44190.772534722222</v>
       </c>
       <c r="J110" s="1">
-        <v>44190.748703703706</v>
+        <v>44190.783912037034</v>
       </c>
       <c r="K110" s="1">
-        <v>44190.775046296294</v>
+        <v>44190.820115740738</v>
       </c>
       <c r="L110" s="1">
-        <v>44190.783877314818</v>
+        <v>44190.831562500003</v>
       </c>
       <c r="M110" s="1">
-        <v>44190.784861111111</v>
+        <v>44190.832800925928</v>
       </c>
       <c r="N110">
-        <v>3.18</v>
+        <v>4.34</v>
       </c>
       <c r="O110">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="P110">
-        <v>0.74</v>
+        <v>1.01</v>
       </c>
       <c r="Q110">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="R110">
-        <v>0.61</v>
+        <v>0.89</v>
       </c>
       <c r="S110">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="T110">
-        <v>0.63</v>
+        <v>0.87</v>
       </c>
       <c r="U110">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="V110">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.15">
@@ -14631,64 +14634,64 @@
         <v>50</v>
       </c>
       <c r="B111">
-        <v>29211981</v>
+        <v>29211979</v>
       </c>
       <c r="C111" t="s">
         <v>21</v>
       </c>
       <c r="D111" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E111" s="1">
-        <v>44190.665324074071</v>
+        <v>44190.652453703704</v>
       </c>
       <c r="F111" s="1">
-        <v>44190.668067129627</v>
+        <v>44190.655787037038</v>
       </c>
       <c r="G111" s="1">
-        <v>44190.69568287037</v>
+        <v>44190.68650462963</v>
       </c>
       <c r="H111" s="1">
-        <v>44190.719675925924</v>
+        <v>44190.714560185188</v>
       </c>
       <c r="I111" s="1">
-        <v>44190.744004629632</v>
+        <v>44190.740069444444</v>
       </c>
       <c r="J111" s="1">
-        <v>44190.751319444447</v>
+        <v>44190.748703703706</v>
       </c>
       <c r="K111" s="1">
-        <v>44190.776053240741</v>
+        <v>44190.775046296294</v>
       </c>
       <c r="L111" s="1">
-        <v>44190.783784722225</v>
+        <v>44190.783877314818</v>
       </c>
       <c r="M111" s="1">
-        <v>44190.784560185188</v>
+        <v>44190.784861111111</v>
       </c>
       <c r="N111">
-        <v>2.86</v>
+        <v>3.18</v>
       </c>
       <c r="O111">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="P111">
-        <v>0.66</v>
+        <v>0.74</v>
       </c>
       <c r="Q111">
-        <v>0.57999999999999996</v>
+        <v>0.67</v>
       </c>
       <c r="R111">
-        <v>0.57999999999999996</v>
+        <v>0.61</v>
       </c>
       <c r="S111">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="T111">
-        <v>0.59</v>
+        <v>0.63</v>
       </c>
       <c r="U111">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="V111">
         <v>0.02</v>
@@ -14699,40 +14702,40 @@
         <v>50</v>
       </c>
       <c r="B112">
-        <v>29211983</v>
+        <v>29211981</v>
       </c>
       <c r="C112" t="s">
         <v>21</v>
       </c>
       <c r="D112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E112" s="1">
-        <v>44190.666354166664</v>
+        <v>44190.665324074071</v>
       </c>
       <c r="F112" s="1">
-        <v>44190.669305555559</v>
+        <v>44190.668067129627</v>
       </c>
       <c r="G112" s="1">
-        <v>44190.697615740741</v>
+        <v>44190.69568287037</v>
       </c>
       <c r="H112" s="1">
-        <v>44190.721273148149</v>
+        <v>44190.719675925924</v>
       </c>
       <c r="I112" s="1">
-        <v>44190.745983796296</v>
+        <v>44190.744004629632</v>
       </c>
       <c r="J112" s="1">
-        <v>44190.753333333334</v>
+        <v>44190.751319444447</v>
       </c>
       <c r="K112" s="1">
-        <v>44190.776932870373</v>
+        <v>44190.776053240741</v>
       </c>
       <c r="L112" s="1">
-        <v>44190.784571759257</v>
+        <v>44190.783784722225</v>
       </c>
       <c r="M112" s="1">
-        <v>44190.785428240742</v>
+        <v>44190.784560185188</v>
       </c>
       <c r="N112">
         <v>2.86</v>
@@ -14741,22 +14744,22 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="P112">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="Q112">
-        <v>0.56999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="R112">
-        <v>0.59</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="S112">
         <v>0.18</v>
       </c>
       <c r="T112">
-        <v>0.56999999999999995</v>
+        <v>0.59</v>
       </c>
       <c r="U112">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="V112">
         <v>0.02</v>
@@ -14767,64 +14770,64 @@
         <v>50</v>
       </c>
       <c r="B113">
-        <v>29211985</v>
+        <v>29211983</v>
       </c>
       <c r="C113" t="s">
         <v>21</v>
       </c>
       <c r="D113" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E113" s="1">
-        <v>44190.667037037034</v>
+        <v>44190.666354166664</v>
       </c>
       <c r="F113" s="1">
-        <v>44190.670185185183</v>
+        <v>44190.669305555559</v>
       </c>
       <c r="G113" s="1">
-        <v>44190.696643518517</v>
+        <v>44190.697615740741</v>
       </c>
       <c r="H113" s="1">
-        <v>44190.72792824074</v>
+        <v>44190.721273148149</v>
       </c>
       <c r="I113" s="1">
-        <v>44190.751493055555</v>
+        <v>44190.745983796296</v>
       </c>
       <c r="J113" s="1">
-        <v>44190.758888888886</v>
+        <v>44190.753333333334</v>
       </c>
       <c r="K113" s="1">
-        <v>44190.782164351855</v>
+        <v>44190.776932870373</v>
       </c>
       <c r="L113" s="1">
-        <v>44190.789976851855</v>
+        <v>44190.784571759257</v>
       </c>
       <c r="M113" s="1">
-        <v>44190.790879629632</v>
+        <v>44190.785428240742</v>
       </c>
       <c r="N113">
-        <v>2.97</v>
+        <v>2.86</v>
       </c>
       <c r="O113">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P113">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
       <c r="Q113">
-        <v>0.75</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="R113">
-        <v>0.56999999999999995</v>
+        <v>0.59</v>
       </c>
       <c r="S113">
         <v>0.18</v>
       </c>
       <c r="T113">
-        <v>0.56000000000000005</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="U113">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="V113">
         <v>0.02</v>
@@ -14835,67 +14838,67 @@
         <v>50</v>
       </c>
       <c r="B114">
-        <v>29211987</v>
+        <v>29211985</v>
       </c>
       <c r="C114" t="s">
         <v>21</v>
       </c>
       <c r="D114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E114" s="1">
         <v>44190.667037037034</v>
       </c>
       <c r="F114" s="1">
-        <v>44190.669768518521</v>
+        <v>44190.670185185183</v>
       </c>
       <c r="G114" s="1">
-        <v>44190.696516203701</v>
+        <v>44190.696643518517</v>
       </c>
       <c r="H114" s="1">
-        <v>44190.722881944443</v>
+        <v>44190.72792824074</v>
       </c>
       <c r="I114" s="1">
-        <v>44190.746099537035</v>
+        <v>44190.751493055555</v>
       </c>
       <c r="J114" s="1">
-        <v>44190.753946759258</v>
+        <v>44190.758888888886</v>
       </c>
       <c r="K114" s="1">
-        <v>44190.777048611111</v>
+        <v>44190.782164351855</v>
       </c>
       <c r="L114" s="1">
-        <v>44190.785844907405</v>
+        <v>44190.789976851855</v>
       </c>
       <c r="M114" s="1">
-        <v>44190.788113425922</v>
+        <v>44190.790879629632</v>
       </c>
       <c r="N114">
-        <v>2.91</v>
+        <v>2.97</v>
       </c>
       <c r="O114">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="P114">
         <v>0.64</v>
       </c>
       <c r="Q114">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="R114">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="S114">
+        <v>0.18</v>
+      </c>
+      <c r="T114">
         <v>0.56000000000000005</v>
       </c>
-      <c r="S114">
+      <c r="U114">
         <v>0.19</v>
       </c>
-      <c r="T114">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="U114">
-        <v>0.21</v>
-      </c>
       <c r="V114">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.15">
@@ -14903,67 +14906,67 @@
         <v>50</v>
       </c>
       <c r="B115">
-        <v>29211989</v>
+        <v>29211987</v>
       </c>
       <c r="C115" t="s">
         <v>21</v>
       </c>
       <c r="D115" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E115" s="1">
-        <v>44190.66915509259</v>
+        <v>44190.667037037034</v>
       </c>
       <c r="F115" s="1">
-        <v>44190.671666666669</v>
+        <v>44190.669768518521</v>
       </c>
       <c r="G115" s="1">
-        <v>44190.697511574072</v>
+        <v>44190.696516203701</v>
       </c>
       <c r="H115" s="1">
-        <v>44190.720231481479</v>
+        <v>44190.722881944443</v>
       </c>
       <c r="I115" s="1">
-        <v>44190.742662037039</v>
+        <v>44190.746099537035</v>
       </c>
       <c r="J115" s="1">
-        <v>44190.749513888892</v>
+        <v>44190.753946759258</v>
       </c>
       <c r="K115" s="1">
-        <v>44190.772175925929</v>
+        <v>44190.777048611111</v>
       </c>
       <c r="L115" s="1">
-        <v>44190.779537037037</v>
+        <v>44190.785844907405</v>
       </c>
       <c r="M115" s="1">
-        <v>44190.780613425923</v>
+        <v>44190.788113425922</v>
       </c>
       <c r="N115">
-        <v>2.67</v>
+        <v>2.91</v>
       </c>
       <c r="O115">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P115">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="Q115">
+        <v>0.63</v>
+      </c>
+      <c r="R115">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="S115">
+        <v>0.19</v>
+      </c>
+      <c r="T115">
         <v>0.55000000000000004</v>
       </c>
-      <c r="R115">
-        <v>0.54</v>
-      </c>
-      <c r="S115">
-        <v>0.16</v>
-      </c>
-      <c r="T115">
-        <v>0.54</v>
-      </c>
       <c r="U115">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="V115">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.15">
@@ -14971,67 +14974,67 @@
         <v>50</v>
       </c>
       <c r="B116">
-        <v>29211991</v>
+        <v>29211989</v>
       </c>
       <c r="C116" t="s">
         <v>21</v>
       </c>
       <c r="D116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E116" s="1">
-        <v>44190.676782407405</v>
+        <v>44190.66915509259</v>
       </c>
       <c r="F116" s="1">
-        <v>44190.678784722222</v>
+        <v>44190.671666666669</v>
       </c>
       <c r="G116" s="1">
-        <v>44190.696979166663</v>
+        <v>44190.697511574072</v>
       </c>
       <c r="H116" s="1">
-        <v>44190.713240740741</v>
+        <v>44190.720231481479</v>
       </c>
       <c r="I116" s="1">
-        <v>44190.728703703702</v>
+        <v>44190.742662037039</v>
       </c>
       <c r="J116" s="1">
-        <v>44190.733564814815</v>
+        <v>44190.749513888892</v>
       </c>
       <c r="K116" s="1">
-        <v>44190.748854166668</v>
+        <v>44190.772175925929</v>
       </c>
       <c r="L116" s="1">
-        <v>44190.75377314815</v>
+        <v>44190.779537037037</v>
       </c>
       <c r="M116" s="1">
-        <v>44190.754374999997</v>
+        <v>44190.780613425923</v>
       </c>
       <c r="N116">
-        <v>1.86</v>
+        <v>2.67</v>
       </c>
       <c r="O116">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="P116">
-        <v>0.44</v>
+        <v>0.62</v>
       </c>
       <c r="Q116">
-        <v>0.39</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R116">
-        <v>0.37</v>
+        <v>0.54</v>
       </c>
       <c r="S116">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="T116">
-        <v>0.37</v>
+        <v>0.54</v>
       </c>
       <c r="U116">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="V116">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.15">
@@ -15039,67 +15042,67 @@
         <v>50</v>
       </c>
       <c r="B117">
-        <v>29211992</v>
+        <v>29211991</v>
       </c>
       <c r="C117" t="s">
         <v>21</v>
       </c>
       <c r="D117" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E117" s="1">
-        <v>44190.680243055554</v>
+        <v>44190.676782407405</v>
       </c>
       <c r="F117" s="1">
-        <v>44190.682604166665</v>
+        <v>44190.678784722222</v>
       </c>
       <c r="G117" s="1">
-        <v>44190.703402777777</v>
+        <v>44190.696979166663</v>
       </c>
       <c r="H117" s="1">
-        <v>44190.723020833335</v>
+        <v>44190.713240740741</v>
       </c>
       <c r="I117" s="1">
-        <v>44190.740520833337</v>
+        <v>44190.728703703702</v>
       </c>
       <c r="J117" s="1">
-        <v>44190.746041666665</v>
+        <v>44190.733564814815</v>
       </c>
       <c r="K117" s="1">
-        <v>44190.764062499999</v>
+        <v>44190.748854166668</v>
       </c>
       <c r="L117" s="1">
-        <v>44190.770057870373</v>
+        <v>44190.75377314815</v>
       </c>
       <c r="M117" s="1">
-        <v>44190.770844907405</v>
+        <v>44190.754374999997</v>
       </c>
       <c r="N117">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="O117">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="P117">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="Q117">
-        <v>0.47</v>
+        <v>0.39</v>
       </c>
       <c r="R117">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="S117">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="T117">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="U117">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="V117">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.15">
@@ -15107,67 +15110,67 @@
         <v>50</v>
       </c>
       <c r="B118">
-        <v>29211994</v>
+        <v>29211992</v>
       </c>
       <c r="C118" t="s">
         <v>21</v>
       </c>
       <c r="D118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E118" s="1">
-        <v>44190.682326388887</v>
+        <v>44190.680243055554</v>
       </c>
       <c r="F118" s="1">
-        <v>44190.684108796297</v>
+        <v>44190.682604166665</v>
       </c>
       <c r="G118" s="1">
-        <v>44190.694699074076</v>
+        <v>44190.703402777777</v>
       </c>
       <c r="H118" s="1">
-        <v>44190.707291666666</v>
+        <v>44190.723020833335</v>
       </c>
       <c r="I118" s="1">
-        <v>44190.716423611113</v>
+        <v>44190.740520833337</v>
       </c>
       <c r="J118" s="1">
-        <v>44190.71974537037</v>
+        <v>44190.746041666665</v>
       </c>
       <c r="K118" s="1">
-        <v>44190.728842592594</v>
+        <v>44190.764062499999</v>
       </c>
       <c r="L118" s="1">
-        <v>44190.732314814813</v>
+        <v>44190.770057870373</v>
       </c>
       <c r="M118" s="1">
-        <v>44190.732800925929</v>
+        <v>44190.770844907405</v>
       </c>
       <c r="N118">
-        <v>1.21</v>
+        <v>2.17</v>
       </c>
       <c r="O118">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="P118">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q118">
-        <v>0.3</v>
+        <v>0.47</v>
       </c>
       <c r="R118">
-        <v>0.22</v>
+        <v>0.42</v>
       </c>
       <c r="S118">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="T118">
-        <v>0.22</v>
+        <v>0.43</v>
       </c>
       <c r="U118">
-        <v>0.08</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V118">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.15">
@@ -15175,61 +15178,61 @@
         <v>50</v>
       </c>
       <c r="B119">
-        <v>29211996</v>
+        <v>29211994</v>
       </c>
       <c r="C119" t="s">
         <v>21</v>
       </c>
       <c r="D119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E119" s="1">
-        <v>44190.68476851852</v>
+        <v>44190.682326388887</v>
       </c>
       <c r="F119" s="1">
-        <v>44190.686273148145</v>
+        <v>44190.684108796297</v>
       </c>
       <c r="G119" s="1">
-        <v>44190.699016203704</v>
+        <v>44190.694699074076</v>
       </c>
       <c r="H119" s="1">
-        <v>44190.712013888886</v>
+        <v>44190.707291666666</v>
       </c>
       <c r="I119" s="1">
-        <v>44190.723113425927</v>
+        <v>44190.716423611113</v>
       </c>
       <c r="J119" s="1">
-        <v>44190.726469907408</v>
+        <v>44190.71974537037</v>
       </c>
       <c r="K119" s="1">
-        <v>44190.737361111111</v>
+        <v>44190.728842592594</v>
       </c>
       <c r="L119" s="1">
-        <v>44190.74077546296</v>
+        <v>44190.732314814813</v>
       </c>
       <c r="M119" s="1">
-        <v>44190.741273148145</v>
+        <v>44190.732800925929</v>
       </c>
       <c r="N119">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
       <c r="O119">
         <v>0.04</v>
       </c>
       <c r="P119">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="Q119">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="R119">
-        <v>0.27</v>
+        <v>0.22</v>
       </c>
       <c r="S119">
         <v>0.08</v>
       </c>
       <c r="T119">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="U119">
         <v>0.08</v>
@@ -15243,67 +15246,67 @@
         <v>50</v>
       </c>
       <c r="B120">
-        <v>29211998</v>
+        <v>29211996</v>
       </c>
       <c r="C120" t="s">
         <v>21</v>
       </c>
       <c r="D120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E120" s="1">
-        <v>44190.685057870367</v>
+        <v>44190.68476851852</v>
       </c>
       <c r="F120" s="1">
-        <v>44190.689837962964</v>
+        <v>44190.686273148145</v>
       </c>
       <c r="G120" s="1">
-        <v>44190.737175925926</v>
+        <v>44190.699016203704</v>
       </c>
       <c r="H120" s="1">
-        <v>44190.776284722226</v>
+        <v>44190.712013888886</v>
       </c>
       <c r="I120" s="1">
-        <v>44190.818078703705</v>
+        <v>44190.723113425927</v>
       </c>
       <c r="J120" s="1">
-        <v>44190.830937500003</v>
+        <v>44190.726469907408</v>
       </c>
       <c r="K120" s="1">
-        <v>44190.872974537036</v>
+        <v>44190.737361111111</v>
       </c>
       <c r="L120" s="1">
-        <v>44190.886250000003</v>
+        <v>44190.74077546296</v>
       </c>
       <c r="M120" s="1">
-        <v>44190.887881944444</v>
+        <v>44190.741273148145</v>
       </c>
       <c r="N120">
-        <v>4.87</v>
+        <v>1.36</v>
       </c>
       <c r="O120">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="P120">
-        <v>1.1399999999999999</v>
+        <v>0.31</v>
       </c>
       <c r="Q120">
-        <v>0.94</v>
+        <v>0.31</v>
       </c>
       <c r="R120">
-        <v>1</v>
+        <v>0.27</v>
       </c>
       <c r="S120">
-        <v>0.31</v>
+        <v>0.08</v>
       </c>
       <c r="T120">
-        <v>1.01</v>
+        <v>0.26</v>
       </c>
       <c r="U120">
-        <v>0.32</v>
+        <v>0.08</v>
       </c>
       <c r="V120">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.15">
@@ -15311,135 +15314,135 @@
         <v>50</v>
       </c>
       <c r="B121">
-        <v>29212000</v>
+        <v>29211998</v>
       </c>
       <c r="C121" t="s">
         <v>21</v>
       </c>
       <c r="D121" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E121" s="1">
-        <v>44190.685740740744</v>
+        <v>44190.685057870367</v>
       </c>
       <c r="F121" s="1">
-        <v>44190.686030092591</v>
+        <v>44190.689837962964</v>
       </c>
       <c r="G121" s="1">
-        <v>44190.688784722224</v>
+        <v>44190.737175925926</v>
       </c>
       <c r="H121" s="1">
-        <v>44190.689780092594</v>
+        <v>44190.776284722226</v>
       </c>
       <c r="I121" s="1">
-        <v>44190.692928240744</v>
+        <v>44190.818078703705</v>
       </c>
       <c r="J121" s="1">
-        <v>44190.693171296298</v>
+        <v>44190.830937500003</v>
       </c>
       <c r="K121" s="1">
-        <v>44190.695937500001</v>
+        <v>44190.872974537036</v>
       </c>
       <c r="L121" s="1">
-        <v>44190.696250000001</v>
+        <v>44190.886250000003</v>
       </c>
       <c r="M121" s="1">
-        <v>44190.696458333332</v>
+        <v>44190.887881944444</v>
       </c>
       <c r="N121">
-        <v>0.26</v>
+        <v>4.87</v>
       </c>
       <c r="O121">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="P121">
-        <v>7.0000000000000007E-2</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="Q121">
-        <v>0.02</v>
+        <v>0.94</v>
       </c>
       <c r="R121">
-        <v>0.08</v>
+        <v>1</v>
       </c>
       <c r="S121">
-        <v>0.01</v>
+        <v>0.31</v>
       </c>
       <c r="T121">
-        <v>7.0000000000000007E-2</v>
+        <v>1.01</v>
       </c>
       <c r="U121">
-        <v>0.01</v>
+        <v>0.32</v>
       </c>
       <c r="V121">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B122">
-        <v>29402748</v>
+        <v>29212000</v>
       </c>
       <c r="C122" t="s">
         <v>21</v>
       </c>
       <c r="D122" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E122" s="1">
-        <v>44196.252465277779</v>
+        <v>44190.685740740744</v>
       </c>
       <c r="F122" s="1">
-        <v>44196.266076388885</v>
+        <v>44190.686030092591</v>
       </c>
       <c r="G122" s="1">
-        <v>44196.368657407409</v>
+        <v>44190.688784722224</v>
       </c>
       <c r="H122" s="1">
-        <v>44196.473854166667</v>
+        <v>44190.689780092594</v>
       </c>
       <c r="I122" s="1">
-        <v>44196.561145833337</v>
+        <v>44190.692928240744</v>
       </c>
       <c r="J122" s="1">
-        <v>44196.593553240738</v>
+        <v>44190.693171296298</v>
       </c>
       <c r="K122" s="1">
-        <v>44196.682905092595</v>
+        <v>44190.695937500001</v>
       </c>
       <c r="L122" s="1">
-        <v>44196.717291666668</v>
+        <v>44190.696250000001</v>
       </c>
       <c r="M122" s="1">
-        <v>44196.721030092594</v>
+        <v>44190.696458333332</v>
       </c>
       <c r="N122">
-        <v>11.25</v>
+        <v>0.26</v>
       </c>
       <c r="O122">
-        <v>0.33</v>
+        <v>0.01</v>
       </c>
       <c r="P122">
-        <v>2.46</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q122">
-        <v>2.52</v>
+        <v>0.02</v>
       </c>
       <c r="R122">
-        <v>2.1</v>
+        <v>0.08</v>
       </c>
       <c r="S122">
-        <v>0.78</v>
+        <v>0.01</v>
       </c>
       <c r="T122">
-        <v>2.14</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="U122">
-        <v>0.83</v>
+        <v>0.01</v>
       </c>
       <c r="V122">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.15">
@@ -15447,64 +15450,64 @@
         <v>51</v>
       </c>
       <c r="B123">
-        <v>29402749</v>
+        <v>29402748</v>
       </c>
       <c r="C123" t="s">
         <v>21</v>
       </c>
       <c r="D123" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E123" s="1">
-        <v>44196.254560185182</v>
+        <v>44196.252465277779</v>
       </c>
       <c r="F123" s="1">
-        <v>44196.264780092592</v>
+        <v>44196.266076388885</v>
       </c>
       <c r="G123" s="1">
-        <v>44196.36</v>
+        <v>44196.368657407409</v>
       </c>
       <c r="H123" s="1">
-        <v>44196.464016203703</v>
+        <v>44196.473854166667</v>
       </c>
       <c r="I123" s="1">
-        <v>44196.545231481483</v>
+        <v>44196.561145833337</v>
       </c>
       <c r="J123" s="1">
-        <v>44196.573958333334</v>
+        <v>44196.593553240738</v>
       </c>
       <c r="K123" s="1">
-        <v>44196.654791666668</v>
+        <v>44196.682905092595</v>
       </c>
       <c r="L123" s="1">
-        <v>44196.686203703706</v>
+        <v>44196.717291666668</v>
       </c>
       <c r="M123" s="1">
-        <v>44196.69</v>
+        <v>44196.721030092594</v>
       </c>
       <c r="N123">
-        <v>10.45</v>
+        <v>11.25</v>
       </c>
       <c r="O123">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="P123">
-        <v>2.29</v>
+        <v>2.46</v>
       </c>
       <c r="Q123">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R123">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S123">
-        <v>0.69</v>
+        <v>0.78</v>
       </c>
       <c r="T123">
-        <v>1.94</v>
+        <v>2.14</v>
       </c>
       <c r="U123">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="V123">
         <v>0.09</v>
@@ -15515,67 +15518,67 @@
         <v>51</v>
       </c>
       <c r="B124">
-        <v>30283781</v>
+        <v>29402749</v>
       </c>
       <c r="C124" t="s">
         <v>21</v>
       </c>
       <c r="D124" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E124" s="1">
-        <v>44202.469467592593</v>
+        <v>44196.254560185182</v>
       </c>
       <c r="F124" s="1">
-        <v>44202.478425925925</v>
+        <v>44196.264780092592</v>
       </c>
       <c r="G124" s="1">
-        <v>44202.557071759256</v>
+        <v>44196.36</v>
       </c>
       <c r="H124" s="1">
-        <v>44202.630868055552</v>
+        <v>44196.464016203703</v>
       </c>
       <c r="I124" s="1">
-        <v>44202.700960648152</v>
+        <v>44196.545231481483</v>
       </c>
       <c r="J124" s="1">
-        <v>44202.725590277776</v>
+        <v>44196.573958333334</v>
       </c>
       <c r="K124" s="1">
-        <v>44202.791759259257</v>
+        <v>44196.654791666668</v>
       </c>
       <c r="L124" s="1">
-        <v>44202.816747685189</v>
+        <v>44196.686203703706</v>
       </c>
       <c r="M124" s="1">
-        <v>44202.819594907407</v>
+        <v>44196.69</v>
       </c>
       <c r="N124">
-        <v>8.4</v>
+        <v>10.45</v>
       </c>
       <c r="O124">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="P124">
-        <v>1.89</v>
+        <v>2.29</v>
       </c>
       <c r="Q124">
-        <v>1.77</v>
+        <v>2.5</v>
       </c>
       <c r="R124">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="S124">
-        <v>0.59</v>
+        <v>0.69</v>
       </c>
       <c r="T124">
-        <v>1.59</v>
+        <v>1.94</v>
       </c>
       <c r="U124">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="V124">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.15">
@@ -15583,67 +15586,67 @@
         <v>51</v>
       </c>
       <c r="B125">
-        <v>29402751</v>
+        <v>30283781</v>
       </c>
       <c r="C125" t="s">
         <v>21</v>
       </c>
       <c r="D125" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E125" s="1">
-        <v>44196.304884259262</v>
+        <v>44202.469467592593</v>
       </c>
       <c r="F125" s="1">
-        <v>44196.312592592592</v>
+        <v>44202.478425925925</v>
       </c>
       <c r="G125" s="1">
-        <v>44196.38784722222</v>
+        <v>44202.557071759256</v>
       </c>
       <c r="H125" s="1">
-        <v>44196.468935185185</v>
+        <v>44202.630868055552</v>
       </c>
       <c r="I125" s="1">
-        <v>44196.53334490741</v>
+        <v>44202.700960648152</v>
       </c>
       <c r="J125" s="1">
-        <v>44196.557025462964</v>
+        <v>44202.725590277776</v>
       </c>
       <c r="K125" s="1">
-        <v>44196.620532407411</v>
+        <v>44202.791759259257</v>
       </c>
       <c r="L125" s="1">
-        <v>44196.644687499997</v>
+        <v>44202.816747685189</v>
       </c>
       <c r="M125" s="1">
-        <v>44196.648298611108</v>
+        <v>44202.819594907407</v>
       </c>
       <c r="N125">
-        <v>8.24</v>
+        <v>8.4</v>
       </c>
       <c r="O125">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="P125">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="Q125">
-        <v>1.95</v>
+        <v>1.77</v>
       </c>
       <c r="R125">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="S125">
-        <v>0.56999999999999995</v>
+        <v>0.59</v>
       </c>
       <c r="T125">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="U125">
-        <v>0.57999999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="V125">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.15">
@@ -15651,67 +15654,67 @@
         <v>51</v>
       </c>
       <c r="B126">
-        <v>29402752</v>
+        <v>29402751</v>
       </c>
       <c r="C126" t="s">
         <v>21</v>
       </c>
       <c r="D126" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E126" s="1">
-        <v>44196.305231481485</v>
+        <v>44196.304884259262</v>
       </c>
       <c r="F126" s="1">
-        <v>44196.315115740741</v>
+        <v>44196.312592592592</v>
       </c>
       <c r="G126" s="1">
-        <v>44196.390532407408</v>
+        <v>44196.38784722222</v>
       </c>
       <c r="H126" s="1">
-        <v>44196.46534722222</v>
+        <v>44196.468935185185</v>
       </c>
       <c r="I126" s="1">
-        <v>44196.534201388888</v>
+        <v>44196.53334490741</v>
       </c>
       <c r="J126" s="1">
-        <v>44196.559837962966</v>
+        <v>44196.557025462964</v>
       </c>
       <c r="K126" s="1">
-        <v>44196.623252314814</v>
+        <v>44196.620532407411</v>
       </c>
       <c r="L126" s="1">
-        <v>44196.649571759262</v>
+        <v>44196.644687499997</v>
       </c>
       <c r="M126" s="1">
-        <v>44196.65216435185</v>
+        <v>44196.648298611108</v>
       </c>
       <c r="N126">
-        <v>8.33</v>
+        <v>8.24</v>
       </c>
       <c r="O126">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="P126">
         <v>1.81</v>
       </c>
       <c r="Q126">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R126">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="S126">
-        <v>0.62</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="T126">
         <v>1.52</v>
       </c>
       <c r="U126">
-        <v>0.63</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V126">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.15">
@@ -15719,64 +15722,64 @@
         <v>51</v>
       </c>
       <c r="B127">
-        <v>29402753</v>
+        <v>29402752</v>
       </c>
       <c r="C127" t="s">
         <v>21</v>
       </c>
       <c r="D127" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E127" s="1">
-        <v>44196.322604166664</v>
+        <v>44196.305231481485</v>
       </c>
       <c r="F127" s="1">
-        <v>44196.330300925925</v>
+        <v>44196.315115740741</v>
       </c>
       <c r="G127" s="1">
-        <v>44196.399027777778</v>
+        <v>44196.390532407408</v>
       </c>
       <c r="H127" s="1">
-        <v>44196.467407407406</v>
+        <v>44196.46534722222</v>
       </c>
       <c r="I127" s="1">
-        <v>44196.526516203703</v>
+        <v>44196.534201388888</v>
       </c>
       <c r="J127" s="1">
-        <v>44196.54923611111</v>
+        <v>44196.559837962966</v>
       </c>
       <c r="K127" s="1">
-        <v>44196.607638888891</v>
+        <v>44196.623252314814</v>
       </c>
       <c r="L127" s="1">
-        <v>44196.63076388889</v>
+        <v>44196.649571759262</v>
       </c>
       <c r="M127" s="1">
-        <v>44196.63318287037</v>
+        <v>44196.65216435185</v>
       </c>
       <c r="N127">
-        <v>7.45</v>
+        <v>8.33</v>
       </c>
       <c r="O127">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="P127">
+        <v>1.81</v>
+      </c>
+      <c r="Q127">
+        <v>1.8</v>
+      </c>
+      <c r="R127">
         <v>1.65</v>
       </c>
-      <c r="Q127">
-        <v>1.64</v>
-      </c>
-      <c r="R127">
-        <v>1.42</v>
-      </c>
       <c r="S127">
-        <v>0.55000000000000004</v>
+        <v>0.62</v>
       </c>
       <c r="T127">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="U127">
-        <v>0.56000000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="V127">
         <v>0.06</v>
@@ -15787,64 +15790,64 @@
         <v>51</v>
       </c>
       <c r="B128">
-        <v>29402754</v>
+        <v>29402753</v>
       </c>
       <c r="C128" t="s">
         <v>21</v>
       </c>
       <c r="D128" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E128" s="1">
-        <v>44196.329212962963</v>
+        <v>44196.322604166664</v>
       </c>
       <c r="F128" s="1">
-        <v>44196.337395833332</v>
+        <v>44196.330300925925</v>
       </c>
       <c r="G128" s="1">
-        <v>44196.404895833337</v>
+        <v>44196.399027777778</v>
       </c>
       <c r="H128" s="1">
-        <v>44196.481481481482</v>
+        <v>44196.467407407406</v>
       </c>
       <c r="I128" s="1">
-        <v>44196.538495370369</v>
+        <v>44196.526516203703</v>
       </c>
       <c r="J128" s="1">
-        <v>44196.560925925929</v>
+        <v>44196.54923611111</v>
       </c>
       <c r="K128" s="1">
-        <v>44196.617800925924</v>
+        <v>44196.607638888891</v>
       </c>
       <c r="L128" s="1">
-        <v>44196.640185185184</v>
+        <v>44196.63076388889</v>
       </c>
       <c r="M128" s="1">
-        <v>44196.642581018517</v>
+        <v>44196.63318287037</v>
       </c>
       <c r="N128">
-        <v>7.52</v>
+        <v>7.45</v>
       </c>
       <c r="O128">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="P128">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Q128">
-        <v>1.84</v>
+        <v>1.64</v>
       </c>
       <c r="R128">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="S128">
-        <v>0.54</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="T128">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U128">
-        <v>0.54</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="V128">
         <v>0.06</v>
@@ -15855,67 +15858,67 @@
         <v>51</v>
       </c>
       <c r="B129">
-        <v>29402755</v>
+        <v>29402754</v>
       </c>
       <c r="C129" t="s">
         <v>21</v>
       </c>
       <c r="D129" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E129" s="1">
-        <v>44196.344826388886</v>
+        <v>44196.329212962963</v>
       </c>
       <c r="F129" s="1">
-        <v>44196.354224537034</v>
+        <v>44196.337395833332</v>
       </c>
       <c r="G129" s="1">
-        <v>44196.417951388888</v>
+        <v>44196.404895833337</v>
       </c>
       <c r="H129" s="1">
-        <v>44196.486909722225</v>
+        <v>44196.481481481482</v>
       </c>
       <c r="I129" s="1">
-        <v>44196.539953703701</v>
+        <v>44196.538495370369</v>
       </c>
       <c r="J129" s="1">
-        <v>44196.562847222223</v>
+        <v>44196.560925925929</v>
       </c>
       <c r="K129" s="1">
-        <v>44196.617488425924</v>
+        <v>44196.617800925924</v>
       </c>
       <c r="L129" s="1">
-        <v>44196.640428240738</v>
+        <v>44196.640185185184</v>
       </c>
       <c r="M129" s="1">
-        <v>44196.643159722225</v>
+        <v>44196.642581018517</v>
       </c>
       <c r="N129">
-        <v>7.16</v>
+        <v>7.52</v>
       </c>
       <c r="O129">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="P129">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="Q129">
-        <v>1.66</v>
+        <v>1.84</v>
       </c>
       <c r="R129">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="S129">
-        <v>0.55000000000000004</v>
+        <v>0.54</v>
       </c>
       <c r="T129">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="U129">
-        <v>0.55000000000000004</v>
+        <v>0.54</v>
       </c>
       <c r="V129">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.15">
@@ -15923,67 +15926,67 @@
         <v>51</v>
       </c>
       <c r="B130">
-        <v>29402756</v>
+        <v>29402755</v>
       </c>
       <c r="C130" t="s">
         <v>21</v>
       </c>
       <c r="D130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E130" s="1">
-        <v>44196.345173611109</v>
+        <v>44196.344826388886</v>
       </c>
       <c r="F130" s="1">
-        <v>44196.352881944447</v>
+        <v>44196.354224537034</v>
       </c>
       <c r="G130" s="1">
-        <v>44196.408900462964</v>
+        <v>44196.417951388888</v>
       </c>
       <c r="H130" s="1">
-        <v>44196.462280092594</v>
+        <v>44196.486909722225</v>
       </c>
       <c r="I130" s="1">
-        <v>44196.509560185186</v>
+        <v>44196.539953703701</v>
       </c>
       <c r="J130" s="1">
-        <v>44196.526400462964</v>
+        <v>44196.562847222223</v>
       </c>
       <c r="K130" s="1">
-        <v>44196.573159722226</v>
+        <v>44196.617488425924</v>
       </c>
       <c r="L130" s="1">
-        <v>44196.591284722221</v>
+        <v>44196.640428240738</v>
       </c>
       <c r="M130" s="1">
-        <v>44196.593530092592</v>
+        <v>44196.643159722225</v>
       </c>
       <c r="N130">
-        <v>5.96</v>
+        <v>7.16</v>
       </c>
       <c r="O130">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="P130">
-        <v>1.34</v>
+        <v>1.53</v>
       </c>
       <c r="Q130">
-        <v>1.28</v>
+        <v>1.66</v>
       </c>
       <c r="R130">
-        <v>1.1299999999999999</v>
+        <v>1.27</v>
       </c>
       <c r="S130">
-        <v>0.4</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="T130">
-        <v>1.1200000000000001</v>
+        <v>1.31</v>
       </c>
       <c r="U130">
-        <v>0.43</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="V130">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.15">
@@ -15991,67 +15994,67 @@
         <v>51</v>
       </c>
       <c r="B131">
-        <v>29402757</v>
+        <v>29402756</v>
       </c>
       <c r="C131" t="s">
         <v>21</v>
       </c>
       <c r="D131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E131" s="1">
-        <v>44196.353530092594</v>
+        <v>44196.345173611109</v>
       </c>
       <c r="F131" s="1">
-        <v>44196.358495370368</v>
+        <v>44196.352881944447</v>
       </c>
       <c r="G131" s="1">
-        <v>44196.410057870373</v>
+        <v>44196.408900462964</v>
       </c>
       <c r="H131" s="1">
-        <v>44196.461111111108</v>
+        <v>44196.462280092594</v>
       </c>
       <c r="I131" s="1">
-        <v>44196.503807870373</v>
+        <v>44196.509560185186</v>
       </c>
       <c r="J131" s="1">
-        <v>44196.519641203704</v>
+        <v>44196.526400462964</v>
       </c>
       <c r="K131" s="1">
-        <v>44196.562141203707</v>
+        <v>44196.573159722226</v>
       </c>
       <c r="L131" s="1">
-        <v>44196.579363425924</v>
+        <v>44196.591284722221</v>
       </c>
       <c r="M131" s="1">
-        <v>44196.582384259258</v>
+        <v>44196.593530092592</v>
       </c>
       <c r="N131">
-        <v>5.49</v>
+        <v>5.96</v>
       </c>
       <c r="O131">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="P131">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="Q131">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="R131">
-        <v>1.02</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="S131">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="T131">
-        <v>1.02</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="U131">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="V131">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.15">
@@ -16059,67 +16062,67 @@
         <v>51</v>
       </c>
       <c r="B132">
-        <v>29402758</v>
+        <v>29402757</v>
       </c>
       <c r="C132" t="s">
         <v>21</v>
       </c>
       <c r="D132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E132" s="1">
-        <v>44196.358032407406</v>
+        <v>44196.353530092594</v>
       </c>
       <c r="F132" s="1">
-        <v>44196.364004629628</v>
+        <v>44196.358495370368</v>
       </c>
       <c r="G132" s="1">
-        <v>44196.418043981481</v>
+        <v>44196.410057870373</v>
       </c>
       <c r="H132" s="1">
-        <v>44196.477118055554</v>
+        <v>44196.461111111108</v>
       </c>
       <c r="I132" s="1">
-        <v>44196.522337962961</v>
+        <v>44196.503807870373</v>
       </c>
       <c r="J132" s="1">
-        <v>44196.538553240738</v>
+        <v>44196.519641203704</v>
       </c>
       <c r="K132" s="1">
-        <v>44196.583807870367</v>
+        <v>44196.562141203707</v>
       </c>
       <c r="L132" s="1">
-        <v>44196.601585648146</v>
+        <v>44196.579363425924</v>
       </c>
       <c r="M132" s="1">
-        <v>44196.603935185187</v>
+        <v>44196.582384259258</v>
       </c>
       <c r="N132">
-        <v>5.9</v>
+        <v>5.49</v>
       </c>
       <c r="O132">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="P132">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="Q132">
-        <v>1.42</v>
+        <v>1.23</v>
       </c>
       <c r="R132">
-        <v>1.0900000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="S132">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="T132">
-        <v>1.0900000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="U132">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="V132">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.15">
@@ -16127,64 +16130,64 @@
         <v>51</v>
       </c>
       <c r="B133">
-        <v>29402759</v>
+        <v>29402758</v>
       </c>
       <c r="C133" t="s">
         <v>21</v>
       </c>
       <c r="D133" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E133" s="1">
-        <v>44196.359131944446</v>
+        <v>44196.358032407406</v>
       </c>
       <c r="F133" s="1">
-        <v>44196.364340277774</v>
+        <v>44196.364004629628</v>
       </c>
       <c r="G133" s="1">
-        <v>44196.415972222225</v>
+        <v>44196.418043981481</v>
       </c>
       <c r="H133" s="1">
-        <v>44196.469131944446</v>
+        <v>44196.477118055554</v>
       </c>
       <c r="I133" s="1">
-        <v>44196.514861111114</v>
+        <v>44196.522337962961</v>
       </c>
       <c r="J133" s="1">
-        <v>44196.531724537039</v>
+        <v>44196.538553240738</v>
       </c>
       <c r="K133" s="1">
-        <v>44196.577141203707</v>
+        <v>44196.583807870367</v>
       </c>
       <c r="L133" s="1">
-        <v>44196.594050925924</v>
+        <v>44196.601585648146</v>
       </c>
       <c r="M133" s="1">
-        <v>44196.596550925926</v>
+        <v>44196.603935185187</v>
       </c>
       <c r="N133">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="O133">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="P133">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="Q133">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="R133">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="S133">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="T133">
         <v>1.0900000000000001</v>
       </c>
       <c r="U133">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="V133">
         <v>0.06</v>
@@ -16195,67 +16198,67 @@
         <v>51</v>
       </c>
       <c r="B134">
-        <v>29402760</v>
+        <v>29402759</v>
       </c>
       <c r="C134" t="s">
         <v>21</v>
       </c>
       <c r="D134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E134" s="1">
-        <v>44196.359756944446</v>
+        <v>44196.359131944446</v>
       </c>
       <c r="F134" s="1">
-        <v>44196.36409722222</v>
+        <v>44196.364340277774</v>
       </c>
       <c r="G134" s="1">
-        <v>44196.40247685185</v>
+        <v>44196.415972222225</v>
       </c>
       <c r="H134" s="1">
-        <v>44196.445162037038</v>
+        <v>44196.469131944446</v>
       </c>
       <c r="I134" s="1">
-        <v>44196.477731481478</v>
+        <v>44196.514861111114</v>
       </c>
       <c r="J134" s="1">
-        <v>44196.489710648151</v>
+        <v>44196.531724537039</v>
       </c>
       <c r="K134" s="1">
-        <v>44196.52270833333</v>
+        <v>44196.577141203707</v>
       </c>
       <c r="L134" s="1">
-        <v>44196.535405092596</v>
+        <v>44196.594050925924</v>
       </c>
       <c r="M134" s="1">
-        <v>44196.537118055552</v>
+        <v>44196.596550925926</v>
       </c>
       <c r="N134">
-        <v>4.26</v>
+        <v>5.7</v>
       </c>
       <c r="O134">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="P134">
-        <v>0.92</v>
+        <v>1.24</v>
       </c>
       <c r="Q134">
-        <v>1.02</v>
+        <v>1.28</v>
       </c>
       <c r="R134">
-        <v>0.78</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S134">
-        <v>0.28999999999999998</v>
+        <v>0.4</v>
       </c>
       <c r="T134">
-        <v>0.79</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="U134">
-        <v>0.3</v>
+        <v>0.41</v>
       </c>
       <c r="V134">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.15">
@@ -16263,67 +16266,67 @@
         <v>51</v>
       </c>
       <c r="B135">
-        <v>29402761</v>
+        <v>29402760</v>
       </c>
       <c r="C135" t="s">
         <v>21</v>
       </c>
       <c r="D135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E135" s="1">
-        <v>44196.372256944444</v>
+        <v>44196.359756944446</v>
       </c>
       <c r="F135" s="1">
-        <v>44196.376099537039</v>
+        <v>44196.36409722222</v>
       </c>
       <c r="G135" s="1">
-        <v>44196.412800925929</v>
+        <v>44196.40247685185</v>
       </c>
       <c r="H135" s="1">
-        <v>44196.449664351851</v>
+        <v>44196.445162037038</v>
       </c>
       <c r="I135" s="1">
-        <v>44196.481388888889</v>
+        <v>44196.477731481478</v>
       </c>
       <c r="J135" s="1">
-        <v>44196.493495370371</v>
+        <v>44196.489710648151</v>
       </c>
       <c r="K135" s="1">
-        <v>44196.524016203701</v>
+        <v>44196.52270833333</v>
       </c>
       <c r="L135" s="1">
-        <v>44196.534872685188</v>
+        <v>44196.535405092596</v>
       </c>
       <c r="M135" s="1">
-        <v>44196.536192129628</v>
+        <v>44196.537118055552</v>
       </c>
       <c r="N135">
-        <v>3.93</v>
+        <v>4.26</v>
       </c>
       <c r="O135">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="P135">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="Q135">
-        <v>0.88</v>
+        <v>1.02</v>
       </c>
       <c r="R135">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="S135">
         <v>0.28999999999999998</v>
       </c>
       <c r="T135">
-        <v>0.73</v>
+        <v>0.79</v>
       </c>
       <c r="U135">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="V135">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.15">
@@ -16331,64 +16334,64 @@
         <v>51</v>
       </c>
       <c r="B136">
-        <v>29402762</v>
+        <v>29402761</v>
       </c>
       <c r="C136" t="s">
         <v>21</v>
       </c>
       <c r="D136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E136" s="1">
-        <v>44196.400740740741</v>
+        <v>44196.372256944444</v>
       </c>
       <c r="F136" s="1">
-        <v>44196.404548611114</v>
+        <v>44196.376099537039</v>
       </c>
       <c r="G136" s="1">
-        <v>44196.438946759263</v>
+        <v>44196.412800925929</v>
       </c>
       <c r="H136" s="1">
-        <v>44196.479062500002</v>
+        <v>44196.449664351851</v>
       </c>
       <c r="I136" s="1">
-        <v>44196.508020833331</v>
+        <v>44196.481388888889</v>
       </c>
       <c r="J136" s="1">
-        <v>44196.518900462965</v>
+        <v>44196.493495370371</v>
       </c>
       <c r="K136" s="1">
-        <v>44196.548506944448</v>
+        <v>44196.524016203701</v>
       </c>
       <c r="L136" s="1">
-        <v>44196.558819444443</v>
+        <v>44196.534872685188</v>
       </c>
       <c r="M136" s="1">
-        <v>44196.560185185182</v>
+        <v>44196.536192129628</v>
       </c>
       <c r="N136">
-        <v>3.83</v>
+        <v>3.93</v>
       </c>
       <c r="O136">
         <v>0.09</v>
       </c>
       <c r="P136">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="Q136">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="R136">
-        <v>0.69</v>
+        <v>0.76</v>
       </c>
       <c r="S136">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T136">
+        <v>0.73</v>
+      </c>
+      <c r="U136">
         <v>0.26</v>
-      </c>
-      <c r="T136">
-        <v>0.71</v>
-      </c>
-      <c r="U136">
-        <v>0.25</v>
       </c>
       <c r="V136">
         <v>0.03</v>
@@ -16399,64 +16402,64 @@
         <v>51</v>
       </c>
       <c r="B137">
-        <v>29402763</v>
+        <v>29402762</v>
       </c>
       <c r="C137" t="s">
         <v>21</v>
       </c>
       <c r="D137" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E137" s="1">
-        <v>44196.410439814812</v>
+        <v>44196.400740740741</v>
       </c>
       <c r="F137" s="1">
-        <v>44196.415775462963</v>
+        <v>44196.404548611114</v>
       </c>
       <c r="G137" s="1">
-        <v>44196.449467592596</v>
+        <v>44196.438946759263</v>
       </c>
       <c r="H137" s="1">
-        <v>44196.509143518517</v>
+        <v>44196.479062500002</v>
       </c>
       <c r="I137" s="1">
-        <v>44196.538437499999</v>
+        <v>44196.508020833331</v>
       </c>
       <c r="J137" s="1">
-        <v>44196.550416666665</v>
+        <v>44196.518900462965</v>
       </c>
       <c r="K137" s="1">
-        <v>44196.579317129632</v>
+        <v>44196.548506944448</v>
       </c>
       <c r="L137" s="1">
-        <v>44196.591354166667</v>
+        <v>44196.558819444443</v>
       </c>
       <c r="M137" s="1">
-        <v>44196.592627314814</v>
+        <v>44196.560185185182</v>
       </c>
       <c r="N137">
-        <v>4.37</v>
+        <v>3.83</v>
       </c>
       <c r="O137">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="P137">
-        <v>0.81</v>
+        <v>0.83</v>
       </c>
       <c r="Q137">
-        <v>1.43</v>
+        <v>0.96</v>
       </c>
       <c r="R137">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="S137">
-        <v>0.28999999999999998</v>
+        <v>0.26</v>
       </c>
       <c r="T137">
-        <v>0.69</v>
+        <v>0.71</v>
       </c>
       <c r="U137">
-        <v>0.28999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="V137">
         <v>0.03</v>
@@ -16467,67 +16470,67 @@
         <v>51</v>
       </c>
       <c r="B138">
-        <v>29402764</v>
+        <v>29402763</v>
       </c>
       <c r="C138" t="s">
         <v>21</v>
       </c>
       <c r="D138" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E138" s="1">
-        <v>44196.411840277775</v>
+        <v>44196.410439814812</v>
       </c>
       <c r="F138" s="1">
-        <v>44196.417916666665</v>
+        <v>44196.415775462963</v>
       </c>
       <c r="G138" s="1">
-        <v>44196.453043981484</v>
+        <v>44196.449467592596</v>
       </c>
       <c r="H138" s="1">
-        <v>44196.495694444442</v>
+        <v>44196.509143518517</v>
       </c>
       <c r="I138" s="1">
-        <v>44196.52684027778</v>
+        <v>44196.538437499999</v>
       </c>
       <c r="J138" s="1">
-        <v>44196.539699074077</v>
+        <v>44196.550416666665</v>
       </c>
       <c r="K138" s="1">
-        <v>44196.570011574076</v>
+        <v>44196.579317129632</v>
       </c>
       <c r="L138" s="1">
-        <v>44196.584421296298</v>
+        <v>44196.591354166667</v>
       </c>
       <c r="M138" s="1">
-        <v>44196.587997685187</v>
+        <v>44196.592627314814</v>
       </c>
       <c r="N138">
-        <v>4.2300000000000004</v>
+        <v>4.37</v>
       </c>
       <c r="O138">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="P138">
-        <v>0.84</v>
+        <v>0.81</v>
       </c>
       <c r="Q138">
-        <v>1.02</v>
+        <v>1.43</v>
       </c>
       <c r="R138">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="S138">
-        <v>0.31</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="T138">
-        <v>0.73</v>
+        <v>0.69</v>
       </c>
       <c r="U138">
-        <v>0.35</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="V138">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.15">
@@ -16535,67 +16538,67 @@
         <v>51</v>
       </c>
       <c r="B139">
-        <v>29402765</v>
+        <v>29402764</v>
       </c>
       <c r="C139" t="s">
         <v>21</v>
       </c>
       <c r="D139" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E139" s="1">
-        <v>44196.415312500001</v>
+        <v>44196.411840277775</v>
       </c>
       <c r="F139" s="1">
-        <v>44196.418287037035</v>
+        <v>44196.417916666665</v>
       </c>
       <c r="G139" s="1">
-        <v>44196.449629629627</v>
+        <v>44196.453043981484</v>
       </c>
       <c r="H139" s="1">
-        <v>44196.48060185185</v>
+        <v>44196.495694444442</v>
       </c>
       <c r="I139" s="1">
-        <v>44196.507962962962</v>
+        <v>44196.52684027778</v>
       </c>
       <c r="J139" s="1">
-        <v>44196.51840277778</v>
+        <v>44196.539699074077</v>
       </c>
       <c r="K139" s="1">
-        <v>44196.54519675926</v>
+        <v>44196.570011574076</v>
       </c>
       <c r="L139" s="1">
-        <v>44196.556215277778</v>
+        <v>44196.584421296298</v>
       </c>
       <c r="M139" s="1">
-        <v>44196.558171296296</v>
+        <v>44196.587997685187</v>
       </c>
       <c r="N139">
-        <v>3.43</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="O139">
-        <v>7.0000000000000007E-2</v>
+        <v>0.15</v>
       </c>
       <c r="P139">
+        <v>0.84</v>
+      </c>
+      <c r="Q139">
+        <v>1.02</v>
+      </c>
+      <c r="R139">
         <v>0.75</v>
       </c>
-      <c r="Q139">
-        <v>0.74</v>
-      </c>
-      <c r="R139">
-        <v>0.66</v>
-      </c>
       <c r="S139">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="T139">
-        <v>0.64</v>
+        <v>0.73</v>
       </c>
       <c r="U139">
-        <v>0.26</v>
+        <v>0.35</v>
       </c>
       <c r="V139">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.15">
@@ -16603,67 +16606,67 @@
         <v>51</v>
       </c>
       <c r="B140">
-        <v>29402766</v>
+        <v>29402765</v>
       </c>
       <c r="C140" t="s">
         <v>21</v>
       </c>
       <c r="D140" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E140" s="1">
-        <v>44196.41878472222</v>
+        <v>44196.415312500001</v>
       </c>
       <c r="F140" s="1">
-        <v>44196.421724537038</v>
+        <v>44196.418287037035</v>
       </c>
       <c r="G140" s="1">
-        <v>44196.446516203701</v>
+        <v>44196.449629629627</v>
       </c>
       <c r="H140" s="1">
-        <v>44196.471018518518</v>
+        <v>44196.48060185185</v>
       </c>
       <c r="I140" s="1">
-        <v>44196.491261574076</v>
+        <v>44196.507962962962</v>
       </c>
       <c r="J140" s="1">
-        <v>44196.498541666668</v>
+        <v>44196.51840277778</v>
       </c>
       <c r="K140" s="1">
-        <v>44196.519756944443</v>
+        <v>44196.54519675926</v>
       </c>
       <c r="L140" s="1">
-        <v>44196.527615740742</v>
+        <v>44196.556215277778</v>
       </c>
       <c r="M140" s="1">
-        <v>44196.528726851851</v>
+        <v>44196.558171296296</v>
       </c>
       <c r="N140">
-        <v>2.64</v>
+        <v>3.43</v>
       </c>
       <c r="O140">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="P140">
-        <v>0.59</v>
+        <v>0.75</v>
       </c>
       <c r="Q140">
-        <v>0.59</v>
+        <v>0.74</v>
       </c>
       <c r="R140">
-        <v>0.49</v>
+        <v>0.66</v>
       </c>
       <c r="S140">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="T140">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="U140">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="V140">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.15">
@@ -16671,67 +16674,67 @@
         <v>51</v>
       </c>
       <c r="B141">
-        <v>29402767</v>
+        <v>29402766</v>
       </c>
       <c r="C141" t="s">
         <v>21</v>
       </c>
       <c r="D141" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E141" s="1">
-        <v>44196.440300925926</v>
+        <v>44196.41878472222</v>
       </c>
       <c r="F141" s="1">
-        <v>44196.444016203706</v>
+        <v>44196.421724537038</v>
       </c>
       <c r="G141" s="1">
-        <v>44196.472569444442</v>
+        <v>44196.446516203701</v>
       </c>
       <c r="H141" s="1">
-        <v>44196.505486111113</v>
+        <v>44196.471018518518</v>
       </c>
       <c r="I141" s="1">
-        <v>44196.530243055553</v>
+        <v>44196.491261574076</v>
       </c>
       <c r="J141" s="1">
-        <v>44196.539247685185</v>
+        <v>44196.498541666668</v>
       </c>
       <c r="K141" s="1">
-        <v>44196.563761574071</v>
+        <v>44196.519756944443</v>
       </c>
       <c r="L141" s="1">
-        <v>44196.573217592595</v>
+        <v>44196.527615740742</v>
       </c>
       <c r="M141" s="1">
-        <v>44196.574675925927</v>
+        <v>44196.528726851851</v>
       </c>
       <c r="N141">
-        <v>3.23</v>
+        <v>2.64</v>
       </c>
       <c r="O141">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P141">
-        <v>0.69</v>
+        <v>0.59</v>
       </c>
       <c r="Q141">
-        <v>0.79</v>
+        <v>0.59</v>
       </c>
       <c r="R141">
-        <v>0.59</v>
+        <v>0.49</v>
       </c>
       <c r="S141">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="T141">
-        <v>0.59</v>
+        <v>0.51</v>
       </c>
       <c r="U141">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="V141">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.15">
@@ -16739,67 +16742,67 @@
         <v>51</v>
       </c>
       <c r="B142">
-        <v>29402768</v>
+        <v>29402767</v>
       </c>
       <c r="C142" t="s">
         <v>21</v>
       </c>
       <c r="D142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E142" s="1">
-        <v>44196.444120370368</v>
+        <v>44196.440300925926</v>
       </c>
       <c r="F142" s="1">
-        <v>44196.446655092594</v>
+        <v>44196.444016203706</v>
       </c>
       <c r="G142" s="1">
-        <v>44196.463923611111</v>
+        <v>44196.472569444442</v>
       </c>
       <c r="H142" s="1">
-        <v>44196.483981481484</v>
+        <v>44196.505486111113</v>
       </c>
       <c r="I142" s="1">
-        <v>44196.498703703706</v>
+        <v>44196.530243055553</v>
       </c>
       <c r="J142" s="1">
-        <v>44196.504502314812</v>
+        <v>44196.539247685185</v>
       </c>
       <c r="K142" s="1">
-        <v>44196.518333333333</v>
+        <v>44196.563761574071</v>
       </c>
       <c r="L142" s="1">
-        <v>44196.523796296293</v>
+        <v>44196.573217592595</v>
       </c>
       <c r="M142" s="1">
-        <v>44196.524560185186</v>
+        <v>44196.574675925927</v>
       </c>
       <c r="N142">
-        <v>1.93</v>
+        <v>3.23</v>
       </c>
       <c r="O142">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="P142">
-        <v>0.41</v>
+        <v>0.69</v>
       </c>
       <c r="Q142">
-        <v>0.48</v>
+        <v>0.79</v>
       </c>
       <c r="R142">
-        <v>0.35</v>
+        <v>0.59</v>
       </c>
       <c r="S142">
-        <v>0.14000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="T142">
-        <v>0.33</v>
+        <v>0.59</v>
       </c>
       <c r="U142">
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="V142">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.15">
@@ -16807,58 +16810,58 @@
         <v>51</v>
       </c>
       <c r="B143">
-        <v>29402769</v>
+        <v>29402768</v>
       </c>
       <c r="C143" t="s">
         <v>21</v>
       </c>
       <c r="D143" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E143" s="1">
-        <v>44196.47016203704</v>
+        <v>44196.444120370368</v>
       </c>
       <c r="F143" s="1">
-        <v>44196.47215277778</v>
+        <v>44196.446655092594</v>
       </c>
       <c r="G143" s="1">
-        <v>44196.487557870372</v>
+        <v>44196.463923611111</v>
       </c>
       <c r="H143" s="1">
-        <v>44196.502986111111</v>
+        <v>44196.483981481484</v>
       </c>
       <c r="I143" s="1">
-        <v>44196.516168981485</v>
+        <v>44196.498703703706</v>
       </c>
       <c r="J143" s="1">
-        <v>44196.520682870374</v>
+        <v>44196.504502314812</v>
       </c>
       <c r="K143" s="1">
-        <v>44196.534328703703</v>
+        <v>44196.518333333333</v>
       </c>
       <c r="L143" s="1">
-        <v>44196.539803240739</v>
+        <v>44196.523796296293</v>
       </c>
       <c r="M143" s="1">
-        <v>44196.540682870371</v>
+        <v>44196.524560185186</v>
       </c>
       <c r="N143">
-        <v>1.69</v>
+        <v>1.93</v>
       </c>
       <c r="O143">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="P143">
-        <v>0.37</v>
+        <v>0.41</v>
       </c>
       <c r="Q143">
-        <v>0.37</v>
+        <v>0.48</v>
       </c>
       <c r="R143">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="S143">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T143">
         <v>0.33</v>
@@ -16875,67 +16878,67 @@
         <v>51</v>
       </c>
       <c r="B144">
-        <v>29402770</v>
+        <v>29402769</v>
       </c>
       <c r="C144" t="s">
         <v>21</v>
       </c>
       <c r="D144" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E144" s="1">
-        <v>44196.483020833337</v>
+        <v>44196.47016203704</v>
       </c>
       <c r="F144" s="1">
-        <v>44196.488981481481</v>
+        <v>44196.47215277778</v>
       </c>
       <c r="G144" s="1">
-        <v>44196.547592592593</v>
+        <v>44196.487557870372</v>
       </c>
       <c r="H144" s="1">
-        <v>44196.603055555555</v>
+        <v>44196.502986111111</v>
       </c>
       <c r="I144" s="1">
-        <v>44196.656793981485</v>
+        <v>44196.516168981485</v>
       </c>
       <c r="J144" s="1">
-        <v>44196.676874999997</v>
+        <v>44196.520682870374</v>
       </c>
       <c r="K144" s="1">
-        <v>44196.728842592594</v>
+        <v>44196.534328703703</v>
       </c>
       <c r="L144" s="1">
-        <v>44196.7497337963</v>
+        <v>44196.539803240739</v>
       </c>
       <c r="M144" s="1">
-        <v>44196.751932870371</v>
+        <v>44196.540682870371</v>
       </c>
       <c r="N144">
-        <v>6.45</v>
+        <v>1.69</v>
       </c>
       <c r="O144">
-        <v>0.14000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="P144">
-        <v>1.41</v>
+        <v>0.37</v>
       </c>
       <c r="Q144">
-        <v>1.33</v>
+        <v>0.37</v>
       </c>
       <c r="R144">
-        <v>1.29</v>
+        <v>0.32</v>
       </c>
       <c r="S144">
-        <v>0.48</v>
+        <v>0.11</v>
       </c>
       <c r="T144">
-        <v>1.25</v>
+        <v>0.33</v>
       </c>
       <c r="U144">
-        <v>0.5</v>
+        <v>0.13</v>
       </c>
       <c r="V144">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.15">
@@ -16943,70 +16946,139 @@
         <v>51</v>
       </c>
       <c r="B145">
-        <v>29402771</v>
+        <v>29402770</v>
       </c>
       <c r="C145" t="s">
         <v>21</v>
       </c>
       <c r="D145" t="s">
+        <v>44</v>
+      </c>
+      <c r="E145" s="1">
+        <v>44196.483020833337</v>
+      </c>
+      <c r="F145" s="1">
+        <v>44196.488981481481</v>
+      </c>
+      <c r="G145" s="1">
+        <v>44196.547592592593</v>
+      </c>
+      <c r="H145" s="1">
+        <v>44196.603055555555</v>
+      </c>
+      <c r="I145" s="1">
+        <v>44196.656793981485</v>
+      </c>
+      <c r="J145" s="1">
+        <v>44196.676874999997</v>
+      </c>
+      <c r="K145" s="1">
+        <v>44196.728842592594</v>
+      </c>
+      <c r="L145" s="1">
+        <v>44196.7497337963</v>
+      </c>
+      <c r="M145" s="1">
+        <v>44196.751932870371</v>
+      </c>
+      <c r="N145">
+        <v>6.45</v>
+      </c>
+      <c r="O145">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P145">
+        <v>1.41</v>
+      </c>
+      <c r="Q145">
+        <v>1.33</v>
+      </c>
+      <c r="R145">
+        <v>1.29</v>
+      </c>
+      <c r="S145">
+        <v>0.48</v>
+      </c>
+      <c r="T145">
+        <v>1.25</v>
+      </c>
+      <c r="U145">
+        <v>0.5</v>
+      </c>
+      <c r="V145">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>51</v>
+      </c>
+      <c r="B146">
+        <v>29402771</v>
+      </c>
+      <c r="C146" t="s">
+        <v>21</v>
+      </c>
+      <c r="D146" t="s">
         <v>45</v>
       </c>
-      <c r="E145" s="1">
+      <c r="E146" s="1">
         <v>44196.486157407409</v>
       </c>
-      <c r="F145" s="1">
+      <c r="F146" s="1">
         <v>44196.486550925925</v>
       </c>
-      <c r="G145" s="1">
+      <c r="G146" s="1">
         <v>44196.488761574074</v>
       </c>
-      <c r="H145" s="1">
+      <c r="H146" s="1">
         <v>44196.489942129629</v>
       </c>
-      <c r="I145" s="1">
+      <c r="I146" s="1">
         <v>44196.492094907408</v>
       </c>
-      <c r="J145" s="1">
+      <c r="J146" s="1">
         <v>44196.492326388892</v>
       </c>
-      <c r="K145" s="1">
+      <c r="K146" s="1">
         <v>44196.494340277779</v>
       </c>
-      <c r="L145" s="1">
+      <c r="L146" s="1">
         <v>44196.494641203702</v>
       </c>
-      <c r="M145" s="1">
+      <c r="M146" s="1">
         <v>44196.494826388887</v>
       </c>
-      <c r="N145">
+      <c r="N146">
         <v>0.21</v>
       </c>
-      <c r="O145">
+      <c r="O146">
         <v>0.01</v>
       </c>
-      <c r="P145">
+      <c r="P146">
         <v>0.05</v>
       </c>
-      <c r="Q145">
+      <c r="Q146">
         <v>0.03</v>
       </c>
-      <c r="R145">
+      <c r="R146">
         <v>0.05</v>
       </c>
-      <c r="S145">
+      <c r="S146">
         <v>0.01</v>
       </c>
-      <c r="T145">
+      <c r="T146">
         <v>0.05</v>
       </c>
-      <c r="U145">
+      <c r="U146">
         <v>0.01</v>
       </c>
-      <c r="V145">
+      <c r="V146">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:V146"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17028,7 +17100,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="37" t="s">
         <v>136</v>
       </c>
       <c r="F1" t="s">

--- a/nanopore_pipeline_type1/data/medaka処理時間データ.xlsx
+++ b/nanopore_pipeline_type1/data/medaka処理時間データ.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="36165" windowHeight="10680" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="36165" windowHeight="10680" tabRatio="746" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="まとめ1(GPU)" sheetId="8" r:id="rId1"/>
     <sheet name="まとめ2(CPU)" sheetId="7" r:id="rId2"/>
     <sheet name="まとめ3(chr22)" sheetId="10" r:id="rId3"/>
-    <sheet name="gpu" sheetId="3" r:id="rId4"/>
-    <sheet name="cpu" sheetId="6" r:id="rId5"/>
-    <sheet name="cpu_split" sheetId="5" r:id="rId6"/>
-    <sheet name="chr22" sheetId="9" r:id="rId7"/>
+    <sheet name="まとめ4(CPU_mem32)" sheetId="12" r:id="rId4"/>
+    <sheet name="gpu" sheetId="3" r:id="rId5"/>
+    <sheet name="cpu" sheetId="6" r:id="rId6"/>
+    <sheet name="cpu_split" sheetId="5" r:id="rId7"/>
+    <sheet name="chr22" sheetId="9" r:id="rId8"/>
+    <sheet name="cpu_mem32" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">cpu_split!$A$2:$V$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">cpu_split!$A$2:$V$146</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="161">
   <si>
     <t>jobnumber</t>
   </si>
@@ -566,6 +568,100 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>cpu_split_mem32</t>
+  </si>
+  <si>
+    <t>cpu_mem32</t>
+  </si>
+  <si>
+    <t>COLO829BL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FAIL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>memory</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>200G</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>64G</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>32G</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>250G</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>112.4G</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>16.3G</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>17.7G</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実際に使用したメモリ</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>99.4G</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>17.9G</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>17.7G</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>111.1G</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>18.1G</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>16.1G</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>108.5G</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>28時間後に落ちた</t>
+    <rPh sb="2" eb="5">
+      <t>ジカンゴ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -577,7 +673,7 @@
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -629,8 +725,23 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -674,12 +785,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFE7FF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -702,7 +807,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -796,6 +901,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -804,11 +959,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -890,10 +1045,10 @@
     <xf numFmtId="46" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="46" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="46" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -920,13 +1075,37 @@
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="46" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -936,9 +1115,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -952,6 +1128,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1308,22 +1490,22 @@
       <c r="A4" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="48">
         <v>1.5509259246755391E-3</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="48">
         <v>1.157407408754807E-3</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="48">
         <v>5.671296312357299E-4</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="48">
         <v>4.398148157633841E-4</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="48">
         <v>3.0092592351138592E-4</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="48">
         <v>8.217592621804215E-4</v>
       </c>
       <c r="H4" s="23" t="s">
@@ -1334,12 +1516,12 @@
       <c r="A5" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
       <c r="H5" s="23" t="s">
         <v>114</v>
       </c>
@@ -1412,22 +1594,22 @@
       <c r="A9" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="48">
         <v>0.41866898148145992</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="48">
         <v>0.38543981481780065</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="49">
         <v>0.36759259259270038</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="49">
         <v>0.61160879629460396</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="49">
         <v>0.48483796296204673</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="48">
         <v>0.49755787036701804</v>
       </c>
       <c r="H9" s="23" t="s">
@@ -1438,12 +1620,12 @@
       <c r="A10" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="40"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="48"/>
       <c r="H10" s="23" t="s">
         <v>117</v>
       </c>
@@ -1452,12 +1634,12 @@
       <c r="A11" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="48"/>
       <c r="H11" s="23" t="s">
         <v>108</v>
       </c>
@@ -1466,12 +1648,12 @@
       <c r="A12" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="40"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="48"/>
       <c r="H12" s="23" t="s">
         <v>114</v>
       </c>
@@ -1480,12 +1662,12 @@
       <c r="A13" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="40"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="23" t="s">
         <v>102</v>
       </c>
@@ -1494,12 +1676,12 @@
       <c r="A14" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="40"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="23" t="s">
         <v>108</v>
       </c>
@@ -1675,11 +1857,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="D9:D14"/>
     <mergeCell ref="E9:E14"/>
@@ -1687,6 +1864,11 @@
     <mergeCell ref="G9:G14"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1696,19 +1878,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FD18"/>
+  <dimension ref="A1:EU16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH13" sqref="AH13"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.25" customWidth="1"/>
-    <col min="2" max="31" width="7.375" customWidth="1"/>
+    <col min="2" max="22" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:160" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:151" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
         <v>101</v>
       </c>
@@ -1726,71 +1908,49 @@
       <c r="M1" s="18"/>
       <c r="N1" s="18"/>
       <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
+      <c r="P1" s="19"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="18"/>
       <c r="S1" s="18"/>
       <c r="T1" s="18"/>
       <c r="U1" s="18"/>
       <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-    </row>
-    <row r="2" spans="1:160" ht="31.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:151" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="47" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="42" t="s">
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-    </row>
-    <row r="3" spans="1:160" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+    </row>
+    <row r="3" spans="1:151" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>98</v>
       </c>
@@ -1806,11 +1966,11 @@
       <c r="E3" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>97</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>96</v>
@@ -1824,11 +1984,11 @@
       <c r="K3" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M3" s="16" t="s">
         <v>97</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>96</v>
@@ -1839,11 +1999,11 @@
       <c r="P3" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="R3" s="16" t="s">
         <v>97</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="S3" s="8" t="s">
         <v>96</v>
@@ -1854,38 +2014,11 @@
       <c r="U3" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="V3" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="W3" s="8" t="s">
+      <c r="V3" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="X3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA3" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE3" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:160" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:151" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>95</v>
       </c>
@@ -1908,13 +2041,13 @@
         <v>93</v>
       </c>
       <c r="H4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>93</v>
@@ -1926,10 +2059,10 @@
         <v>93</v>
       </c>
       <c r="N4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O4" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="P4" s="8" t="s">
         <v>93</v>
@@ -1941,10 +2074,10 @@
         <v>93</v>
       </c>
       <c r="S4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="T4" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="U4" s="8" t="s">
         <v>93</v>
@@ -1952,35 +2085,8 @@
       <c r="V4" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="W4" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y4" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z4" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA4" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB4" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC4" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD4" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE4" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:160" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:151" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>92</v>
       </c>
@@ -1994,10 +2100,10 @@
         <v>91</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>91</v>
@@ -2006,16 +2112,16 @@
         <v>91</v>
       </c>
       <c r="I5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="K5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="L5" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>91</v>
@@ -2024,13 +2130,13 @@
         <v>91</v>
       </c>
       <c r="O5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="Q5" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="R5" s="8" t="s">
         <v>91</v>
@@ -2039,43 +2145,16 @@
         <v>91</v>
       </c>
       <c r="T5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="U5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="U5" s="8" t="s">
+      <c r="V5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="V5" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="W5" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="X5" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA5" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB5" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC5" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE5" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:160" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:151" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
         <v>90</v>
       </c>
@@ -2100,17 +2179,8 @@
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
       <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-    </row>
-    <row r="7" spans="1:160" ht="28.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:151" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
         <v>86</v>
       </c>
@@ -2124,86 +2194,68 @@
         <v>19.29</v>
       </c>
       <c r="E7" s="7">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="F7" s="7">
         <v>1.57</v>
       </c>
-      <c r="G7" s="12">
+      <c r="F7" s="12">
         <v>4.6025</v>
       </c>
-      <c r="H7" s="7">
+      <c r="G7" s="7">
         <v>25.49</v>
       </c>
-      <c r="I7" s="10">
+      <c r="H7" s="10">
         <v>26.115277777777781</v>
       </c>
-      <c r="J7" s="7">
+      <c r="I7" s="7">
         <v>1.95</v>
       </c>
+      <c r="J7" s="8">
+        <v>20.95</v>
+      </c>
       <c r="K7" s="7">
-        <v>2.52</v>
-      </c>
-      <c r="L7" s="12">
-        <v>4.2241666666666671</v>
-      </c>
-      <c r="M7" s="7">
-        <v>22.48</v>
+        <v>1.93</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1.96</v>
+      </c>
+      <c r="M7" s="12">
+        <v>3.3066666666666666</v>
       </c>
       <c r="N7" s="7">
-        <v>24.69</v>
+        <v>22.53</v>
       </c>
       <c r="O7" s="7">
-        <v>1.82</v>
+        <v>18.309999999999999</v>
       </c>
       <c r="P7" s="7">
-        <v>1.74</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>3.5516666666666663</v>
-      </c>
-      <c r="R7" s="8">
-        <v>15.27</v>
-      </c>
-      <c r="S7" s="8">
-        <v>20.95</v>
+        <v>2.17</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="R7" s="12">
+        <v>3.9761111111111114</v>
+      </c>
+      <c r="S7" s="7">
+        <v>24.29</v>
       </c>
       <c r="T7" s="7">
-        <v>1.93</v>
+        <v>23.98</v>
       </c>
       <c r="U7" s="7">
-        <v>1.96</v>
-      </c>
-      <c r="V7" s="12">
-        <v>3.3066666666666666</v>
-      </c>
-      <c r="W7" s="7">
-        <v>22.53</v>
-      </c>
-      <c r="X7" s="7">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="Y7" s="7">
-        <v>2.17</v>
-      </c>
-      <c r="Z7" s="7">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="AA7" s="12">
-        <v>3.9761111111111114</v>
-      </c>
-      <c r="AB7" s="7">
-        <v>24.29</v>
-      </c>
-      <c r="AC7" s="7">
-        <v>23.98</v>
-      </c>
-      <c r="AD7" s="7">
         <v>2.46</v>
       </c>
-      <c r="AE7" s="7">
+      <c r="V7" s="7">
         <v>2.29</v>
       </c>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
       <c r="AR7" s="1"/>
       <c r="AS7" s="1"/>
       <c r="AT7" s="1"/>
@@ -2311,17 +2363,8 @@
       <c r="ER7" s="1"/>
       <c r="ES7" s="1"/>
       <c r="ET7" s="1"/>
-      <c r="EU7" s="1"/>
-      <c r="EV7" s="1"/>
-      <c r="EW7" s="1"/>
-      <c r="EX7" s="1"/>
-      <c r="EY7" s="1"/>
-      <c r="EZ7" s="1"/>
-      <c r="FA7" s="1"/>
-      <c r="FB7" s="1"/>
-      <c r="FC7" s="1"/>
-    </row>
-    <row r="8" spans="1:160" ht="99.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:151" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>89</v>
       </c>
@@ -2335,86 +2378,68 @@
         <v>17.940000000000001</v>
       </c>
       <c r="E8" s="7">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="F8" s="7">
-        <v>1.37</v>
+        <v>29.618055555555557</v>
       </c>
       <c r="G8" s="7">
-        <v>29.618055555555557</v>
-      </c>
-      <c r="H8" s="7">
         <v>23.67</v>
       </c>
-      <c r="I8" s="10">
+      <c r="H8" s="10">
         <v>24.298055555555557</v>
       </c>
-      <c r="J8" s="7">
+      <c r="I8" s="7">
         <v>1.87</v>
       </c>
+      <c r="J8" s="8">
+        <v>18.5</v>
+      </c>
       <c r="K8" s="7">
-        <v>2.66</v>
+        <v>2.06</v>
       </c>
       <c r="L8" s="7">
-        <v>27.012499999999999</v>
+        <v>2.02</v>
       </c>
       <c r="M8" s="7">
-        <v>22.18</v>
+        <v>23.212777777777777</v>
       </c>
       <c r="N8" s="7">
-        <v>21.15</v>
+        <v>19.52</v>
       </c>
       <c r="O8" s="7">
-        <v>1.74</v>
+        <v>18.68</v>
       </c>
       <c r="P8" s="7">
-        <v>1.68</v>
+        <v>2.39</v>
       </c>
       <c r="Q8" s="7">
-        <v>26.188055555555557</v>
-      </c>
-      <c r="R8" s="8">
-        <v>18.16</v>
-      </c>
-      <c r="S8" s="8">
-        <v>18.5</v>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="R8" s="7">
+        <v>26.484999999999999</v>
+      </c>
+      <c r="S8" s="7">
+        <v>21.2</v>
       </c>
       <c r="T8" s="7">
-        <v>2.06</v>
+        <v>21.03</v>
       </c>
       <c r="U8" s="7">
-        <v>2.02</v>
+        <v>2.52</v>
       </c>
       <c r="V8" s="7">
-        <v>23.212777777777777</v>
-      </c>
-      <c r="W8" s="7">
-        <v>19.52</v>
-      </c>
-      <c r="X8" s="7">
-        <v>18.68</v>
-      </c>
-      <c r="Y8" s="7">
-        <v>2.39</v>
-      </c>
-      <c r="Z8" s="7">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="AA8" s="7">
-        <v>26.484999999999999</v>
-      </c>
-      <c r="AB8" s="7">
-        <v>21.2</v>
-      </c>
-      <c r="AC8" s="7">
-        <v>21.03</v>
-      </c>
-      <c r="AD8" s="7">
-        <v>2.52</v>
-      </c>
-      <c r="AE8" s="7">
         <v>2.5</v>
       </c>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
       <c r="AR8" s="1"/>
       <c r="AS8" s="1"/>
       <c r="AT8" s="1"/>
@@ -2522,17 +2547,8 @@
       <c r="ER8" s="1"/>
       <c r="ES8" s="1"/>
       <c r="ET8" s="1"/>
-      <c r="EU8" s="1"/>
-      <c r="EV8" s="1"/>
-      <c r="EW8" s="1"/>
-      <c r="EX8" s="1"/>
-      <c r="EY8" s="1"/>
-      <c r="EZ8" s="1"/>
-      <c r="FA8" s="1"/>
-      <c r="FB8" s="1"/>
-      <c r="FC8" s="1"/>
-    </row>
-    <row r="9" spans="1:160" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:151" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
         <v>88</v>
       </c>
@@ -2542,8 +2558,8 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
@@ -2557,15 +2573,15 @@
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
       <c r="AT9" s="1"/>
@@ -2673,17 +2689,8 @@
       <c r="ER9" s="1"/>
       <c r="ES9" s="1"/>
       <c r="ET9" s="1"/>
-      <c r="EU9" s="1"/>
-      <c r="EV9" s="1"/>
-      <c r="EW9" s="1"/>
-      <c r="EX9" s="1"/>
-      <c r="EY9" s="1"/>
-      <c r="EZ9" s="1"/>
-      <c r="FA9" s="1"/>
-      <c r="FB9" s="1"/>
-      <c r="FC9" s="1"/>
-    </row>
-    <row r="10" spans="1:160" ht="28.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:151" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
         <v>86</v>
       </c>
@@ -2697,86 +2704,68 @@
         <v>17.29</v>
       </c>
       <c r="E10" s="7">
-        <v>1.02</v>
-      </c>
-      <c r="F10" s="7">
         <v>1.35</v>
       </c>
-      <c r="G10" s="12">
+      <c r="F10" s="12">
         <v>3.855</v>
       </c>
-      <c r="H10" s="7">
+      <c r="G10" s="7">
         <v>20.329999999999998</v>
       </c>
-      <c r="I10" s="10">
+      <c r="H10" s="10">
         <v>21.040833333333335</v>
       </c>
-      <c r="J10" s="7">
+      <c r="I10" s="7">
         <v>1.65</v>
       </c>
+      <c r="J10" s="8">
+        <v>18.77</v>
+      </c>
       <c r="K10" s="7">
-        <v>2.21</v>
-      </c>
-      <c r="L10" s="12">
-        <v>3.7025000000000001</v>
-      </c>
-      <c r="M10" s="7">
-        <v>21.14</v>
+        <v>1.7</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1.68</v>
+      </c>
+      <c r="M10" s="12">
+        <v>4.0552777777777775</v>
       </c>
       <c r="N10" s="7">
-        <v>19.2</v>
+        <v>20.63</v>
       </c>
       <c r="O10" s="7">
-        <v>1.56</v>
+        <v>17.07</v>
       </c>
       <c r="P10" s="7">
-        <v>1.54</v>
-      </c>
-      <c r="Q10" s="12">
-        <v>3.1269444444444443</v>
-      </c>
-      <c r="R10" s="8">
-        <v>14.26</v>
-      </c>
-      <c r="S10" s="8">
-        <v>18.77</v>
+        <v>1.94</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>1.88</v>
+      </c>
+      <c r="R10" s="12">
+        <v>3.7158333333333333</v>
+      </c>
+      <c r="S10" s="7">
+        <v>21.39</v>
       </c>
       <c r="T10" s="7">
-        <v>1.7</v>
+        <v>20.91</v>
       </c>
       <c r="U10" s="7">
-        <v>1.68</v>
-      </c>
-      <c r="V10" s="12">
-        <v>4.0552777777777775</v>
-      </c>
-      <c r="W10" s="7">
-        <v>20.63</v>
-      </c>
-      <c r="X10" s="7">
-        <v>17.07</v>
-      </c>
-      <c r="Y10" s="7">
-        <v>1.94</v>
-      </c>
-      <c r="Z10" s="7">
-        <v>1.88</v>
-      </c>
-      <c r="AA10" s="12">
-        <v>3.7158333333333333</v>
-      </c>
-      <c r="AB10" s="7">
-        <v>21.39</v>
-      </c>
-      <c r="AC10" s="7">
-        <v>20.91</v>
-      </c>
-      <c r="AD10" s="7">
         <v>2.1</v>
       </c>
-      <c r="AE10" s="7">
+      <c r="V10" s="7">
         <v>1.95</v>
       </c>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
       <c r="AR10" s="1"/>
       <c r="AS10" s="1"/>
       <c r="AT10" s="1"/>
@@ -2884,17 +2873,8 @@
       <c r="ER10" s="1"/>
       <c r="ES10" s="1"/>
       <c r="ET10" s="1"/>
-      <c r="EU10" s="1"/>
-      <c r="EV10" s="1"/>
-      <c r="EW10" s="1"/>
-      <c r="EX10" s="1"/>
-      <c r="EY10" s="1"/>
-      <c r="EZ10" s="1"/>
-      <c r="FA10" s="1"/>
-      <c r="FB10" s="1"/>
-      <c r="FC10" s="1"/>
-    </row>
-    <row r="11" spans="1:160" ht="28.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:151" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
         <v>87</v>
       </c>
@@ -2911,83 +2891,65 @@
         <v>0.45</v>
       </c>
       <c r="F11" s="7">
-        <v>0.45</v>
+        <v>9.5994444444444458</v>
       </c>
       <c r="G11" s="7">
-        <v>9.5994444444444458</v>
-      </c>
-      <c r="H11" s="7">
         <v>7.01</v>
       </c>
-      <c r="I11" s="10">
+      <c r="H11" s="10">
         <v>6.6886111111111113</v>
       </c>
-      <c r="J11" s="7">
+      <c r="I11" s="7">
         <v>0.55000000000000004</v>
       </c>
+      <c r="J11" s="8">
+        <v>6.18</v>
+      </c>
       <c r="K11" s="7">
-        <v>0.76</v>
+        <v>0.64</v>
       </c>
       <c r="L11" s="7">
-        <v>8.4213888888888881</v>
+        <v>0.66</v>
       </c>
       <c r="M11" s="7">
-        <v>6.69</v>
+        <v>8.0886111111111116</v>
       </c>
       <c r="N11" s="7">
-        <v>6.24</v>
+        <v>6.2</v>
       </c>
       <c r="O11" s="7">
-        <v>0.49</v>
+        <v>6.39</v>
       </c>
       <c r="P11" s="7">
-        <v>0.52</v>
+        <v>0.69</v>
       </c>
       <c r="Q11" s="7">
-        <v>7.3738888888888887</v>
-      </c>
-      <c r="R11" s="8">
-        <v>5.83</v>
-      </c>
-      <c r="S11" s="8">
-        <v>6.18</v>
+        <v>0.66</v>
+      </c>
+      <c r="R11" s="7">
+        <v>8.8266666666666662</v>
+      </c>
+      <c r="S11" s="7">
+        <v>7.03</v>
       </c>
       <c r="T11" s="7">
-        <v>0.64</v>
+        <v>7.01</v>
       </c>
       <c r="U11" s="7">
-        <v>0.66</v>
+        <v>0.78</v>
       </c>
       <c r="V11" s="7">
-        <v>8.0886111111111116</v>
-      </c>
-      <c r="W11" s="7">
-        <v>6.2</v>
-      </c>
-      <c r="X11" s="7">
-        <v>6.39</v>
-      </c>
-      <c r="Y11" s="7">
         <v>0.69</v>
       </c>
-      <c r="Z11" s="7">
-        <v>0.66</v>
-      </c>
-      <c r="AA11" s="7">
-        <v>8.8266666666666662</v>
-      </c>
-      <c r="AB11" s="7">
-        <v>7.03</v>
-      </c>
-      <c r="AC11" s="7">
-        <v>7.01</v>
-      </c>
-      <c r="AD11" s="7">
-        <v>0.78</v>
-      </c>
-      <c r="AE11" s="7">
-        <v>0.69</v>
-      </c>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
       <c r="AR11" s="1"/>
       <c r="AS11" s="1"/>
       <c r="AT11" s="1"/>
@@ -3095,17 +3057,8 @@
       <c r="ER11" s="1"/>
       <c r="ES11" s="1"/>
       <c r="ET11" s="1"/>
-      <c r="EU11" s="1"/>
-      <c r="EV11" s="1"/>
-      <c r="EW11" s="1"/>
-      <c r="EX11" s="1"/>
-      <c r="EY11" s="1"/>
-      <c r="EZ11" s="1"/>
-      <c r="FA11" s="1"/>
-      <c r="FB11" s="1"/>
-      <c r="FC11" s="1"/>
-    </row>
-    <row r="12" spans="1:160" ht="28.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:151" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
         <v>86</v>
       </c>
@@ -3119,86 +3072,68 @@
         <v>16.04</v>
       </c>
       <c r="E12" s="7">
-        <v>1.24</v>
-      </c>
-      <c r="F12" s="7">
         <v>1.42</v>
       </c>
-      <c r="G12" s="12">
+      <c r="F12" s="12">
         <v>3.4697222222222224</v>
       </c>
-      <c r="H12" s="7">
+      <c r="G12" s="7">
         <v>21.13</v>
       </c>
-      <c r="I12" s="10">
+      <c r="H12" s="10">
         <v>20.820555555555554</v>
       </c>
-      <c r="J12" s="7">
+      <c r="I12" s="7">
         <v>1.67</v>
       </c>
+      <c r="J12" s="8">
+        <v>18.37</v>
+      </c>
       <c r="K12" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1.71</v>
+      </c>
+      <c r="M12" s="12">
+        <v>3.0880555555555556</v>
+      </c>
+      <c r="N12" s="7">
+        <v>20.079999999999998</v>
+      </c>
+      <c r="O12" s="7">
+        <v>20.39</v>
+      </c>
+      <c r="P12" s="7">
+        <v>1.93</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>1.91</v>
+      </c>
+      <c r="R12" s="12">
+        <v>3.3763888888888891</v>
+      </c>
+      <c r="S12" s="7">
+        <v>21.14</v>
+      </c>
+      <c r="T12" s="7">
+        <v>21.21</v>
+      </c>
+      <c r="U12" s="7">
         <v>2.14</v>
       </c>
-      <c r="L12" s="12">
-        <v>4.0386111111111109</v>
-      </c>
-      <c r="M12" s="7">
-        <v>20.63</v>
-      </c>
-      <c r="N12" s="7">
-        <v>18.71</v>
-      </c>
-      <c r="O12" s="7">
-        <v>1.62</v>
-      </c>
-      <c r="P12" s="7">
-        <v>1.49</v>
-      </c>
-      <c r="Q12" s="12">
-        <v>2.64</v>
-      </c>
-      <c r="R12" s="8">
-        <v>18.3</v>
-      </c>
-      <c r="S12" s="8">
-        <v>18.37</v>
-      </c>
-      <c r="T12" s="7">
-        <v>1.6</v>
-      </c>
-      <c r="U12" s="7">
-        <v>1.71</v>
-      </c>
-      <c r="V12" s="12">
-        <v>3.0880555555555556</v>
-      </c>
-      <c r="W12" s="7">
-        <v>20.079999999999998</v>
-      </c>
-      <c r="X12" s="7">
-        <v>20.39</v>
-      </c>
-      <c r="Y12" s="7">
-        <v>1.93</v>
-      </c>
-      <c r="Z12" s="7">
-        <v>1.91</v>
-      </c>
-      <c r="AA12" s="12">
-        <v>3.3763888888888891</v>
-      </c>
-      <c r="AB12" s="7">
-        <v>21.14</v>
-      </c>
-      <c r="AC12" s="7">
-        <v>21.21</v>
-      </c>
-      <c r="AD12" s="7">
-        <v>2.14</v>
-      </c>
-      <c r="AE12" s="7">
+      <c r="V12" s="7">
         <v>1.94</v>
       </c>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
       <c r="AR12" s="1"/>
       <c r="AS12" s="1"/>
       <c r="AT12" s="1"/>
@@ -3306,17 +3241,8 @@
       <c r="ER12" s="1"/>
       <c r="ES12" s="1"/>
       <c r="ET12" s="1"/>
-      <c r="EU12" s="1"/>
-      <c r="EV12" s="1"/>
-      <c r="EW12" s="1"/>
-      <c r="EX12" s="1"/>
-      <c r="EY12" s="1"/>
-      <c r="EZ12" s="1"/>
-      <c r="FA12" s="1"/>
-      <c r="FB12" s="1"/>
-      <c r="FC12" s="1"/>
-    </row>
-    <row r="13" spans="1:160" ht="28.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:151" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
         <v>85</v>
       </c>
@@ -3330,86 +3256,68 @@
         <v>6.02</v>
       </c>
       <c r="E13" s="7">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="F13" s="7">
-        <v>0.5</v>
+        <v>9.4608333333333334</v>
       </c>
       <c r="G13" s="7">
-        <v>9.4608333333333334</v>
-      </c>
-      <c r="H13" s="7">
         <v>6.71</v>
       </c>
-      <c r="I13" s="10">
+      <c r="H13" s="10">
         <v>6.8741666666666674</v>
       </c>
-      <c r="J13" s="7">
+      <c r="I13" s="7">
         <v>0.57999999999999996</v>
+      </c>
+      <c r="J13" s="8">
+        <v>7.49</v>
       </c>
       <c r="K13" s="7">
         <v>0.78</v>
       </c>
       <c r="L13" s="7">
-        <v>9.4769444444444453</v>
+        <v>0.75</v>
       </c>
       <c r="M13" s="7">
-        <v>6.25</v>
+        <v>8.3166666666666664</v>
       </c>
       <c r="N13" s="7">
-        <v>6.41</v>
+        <v>6.52</v>
       </c>
       <c r="O13" s="7">
-        <v>0.54</v>
+        <v>6.6</v>
       </c>
       <c r="P13" s="7">
-        <v>0.53</v>
+        <v>0.73</v>
       </c>
       <c r="Q13" s="7">
-        <v>9.0888888888888903</v>
-      </c>
-      <c r="R13" s="8">
-        <v>7.05</v>
-      </c>
-      <c r="S13" s="8">
-        <v>7.49</v>
+        <v>0.68</v>
+      </c>
+      <c r="R13" s="7">
+        <v>9.2211111111111119</v>
+      </c>
+      <c r="S13" s="7">
+        <v>6.85</v>
       </c>
       <c r="T13" s="7">
-        <v>0.78</v>
+        <v>6.93</v>
       </c>
       <c r="U13" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="V13" s="7">
         <v>0.75</v>
       </c>
-      <c r="V13" s="7">
-        <v>8.3166666666666664</v>
-      </c>
-      <c r="W13" s="7">
-        <v>6.52</v>
-      </c>
-      <c r="X13" s="7">
-        <v>6.6</v>
-      </c>
-      <c r="Y13" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="Z13" s="7">
-        <v>0.68</v>
-      </c>
-      <c r="AA13" s="7">
-        <v>9.2211111111111119</v>
-      </c>
-      <c r="AB13" s="7">
-        <v>6.85</v>
-      </c>
-      <c r="AC13" s="7">
-        <v>6.93</v>
-      </c>
-      <c r="AD13" s="7">
-        <v>0.83</v>
-      </c>
-      <c r="AE13" s="7">
-        <v>0.75</v>
-      </c>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
       <c r="AR13" s="1"/>
       <c r="AS13" s="1"/>
       <c r="AT13" s="1"/>
@@ -3517,17 +3425,8 @@
       <c r="ER13" s="1"/>
       <c r="ES13" s="1"/>
       <c r="ET13" s="1"/>
-      <c r="EU13" s="1"/>
-      <c r="EV13" s="1"/>
-      <c r="EW13" s="1"/>
-      <c r="EX13" s="1"/>
-      <c r="EY13" s="1"/>
-      <c r="EZ13" s="1"/>
-      <c r="FA13" s="1"/>
-      <c r="FB13" s="1"/>
-      <c r="FC13" s="1"/>
-    </row>
-    <row r="14" spans="1:160" ht="28.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:151" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
         <v>84</v>
       </c>
@@ -3541,86 +3440,68 @@
         <v>2.54</v>
       </c>
       <c r="E14" s="7">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F14" s="7">
-        <v>0.17</v>
+        <v>0.85222222222222221</v>
       </c>
       <c r="G14" s="7">
-        <v>0.85222222222222221</v>
-      </c>
-      <c r="H14" s="7">
         <v>0.67</v>
       </c>
-      <c r="I14" s="10">
+      <c r="H14" s="10">
         <v>0.7</v>
       </c>
-      <c r="J14" s="7">
+      <c r="I14" s="7">
         <v>0.06</v>
       </c>
+      <c r="J14" s="8">
+        <v>3.61</v>
+      </c>
       <c r="K14" s="7">
-        <v>7.0000000000000007E-2</v>
+        <v>0.31</v>
       </c>
       <c r="L14" s="7">
-        <v>0.79305555555555551</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M14" s="7">
-        <v>0.7</v>
+        <v>0.91305555555555562</v>
       </c>
       <c r="N14" s="7">
-        <v>0.72</v>
+        <v>1.07</v>
       </c>
       <c r="O14" s="7">
-        <v>0.06</v>
+        <v>0.91</v>
       </c>
       <c r="P14" s="7">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="Q14" s="7">
-        <v>4.2450000000000001</v>
-      </c>
-      <c r="R14" s="8">
-        <v>3.19</v>
-      </c>
-      <c r="S14" s="8">
-        <v>3.61</v>
+        <v>0.09</v>
+      </c>
+      <c r="R14" s="7">
+        <v>0.86111111111111105</v>
+      </c>
+      <c r="S14" s="7">
+        <v>0.83</v>
       </c>
       <c r="T14" s="7">
-        <v>0.31</v>
+        <v>0.84</v>
       </c>
       <c r="U14" s="7">
-        <v>0.28999999999999998</v>
+        <v>0.09</v>
       </c>
       <c r="V14" s="7">
-        <v>0.91305555555555562</v>
-      </c>
-      <c r="W14" s="7">
-        <v>1.07</v>
-      </c>
-      <c r="X14" s="7">
-        <v>0.91</v>
-      </c>
-      <c r="Y14" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="Z14" s="7">
         <v>0.09</v>
       </c>
-      <c r="AA14" s="7">
-        <v>0.86111111111111105</v>
-      </c>
-      <c r="AB14" s="7">
-        <v>0.83</v>
-      </c>
-      <c r="AC14" s="7">
-        <v>0.84</v>
-      </c>
-      <c r="AD14" s="7">
-        <v>0.09</v>
-      </c>
-      <c r="AE14" s="7">
-        <v>0.09</v>
-      </c>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
       <c r="AR14" s="1"/>
       <c r="AS14" s="1"/>
       <c r="AT14" s="1"/>
@@ -3728,17 +3609,8 @@
       <c r="ER14" s="1"/>
       <c r="ES14" s="1"/>
       <c r="ET14" s="1"/>
-      <c r="EU14" s="1"/>
-      <c r="EV14" s="1"/>
-      <c r="EW14" s="1"/>
-      <c r="EX14" s="1"/>
-      <c r="EY14" s="1"/>
-      <c r="EZ14" s="1"/>
-      <c r="FA14" s="1"/>
-      <c r="FB14" s="1"/>
-      <c r="FC14" s="1"/>
-    </row>
-    <row r="15" spans="1:160" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:151" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>83</v>
       </c>
@@ -3752,86 +3624,68 @@
         <v>84.56</v>
       </c>
       <c r="E15" s="7">
-        <v>5.94</v>
+        <v>6.91</v>
       </c>
       <c r="F15" s="7">
-        <v>6.91</v>
+        <v>61.468333333333334</v>
       </c>
       <c r="G15" s="7">
-        <v>61.468333333333334</v>
+        <v>105.01</v>
       </c>
       <c r="H15" s="7">
-        <v>105.01</v>
+        <v>106.54</v>
       </c>
       <c r="I15" s="7">
-        <v>106.54</v>
-      </c>
-      <c r="J15" s="7">
         <v>8.68</v>
       </c>
+      <c r="J15" s="8">
+        <v>93.88</v>
+      </c>
       <c r="K15" s="7">
-        <v>11.41</v>
+        <v>9.19</v>
       </c>
       <c r="L15" s="7">
-        <v>57.688888888888883</v>
+        <v>9.19</v>
       </c>
       <c r="M15" s="7">
-        <v>100.08</v>
+        <v>50.994722222222222</v>
       </c>
       <c r="N15" s="7">
-        <v>97.13</v>
+        <v>96.55</v>
       </c>
       <c r="O15" s="7">
-        <v>8.1</v>
+        <v>88.36</v>
       </c>
       <c r="P15" s="7">
-        <v>7.73</v>
+        <v>10.25</v>
       </c>
       <c r="Q15" s="7">
-        <v>56.251666666666665</v>
-      </c>
-      <c r="R15" s="8">
-        <v>82.07</v>
-      </c>
-      <c r="S15" s="8">
-        <v>93.88</v>
+        <v>9.84</v>
+      </c>
+      <c r="R15" s="7">
+        <v>56.469444444444449</v>
+      </c>
+      <c r="S15" s="7">
+        <v>102.74</v>
       </c>
       <c r="T15" s="7">
-        <v>9.19</v>
+        <v>101.92</v>
       </c>
       <c r="U15" s="7">
-        <v>9.19</v>
+        <v>11.25</v>
       </c>
       <c r="V15" s="7">
-        <v>50.994722222222222</v>
-      </c>
-      <c r="W15" s="7">
-        <v>96.55</v>
-      </c>
-      <c r="X15" s="7">
-        <v>88.36</v>
-      </c>
-      <c r="Y15" s="7">
-        <v>10.25</v>
-      </c>
-      <c r="Z15" s="7">
-        <v>9.84</v>
-      </c>
-      <c r="AA15" s="7">
-        <v>56.469444444444449</v>
-      </c>
-      <c r="AB15" s="7">
-        <v>102.74</v>
-      </c>
-      <c r="AC15" s="7">
-        <v>101.92</v>
-      </c>
-      <c r="AD15" s="7">
-        <v>11.25</v>
-      </c>
-      <c r="AE15" s="7">
         <v>10.45</v>
       </c>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
       <c r="AS15" s="1"/>
       <c r="AT15" s="1"/>
@@ -3940,52 +3794,20 @@
       <c r="ES15" s="1"/>
       <c r="ET15" s="1"/>
       <c r="EU15" s="1"/>
-      <c r="EV15" s="1"/>
-      <c r="EW15" s="1"/>
-      <c r="EX15" s="1"/>
-      <c r="EY15" s="1"/>
-      <c r="EZ15" s="1"/>
-      <c r="FA15" s="1"/>
-      <c r="FB15" s="1"/>
-      <c r="FC15" s="1"/>
-      <c r="FD15" s="1"/>
-    </row>
-    <row r="16" spans="1:160" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:151" x14ac:dyDescent="0.15">
       <c r="B16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="Q16" s="6"/>
-      <c r="V16" s="5"/>
-      <c r="Z16" s="5"/>
-    </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-    </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="U18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
+      <c r="F16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="Q16" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="V2:Z2"/>
+  <mergeCells count="5">
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3997,7 +3819,7 @@
   <dimension ref="A1:EH18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4023,18 +3845,18 @@
       <c r="A2" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="46" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:138" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -5438,6 +5260,714 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="7.375" hidden="1" customWidth="1"/>
+    <col min="3" max="8" width="7.375" customWidth="1"/>
+    <col min="9" max="9" width="1.125" customWidth="1"/>
+    <col min="10" max="10" width="7.375" hidden="1" customWidth="1"/>
+    <col min="11" max="22" width="7.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+    </row>
+    <row r="2" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="41"/>
+      <c r="J2" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="47"/>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="L6" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="O6" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="P6" s="44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+    </row>
+    <row r="9" spans="1:22" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="12">
+        <v>3.5516666666666663</v>
+      </c>
+      <c r="C9" s="7">
+        <v>18.29</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1.57</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1.86</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1.53</v>
+      </c>
+      <c r="J9" s="12">
+        <v>3.5516666666666663</v>
+      </c>
+      <c r="K9" s="8">
+        <v>15.27</v>
+      </c>
+      <c r="L9" s="7">
+        <v>21.68</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1.93</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1.96</v>
+      </c>
+      <c r="O9" s="7">
+        <v>1.89</v>
+      </c>
+      <c r="P9" s="7">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="99.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="7">
+        <v>25.27</v>
+      </c>
+      <c r="C10" s="7">
+        <v>17.72</v>
+      </c>
+      <c r="D10" s="56"/>
+      <c r="E10" s="7">
+        <v>1.38</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1.37</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2.09</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1.43</v>
+      </c>
+      <c r="J10" s="7">
+        <v>26.188055555555557</v>
+      </c>
+      <c r="K10" s="8">
+        <v>18.16</v>
+      </c>
+      <c r="L10" s="7">
+        <v>18.5</v>
+      </c>
+      <c r="M10" s="7">
+        <v>2.06</v>
+      </c>
+      <c r="N10" s="7">
+        <v>2.02</v>
+      </c>
+      <c r="O10" s="7">
+        <v>2.14</v>
+      </c>
+      <c r="P10" s="7">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+    </row>
+    <row r="12" spans="1:22" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="12">
+        <v>3.2016666666666667</v>
+      </c>
+      <c r="C12" s="7">
+        <v>16.05</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7">
+        <v>1.02</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1.35</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1.71</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1.37</v>
+      </c>
+      <c r="J12" s="12">
+        <v>3.1269444444444443</v>
+      </c>
+      <c r="K12" s="8">
+        <v>14.26</v>
+      </c>
+      <c r="L12" s="7">
+        <v>18.68</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1.68</v>
+      </c>
+      <c r="O12" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="P12" s="7">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="7">
+        <v>7.1297222222222221</v>
+      </c>
+      <c r="C13" s="7">
+        <v>5.28</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="J13" s="7">
+        <v>7.3738888888888887</v>
+      </c>
+      <c r="K13" s="8">
+        <v>5.83</v>
+      </c>
+      <c r="L13" s="7">
+        <v>5.85</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0.66</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0.69</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="12">
+        <v>2.6188888888888888</v>
+      </c>
+      <c r="C14" s="7">
+        <v>15.79</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7">
+        <v>1.24</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1.42</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1.71</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1.52</v>
+      </c>
+      <c r="J14" s="12">
+        <v>2.64</v>
+      </c>
+      <c r="K14" s="8">
+        <v>18.3</v>
+      </c>
+      <c r="L14" s="7">
+        <v>18.53</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1.71</v>
+      </c>
+      <c r="O14" s="7">
+        <v>1.79</v>
+      </c>
+      <c r="P14" s="7">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="7">
+        <v>7.859166666666666</v>
+      </c>
+      <c r="C15" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="J15" s="7">
+        <v>9.0888888888888903</v>
+      </c>
+      <c r="K15" s="8">
+        <v>7.05</v>
+      </c>
+      <c r="L15" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="7">
+        <v>4.5902777777777777</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2.33</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="J16" s="7">
+        <v>4.2450000000000001</v>
+      </c>
+      <c r="K16" s="8">
+        <v>3.19</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="7">
+        <v>54.249166666666667</v>
+      </c>
+      <c r="C17" s="7">
+        <v>82.98</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7">
+        <v>5.94</v>
+      </c>
+      <c r="F17" s="7">
+        <v>6.91</v>
+      </c>
+      <c r="G17" s="7">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="H17" s="7">
+        <v>7</v>
+      </c>
+      <c r="J17" s="7">
+        <v>56.251666666666665</v>
+      </c>
+      <c r="K17" s="8">
+        <v>82.07</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7">
+        <v>9.19</v>
+      </c>
+      <c r="N17" s="7">
+        <v>9.19</v>
+      </c>
+      <c r="O17" s="7">
+        <v>9.58</v>
+      </c>
+      <c r="P17" s="7">
+        <v>9.56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D9:D10"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -6215,12 +6745,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7149,11 +7679,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -17084,7 +17614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V11"/>
   <sheetViews>
@@ -17768,4 +18298,3431 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29:V30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="22" width="6.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>30595050</v>
+      </c>
+      <c r="C2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44209.462199074071</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44209.462951388887</v>
+      </c>
+      <c r="G2" s="1">
+        <v>44210.366284722222</v>
+      </c>
+      <c r="H2" s="1">
+        <v>44211.136967592596</v>
+      </c>
+      <c r="I2" s="1">
+        <v>44211.915486111109</v>
+      </c>
+      <c r="J2" s="1">
+        <v>44212.159120370372</v>
+      </c>
+      <c r="K2" s="1">
+        <v>44212.931076388886</v>
+      </c>
+      <c r="M2" s="1">
+        <v>44213.204918981479</v>
+      </c>
+      <c r="N2">
+        <v>89.83</v>
+      </c>
+      <c r="O2">
+        <v>0.02</v>
+      </c>
+      <c r="P2">
+        <v>21.68</v>
+      </c>
+      <c r="Q2">
+        <v>18.5</v>
+      </c>
+      <c r="R2">
+        <v>18.68</v>
+      </c>
+      <c r="S2">
+        <v>5.85</v>
+      </c>
+      <c r="T2">
+        <v>18.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>30652132</v>
+      </c>
+      <c r="C5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44211.513564814813</v>
+      </c>
+      <c r="F5" s="1">
+        <v>44211.520312499997</v>
+      </c>
+      <c r="G5" s="1">
+        <v>44211.599050925928</v>
+      </c>
+      <c r="H5" s="1">
+        <v>44211.688090277778</v>
+      </c>
+      <c r="I5" s="1">
+        <v>44211.760868055557</v>
+      </c>
+      <c r="J5" s="1">
+        <v>44211.789699074077</v>
+      </c>
+      <c r="K5" s="1">
+        <v>44211.864305555559</v>
+      </c>
+      <c r="L5" s="1">
+        <v>44211.898159722223</v>
+      </c>
+      <c r="M5" s="1">
+        <v>44211.912534722222</v>
+      </c>
+      <c r="N5">
+        <v>9.58</v>
+      </c>
+      <c r="O5">
+        <v>0.16</v>
+      </c>
+      <c r="P5">
+        <v>1.89</v>
+      </c>
+      <c r="Q5">
+        <v>2.14</v>
+      </c>
+      <c r="R5">
+        <v>1.75</v>
+      </c>
+      <c r="S5">
+        <v>0.69</v>
+      </c>
+      <c r="T5">
+        <v>1.79</v>
+      </c>
+      <c r="U5">
+        <v>0.81</v>
+      </c>
+      <c r="V5">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>30652133</v>
+      </c>
+      <c r="C6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44211.513912037037</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44211.51934027778</v>
+      </c>
+      <c r="G6" s="1">
+        <v>44211.603368055556</v>
+      </c>
+      <c r="H6" s="1">
+        <v>44211.690810185188</v>
+      </c>
+      <c r="I6" s="1">
+        <v>44211.763518518521</v>
+      </c>
+      <c r="J6" s="1">
+        <v>44211.792071759257</v>
+      </c>
+      <c r="K6" s="1">
+        <v>44211.864942129629</v>
+      </c>
+      <c r="L6" s="1">
+        <v>44211.899675925924</v>
+      </c>
+      <c r="M6" s="1">
+        <v>44211.912442129629</v>
+      </c>
+      <c r="N6">
+        <v>9.56</v>
+      </c>
+      <c r="O6">
+        <v>0.13</v>
+      </c>
+      <c r="P6">
+        <v>2.02</v>
+      </c>
+      <c r="Q6">
+        <v>2.1</v>
+      </c>
+      <c r="R6">
+        <v>1.75</v>
+      </c>
+      <c r="S6">
+        <v>0.69</v>
+      </c>
+      <c r="T6">
+        <v>1.75</v>
+      </c>
+      <c r="U6">
+        <v>0.83</v>
+      </c>
+      <c r="V6">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>30652134</v>
+      </c>
+      <c r="C7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44211.514965277776</v>
+      </c>
+      <c r="F7" s="1">
+        <v>44211.521261574075</v>
+      </c>
+      <c r="G7" s="1">
+        <v>44211.588090277779</v>
+      </c>
+      <c r="H7" s="1">
+        <v>44211.663275462961</v>
+      </c>
+      <c r="I7" s="1">
+        <v>44211.724178240744</v>
+      </c>
+      <c r="J7" s="1">
+        <v>44211.747002314813</v>
+      </c>
+      <c r="K7" s="1">
+        <v>44211.808506944442</v>
+      </c>
+      <c r="L7" s="1">
+        <v>44211.836840277778</v>
+      </c>
+      <c r="M7" s="1">
+        <v>44211.844861111109</v>
+      </c>
+      <c r="N7">
+        <v>7.92</v>
+      </c>
+      <c r="O7">
+        <v>0.15</v>
+      </c>
+      <c r="P7">
+        <v>1.6</v>
+      </c>
+      <c r="Q7">
+        <v>1.8</v>
+      </c>
+      <c r="R7">
+        <v>1.46</v>
+      </c>
+      <c r="S7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="T7">
+        <v>1.48</v>
+      </c>
+      <c r="U7">
+        <v>0.68</v>
+      </c>
+      <c r="V7">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>30652135</v>
+      </c>
+      <c r="C8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1">
+        <v>44211.515949074077</v>
+      </c>
+      <c r="F8" s="1">
+        <v>44211.521018518521</v>
+      </c>
+      <c r="G8" s="1">
+        <v>44211.586273148147</v>
+      </c>
+      <c r="H8" s="1">
+        <v>44211.660752314812</v>
+      </c>
+      <c r="I8" s="1">
+        <v>44211.720532407409</v>
+      </c>
+      <c r="J8" s="1">
+        <v>44211.743032407408</v>
+      </c>
+      <c r="K8" s="1">
+        <v>44211.799884259257</v>
+      </c>
+      <c r="L8" s="1">
+        <v>44211.825057870374</v>
+      </c>
+      <c r="M8" s="1">
+        <v>44211.834108796298</v>
+      </c>
+      <c r="N8">
+        <v>7.64</v>
+      </c>
+      <c r="O8">
+        <v>0.12</v>
+      </c>
+      <c r="P8">
+        <v>1.57</v>
+      </c>
+      <c r="Q8">
+        <v>1.79</v>
+      </c>
+      <c r="R8">
+        <v>1.43</v>
+      </c>
+      <c r="S8">
+        <v>0.54</v>
+      </c>
+      <c r="T8">
+        <v>1.36</v>
+      </c>
+      <c r="U8">
+        <v>0.6</v>
+      </c>
+      <c r="V8">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>30652136</v>
+      </c>
+      <c r="C9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1">
+        <v>44211.516296296293</v>
+      </c>
+      <c r="F9" s="1">
+        <v>44211.519016203703</v>
+      </c>
+      <c r="G9" s="1">
+        <v>44211.574386574073</v>
+      </c>
+      <c r="H9" s="1">
+        <v>44211.636145833334</v>
+      </c>
+      <c r="I9" s="1">
+        <v>44211.685069444444</v>
+      </c>
+      <c r="J9" s="1">
+        <v>44211.706967592596</v>
+      </c>
+      <c r="K9" s="1">
+        <v>44211.756990740738</v>
+      </c>
+      <c r="L9" s="1">
+        <v>44211.784907407404</v>
+      </c>
+      <c r="M9" s="1">
+        <v>44211.803923611114</v>
+      </c>
+      <c r="N9">
+        <v>6.9</v>
+      </c>
+      <c r="O9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P9">
+        <v>1.33</v>
+      </c>
+      <c r="Q9">
+        <v>1.48</v>
+      </c>
+      <c r="R9">
+        <v>1.17</v>
+      </c>
+      <c r="S9">
+        <v>0.53</v>
+      </c>
+      <c r="T9">
+        <v>1.2</v>
+      </c>
+      <c r="U9">
+        <v>0.67</v>
+      </c>
+      <c r="V9">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>30652137</v>
+      </c>
+      <c r="C10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44211.518611111111</v>
+      </c>
+      <c r="F10" s="1">
+        <v>44211.522974537038</v>
+      </c>
+      <c r="G10" s="1">
+        <v>44211.580972222226</v>
+      </c>
+      <c r="H10" s="1">
+        <v>44211.645439814813</v>
+      </c>
+      <c r="I10" s="1">
+        <v>44211.697881944441</v>
+      </c>
+      <c r="J10" s="1">
+        <v>44211.718715277777</v>
+      </c>
+      <c r="K10" s="1">
+        <v>44211.772881944446</v>
+      </c>
+      <c r="L10" s="1">
+        <v>44211.794999999998</v>
+      </c>
+      <c r="M10" s="1">
+        <v>44211.802199074074</v>
+      </c>
+      <c r="N10">
+        <v>6.81</v>
+      </c>
+      <c r="O10">
+        <v>0.1</v>
+      </c>
+      <c r="P10">
+        <v>1.39</v>
+      </c>
+      <c r="Q10">
+        <v>1.55</v>
+      </c>
+      <c r="R10">
+        <v>1.26</v>
+      </c>
+      <c r="S10">
+        <v>0.5</v>
+      </c>
+      <c r="T10">
+        <v>1.3</v>
+      </c>
+      <c r="U10">
+        <v>0.53</v>
+      </c>
+      <c r="V10">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>30652138</v>
+      </c>
+      <c r="C11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44211.518611111111</v>
+      </c>
+      <c r="F11" s="1">
+        <v>44211.523969907408</v>
+      </c>
+      <c r="G11" s="1">
+        <v>44211.582280092596</v>
+      </c>
+      <c r="H11" s="1">
+        <v>44211.651562500003</v>
+      </c>
+      <c r="I11" s="1">
+        <v>44211.701192129629</v>
+      </c>
+      <c r="J11" s="1">
+        <v>44211.721296296295</v>
+      </c>
+      <c r="K11" s="1">
+        <v>44211.773055555554</v>
+      </c>
+      <c r="L11" s="1">
+        <v>44211.794120370374</v>
+      </c>
+      <c r="M11" s="1">
+        <v>44211.799861111111</v>
+      </c>
+      <c r="N11">
+        <v>6.75</v>
+      </c>
+      <c r="O11">
+        <v>0.13</v>
+      </c>
+      <c r="P11">
+        <v>1.4</v>
+      </c>
+      <c r="Q11">
+        <v>1.66</v>
+      </c>
+      <c r="R11">
+        <v>1.19</v>
+      </c>
+      <c r="S11">
+        <v>0.48</v>
+      </c>
+      <c r="T11">
+        <v>1.24</v>
+      </c>
+      <c r="U11">
+        <v>0.51</v>
+      </c>
+      <c r="V11">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>30652139</v>
+      </c>
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44211.524675925924</v>
+      </c>
+      <c r="F12" s="1">
+        <v>44211.528969907406</v>
+      </c>
+      <c r="G12" s="1">
+        <v>44211.574826388889</v>
+      </c>
+      <c r="H12" s="1">
+        <v>44211.61310185185</v>
+      </c>
+      <c r="I12" s="1">
+        <v>44211.652499999997</v>
+      </c>
+      <c r="J12" s="1">
+        <v>44211.664456018516</v>
+      </c>
+      <c r="K12" s="1">
+        <v>44211.705543981479</v>
+      </c>
+      <c r="L12" s="1">
+        <v>44211.718587962961</v>
+      </c>
+      <c r="M12" s="1">
+        <v>44211.722060185188</v>
+      </c>
+      <c r="N12">
+        <v>4.74</v>
+      </c>
+      <c r="O12">
+        <v>0.1</v>
+      </c>
+      <c r="P12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q12">
+        <v>0.92</v>
+      </c>
+      <c r="R12">
+        <v>0.95</v>
+      </c>
+      <c r="S12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T12">
+        <v>0.99</v>
+      </c>
+      <c r="U12">
+        <v>0.31</v>
+      </c>
+      <c r="V12">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>30652140</v>
+      </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1">
+        <v>44211.525381944448</v>
+      </c>
+      <c r="F13" s="1">
+        <v>44211.529374999998</v>
+      </c>
+      <c r="G13" s="1">
+        <v>44211.570648148147</v>
+      </c>
+      <c r="H13" s="1">
+        <v>44211.618101851855</v>
+      </c>
+      <c r="I13" s="1">
+        <v>44211.651747685188</v>
+      </c>
+      <c r="J13" s="1">
+        <v>44211.666504629633</v>
+      </c>
+      <c r="K13" s="1">
+        <v>44211.702291666668</v>
+      </c>
+      <c r="L13" s="1">
+        <v>44211.719548611109</v>
+      </c>
+      <c r="M13" s="1">
+        <v>44211.725590277776</v>
+      </c>
+      <c r="N13">
+        <v>4.8</v>
+      </c>
+      <c r="O13">
+        <v>0.1</v>
+      </c>
+      <c r="P13">
+        <v>0.99</v>
+      </c>
+      <c r="Q13">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="R13">
+        <v>0.81</v>
+      </c>
+      <c r="S13">
+        <v>0.35</v>
+      </c>
+      <c r="T13">
+        <v>0.86</v>
+      </c>
+      <c r="U13">
+        <v>0.41</v>
+      </c>
+      <c r="V13">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>30652142</v>
+      </c>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1">
+        <v>44211.525381944448</v>
+      </c>
+      <c r="F14" s="1">
+        <v>44211.527673611112</v>
+      </c>
+      <c r="G14" s="1">
+        <v>44211.570625</v>
+      </c>
+      <c r="H14" s="1">
+        <v>44211.618402777778</v>
+      </c>
+      <c r="I14" s="1">
+        <v>44211.652349537035</v>
+      </c>
+      <c r="J14" s="1">
+        <v>44211.669027777774</v>
+      </c>
+      <c r="K14" s="1">
+        <v>44211.705046296294</v>
+      </c>
+      <c r="L14" s="1">
+        <v>44211.726319444446</v>
+      </c>
+      <c r="M14" s="1">
+        <v>44211.73914351852</v>
+      </c>
+      <c r="N14">
+        <v>5.13</v>
+      </c>
+      <c r="O14">
+        <v>0.06</v>
+      </c>
+      <c r="P14">
+        <v>1.03</v>
+      </c>
+      <c r="Q14">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="R14">
+        <v>0.81</v>
+      </c>
+      <c r="S14">
+        <v>0.4</v>
+      </c>
+      <c r="T14">
+        <v>0.86</v>
+      </c>
+      <c r="U14">
+        <v>0.51</v>
+      </c>
+      <c r="V14">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>30652143</v>
+      </c>
+      <c r="C15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1">
+        <v>44211.525381944448</v>
+      </c>
+      <c r="F15" s="1">
+        <v>44211.528321759259</v>
+      </c>
+      <c r="G15" s="1">
+        <v>44211.565798611111</v>
+      </c>
+      <c r="H15" s="1">
+        <v>44211.611122685186</v>
+      </c>
+      <c r="I15" s="1">
+        <v>44211.651655092595</v>
+      </c>
+      <c r="J15" s="1">
+        <v>44211.667581018519</v>
+      </c>
+      <c r="K15" s="1">
+        <v>44211.70921296296</v>
+      </c>
+      <c r="L15" s="1">
+        <v>44211.727800925924</v>
+      </c>
+      <c r="M15" s="1">
+        <v>44211.736122685186</v>
+      </c>
+      <c r="N15">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="O15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P15">
+        <v>0.9</v>
+      </c>
+      <c r="Q15">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="R15">
+        <v>0.97</v>
+      </c>
+      <c r="S15">
+        <v>0.38</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>0.45</v>
+      </c>
+      <c r="V15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>30652144</v>
+      </c>
+      <c r="C16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="1">
+        <v>44211.525381944448</v>
+      </c>
+      <c r="F16" s="1">
+        <v>44211.528298611112</v>
+      </c>
+      <c r="G16" s="1">
+        <v>44211.57408564815</v>
+      </c>
+      <c r="H16" s="1">
+        <v>44211.623368055552</v>
+      </c>
+      <c r="I16" s="1">
+        <v>44211.657442129632</v>
+      </c>
+      <c r="J16" s="1">
+        <v>44211.673344907409</v>
+      </c>
+      <c r="K16" s="1">
+        <v>44211.713148148148</v>
+      </c>
+      <c r="L16" s="1">
+        <v>44211.730497685188</v>
+      </c>
+      <c r="M16" s="1">
+        <v>44211.736851851849</v>
+      </c>
+      <c r="N16">
+        <v>5.08</v>
+      </c>
+      <c r="O16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q16">
+        <v>1.18</v>
+      </c>
+      <c r="R16">
+        <v>0.82</v>
+      </c>
+      <c r="S16">
+        <v>0.38</v>
+      </c>
+      <c r="T16">
+        <v>0.96</v>
+      </c>
+      <c r="U16">
+        <v>0.42</v>
+      </c>
+      <c r="V16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>30652145</v>
+      </c>
+      <c r="C17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="1">
+        <v>44211.525381944448</v>
+      </c>
+      <c r="F17" s="1">
+        <v>44211.528090277781</v>
+      </c>
+      <c r="G17" s="1">
+        <v>44211.556666666664</v>
+      </c>
+      <c r="H17" s="1">
+        <v>44211.594652777778</v>
+      </c>
+      <c r="I17" s="1">
+        <v>44211.619166666664</v>
+      </c>
+      <c r="J17" s="1">
+        <v>44211.630636574075</v>
+      </c>
+      <c r="K17" s="1">
+        <v>44211.660034722219</v>
+      </c>
+      <c r="L17" s="1">
+        <v>44211.672430555554</v>
+      </c>
+      <c r="M17" s="1">
+        <v>44211.676712962966</v>
+      </c>
+      <c r="N17">
+        <v>3.63</v>
+      </c>
+      <c r="O17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P17">
+        <v>0.69</v>
+      </c>
+      <c r="Q17">
+        <v>0.91</v>
+      </c>
+      <c r="R17">
+        <v>0.59</v>
+      </c>
+      <c r="S17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="T17">
+        <v>0.71</v>
+      </c>
+      <c r="U17">
+        <v>0.3</v>
+      </c>
+      <c r="V17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>30652146</v>
+      </c>
+      <c r="C18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="1">
+        <v>44211.527106481481</v>
+      </c>
+      <c r="F18" s="1">
+        <v>44211.52925925926</v>
+      </c>
+      <c r="G18" s="1">
+        <v>44211.559467592589</v>
+      </c>
+      <c r="H18" s="1">
+        <v>44211.59003472222</v>
+      </c>
+      <c r="I18" s="1">
+        <v>44211.61650462963</v>
+      </c>
+      <c r="J18" s="1">
+        <v>44211.626736111109</v>
+      </c>
+      <c r="K18" s="1">
+        <v>44211.652453703704</v>
+      </c>
+      <c r="L18" s="1">
+        <v>44211.664189814815</v>
+      </c>
+      <c r="M18" s="1">
+        <v>44211.669050925928</v>
+      </c>
+      <c r="N18">
+        <v>3.41</v>
+      </c>
+      <c r="O18">
+        <v>0.05</v>
+      </c>
+      <c r="P18">
+        <v>0.72</v>
+      </c>
+      <c r="Q18">
+        <v>0.73</v>
+      </c>
+      <c r="R18">
+        <v>0.64</v>
+      </c>
+      <c r="S18">
+        <v>0.25</v>
+      </c>
+      <c r="T18">
+        <v>0.62</v>
+      </c>
+      <c r="U18">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="V18">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>30652147</v>
+      </c>
+      <c r="C19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="1">
+        <v>44211.533356481479</v>
+      </c>
+      <c r="F19" s="1">
+        <v>44211.535208333335</v>
+      </c>
+      <c r="G19" s="1">
+        <v>44211.563206018516</v>
+      </c>
+      <c r="H19" s="1">
+        <v>44211.592499999999</v>
+      </c>
+      <c r="I19" s="1">
+        <v>44211.617372685185</v>
+      </c>
+      <c r="J19" s="1">
+        <v>44211.627638888887</v>
+      </c>
+      <c r="K19" s="1">
+        <v>44211.65253472222</v>
+      </c>
+      <c r="L19" s="1">
+        <v>44211.665543981479</v>
+      </c>
+      <c r="M19" s="1">
+        <v>44211.672638888886</v>
+      </c>
+      <c r="N19">
+        <v>3.34</v>
+      </c>
+      <c r="O19">
+        <v>0.04</v>
+      </c>
+      <c r="P19">
+        <v>0.67</v>
+      </c>
+      <c r="Q19">
+        <v>0.7</v>
+      </c>
+      <c r="R19">
+        <v>0.6</v>
+      </c>
+      <c r="S19">
+        <v>0.25</v>
+      </c>
+      <c r="T19">
+        <v>0.6</v>
+      </c>
+      <c r="U19">
+        <v>0.31</v>
+      </c>
+      <c r="V19">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>30652148</v>
+      </c>
+      <c r="C20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="1">
+        <v>44211.533356481479</v>
+      </c>
+      <c r="F20" s="1">
+        <v>44211.535590277781</v>
+      </c>
+      <c r="G20" s="1">
+        <v>44211.564618055556</v>
+      </c>
+      <c r="H20" s="1">
+        <v>44211.603564814817</v>
+      </c>
+      <c r="I20" s="1">
+        <v>44211.628379629627</v>
+      </c>
+      <c r="J20" s="1">
+        <v>44211.639618055553</v>
+      </c>
+      <c r="K20" s="1">
+        <v>44211.664259259262</v>
+      </c>
+      <c r="L20" s="1">
+        <v>44211.676851851851</v>
+      </c>
+      <c r="M20" s="1">
+        <v>44211.68341435185</v>
+      </c>
+      <c r="N20">
+        <v>3.6</v>
+      </c>
+      <c r="O20">
+        <v>0.05</v>
+      </c>
+      <c r="P20">
+        <v>0.7</v>
+      </c>
+      <c r="Q20">
+        <v>0.93</v>
+      </c>
+      <c r="R20">
+        <v>0.6</v>
+      </c>
+      <c r="S20">
+        <v>0.27</v>
+      </c>
+      <c r="T20">
+        <v>0.59</v>
+      </c>
+      <c r="U20">
+        <v>0.3</v>
+      </c>
+      <c r="V20">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>30652149</v>
+      </c>
+      <c r="C21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="1">
+        <v>44211.534143518518</v>
+      </c>
+      <c r="F21" s="1">
+        <v>44211.53634259259</v>
+      </c>
+      <c r="G21" s="1">
+        <v>44211.566122685188</v>
+      </c>
+      <c r="H21" s="1">
+        <v>44211.601423611108</v>
+      </c>
+      <c r="I21" s="1">
+        <v>44211.627523148149</v>
+      </c>
+      <c r="J21" s="1">
+        <v>44211.638738425929</v>
+      </c>
+      <c r="K21" s="1">
+        <v>44211.66678240741</v>
+      </c>
+      <c r="L21" s="1">
+        <v>44211.681655092594</v>
+      </c>
+      <c r="M21" s="1">
+        <v>44211.688101851854</v>
+      </c>
+      <c r="N21">
+        <v>3.69</v>
+      </c>
+      <c r="O21">
+        <v>0.05</v>
+      </c>
+      <c r="P21">
+        <v>0.71</v>
+      </c>
+      <c r="Q21">
+        <v>0.85</v>
+      </c>
+      <c r="R21">
+        <v>0.63</v>
+      </c>
+      <c r="S21">
+        <v>0.27</v>
+      </c>
+      <c r="T21">
+        <v>0.67</v>
+      </c>
+      <c r="U21">
+        <v>0.36</v>
+      </c>
+      <c r="V21">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>30652150</v>
+      </c>
+      <c r="C22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="1">
+        <v>44211.544131944444</v>
+      </c>
+      <c r="F22" s="1">
+        <v>44211.546006944445</v>
+      </c>
+      <c r="G22" s="1">
+        <v>44211.572372685187</v>
+      </c>
+      <c r="H22" s="1">
+        <v>44211.603460648148</v>
+      </c>
+      <c r="I22" s="1">
+        <v>44211.628796296296</v>
+      </c>
+      <c r="J22" s="1">
+        <v>44211.639108796298</v>
+      </c>
+      <c r="K22" s="1">
+        <v>44211.663912037038</v>
+      </c>
+      <c r="L22" s="1">
+        <v>44211.67597222222</v>
+      </c>
+      <c r="M22" s="1">
+        <v>44211.681712962964</v>
+      </c>
+      <c r="N22">
+        <v>3.3</v>
+      </c>
+      <c r="O22">
+        <v>0.04</v>
+      </c>
+      <c r="P22">
+        <v>0.63</v>
+      </c>
+      <c r="Q22">
+        <v>0.75</v>
+      </c>
+      <c r="R22">
+        <v>0.61</v>
+      </c>
+      <c r="S22">
+        <v>0.25</v>
+      </c>
+      <c r="T22">
+        <v>0.6</v>
+      </c>
+      <c r="U22">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="V22">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>30652151</v>
+      </c>
+      <c r="C23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="1">
+        <v>44211.546215277776</v>
+      </c>
+      <c r="F23" s="1">
+        <v>44211.547418981485</v>
+      </c>
+      <c r="G23" s="1">
+        <v>44211.563472222224</v>
+      </c>
+      <c r="H23" s="1">
+        <v>44211.577430555553</v>
+      </c>
+      <c r="I23" s="1">
+        <v>44211.591122685182</v>
+      </c>
+      <c r="J23" s="1">
+        <v>44211.595671296294</v>
+      </c>
+      <c r="K23" s="1">
+        <v>44211.609618055554</v>
+      </c>
+      <c r="L23" s="1">
+        <v>44211.614965277775</v>
+      </c>
+      <c r="M23" s="1">
+        <v>44211.6175</v>
+      </c>
+      <c r="N23">
+        <v>1.71</v>
+      </c>
+      <c r="O23">
+        <v>0.03</v>
+      </c>
+      <c r="P23">
+        <v>0.39</v>
+      </c>
+      <c r="Q23">
+        <v>0.34</v>
+      </c>
+      <c r="R23">
+        <v>0.33</v>
+      </c>
+      <c r="S23">
+        <v>0.11</v>
+      </c>
+      <c r="T23">
+        <v>0.33</v>
+      </c>
+      <c r="U23">
+        <v>0.13</v>
+      </c>
+      <c r="V23">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>30652152</v>
+      </c>
+      <c r="C24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="1">
+        <v>44211.553854166668</v>
+      </c>
+      <c r="F24" s="1">
+        <v>44211.556203703702</v>
+      </c>
+      <c r="G24" s="1">
+        <v>44211.582071759258</v>
+      </c>
+      <c r="H24" s="1">
+        <v>44211.611238425925</v>
+      </c>
+      <c r="I24" s="1">
+        <v>44211.6325462963</v>
+      </c>
+      <c r="J24" s="1">
+        <v>44211.640543981484</v>
+      </c>
+      <c r="K24" s="1">
+        <v>44211.662881944445</v>
+      </c>
+      <c r="L24" s="1">
+        <v>44211.671666666669</v>
+      </c>
+      <c r="M24" s="1">
+        <v>44211.674108796295</v>
+      </c>
+      <c r="N24">
+        <v>2.89</v>
+      </c>
+      <c r="O24">
+        <v>0.06</v>
+      </c>
+      <c r="P24">
+        <v>0.62</v>
+      </c>
+      <c r="Q24">
+        <v>0.7</v>
+      </c>
+      <c r="R24">
+        <v>0.51</v>
+      </c>
+      <c r="S24">
+        <v>0.19</v>
+      </c>
+      <c r="T24">
+        <v>0.54</v>
+      </c>
+      <c r="U24">
+        <v>0.21</v>
+      </c>
+      <c r="V24">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>30652153</v>
+      </c>
+      <c r="C25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="1">
+        <v>44211.556967592594</v>
+      </c>
+      <c r="F25" s="1">
+        <v>44211.558761574073</v>
+      </c>
+      <c r="G25" s="1">
+        <v>44211.572731481479</v>
+      </c>
+      <c r="H25" s="1">
+        <v>44211.590312499997</v>
+      </c>
+      <c r="I25" s="1">
+        <v>44211.602743055555</v>
+      </c>
+      <c r="J25" s="1">
+        <v>44211.607685185183</v>
+      </c>
+      <c r="K25" s="1">
+        <v>44211.620173611111</v>
+      </c>
+      <c r="L25" s="1">
+        <v>44211.625706018516</v>
+      </c>
+      <c r="M25" s="1">
+        <v>44211.62773148148</v>
+      </c>
+      <c r="N25">
+        <v>1.7</v>
+      </c>
+      <c r="O25">
+        <v>0.04</v>
+      </c>
+      <c r="P25">
+        <v>0.34</v>
+      </c>
+      <c r="Q25">
+        <v>0.42</v>
+      </c>
+      <c r="R25">
+        <v>0.3</v>
+      </c>
+      <c r="S25">
+        <v>0.12</v>
+      </c>
+      <c r="T25">
+        <v>0.3</v>
+      </c>
+      <c r="U25">
+        <v>0.13</v>
+      </c>
+      <c r="V25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <v>30652154</v>
+      </c>
+      <c r="C26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="1">
+        <v>44211.558703703704</v>
+      </c>
+      <c r="F26" s="1">
+        <v>44211.559942129628</v>
+      </c>
+      <c r="G26" s="1">
+        <v>44211.57230324074</v>
+      </c>
+      <c r="H26" s="1">
+        <v>44211.58326388889</v>
+      </c>
+      <c r="I26" s="1">
+        <v>44211.594363425924</v>
+      </c>
+      <c r="J26" s="1">
+        <v>44211.597627314812</v>
+      </c>
+      <c r="K26" s="1">
+        <v>44211.608854166669</v>
+      </c>
+      <c r="L26" s="1">
+        <v>44211.612303240741</v>
+      </c>
+      <c r="M26" s="1">
+        <v>44211.613240740742</v>
+      </c>
+      <c r="N26">
+        <v>1.31</v>
+      </c>
+      <c r="O26">
+        <v>0.03</v>
+      </c>
+      <c r="P26">
+        <v>0.3</v>
+      </c>
+      <c r="Q26">
+        <v>0.26</v>
+      </c>
+      <c r="R26">
+        <v>0.27</v>
+      </c>
+      <c r="S26">
+        <v>0.08</v>
+      </c>
+      <c r="T26">
+        <v>0.27</v>
+      </c>
+      <c r="U26">
+        <v>0.08</v>
+      </c>
+      <c r="V26">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <v>30652156</v>
+      </c>
+      <c r="C27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="1">
+        <v>44211.559745370374</v>
+      </c>
+      <c r="F27" s="1">
+        <v>44211.562060185184</v>
+      </c>
+      <c r="G27" s="1">
+        <v>44211.609189814815</v>
+      </c>
+      <c r="H27" s="1">
+        <v>44211.656967592593</v>
+      </c>
+      <c r="I27" s="1">
+        <v>44211.700856481482</v>
+      </c>
+      <c r="J27" s="1">
+        <v>44211.719583333332</v>
+      </c>
+      <c r="K27" s="1">
+        <v>44211.765162037038</v>
+      </c>
+      <c r="L27" s="1">
+        <v>44211.789189814815</v>
+      </c>
+      <c r="M27" s="1">
+        <v>44211.805706018517</v>
+      </c>
+      <c r="N27">
+        <v>5.9</v>
+      </c>
+      <c r="O27">
+        <v>0.06</v>
+      </c>
+      <c r="P27">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="Q27">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="R27">
+        <v>1.05</v>
+      </c>
+      <c r="S27">
+        <v>0.45</v>
+      </c>
+      <c r="T27">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="U27">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="V27">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <v>30652157</v>
+      </c>
+      <c r="C28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="1">
+        <v>44211.562175925923</v>
+      </c>
+      <c r="F28" s="1">
+        <v>44211.562488425923</v>
+      </c>
+      <c r="G28" s="1">
+        <v>44211.564282407409</v>
+      </c>
+      <c r="H28" s="1">
+        <v>44211.565092592595</v>
+      </c>
+      <c r="I28" s="1">
+        <v>44211.566840277781</v>
+      </c>
+      <c r="J28" s="1">
+        <v>44211.567037037035</v>
+      </c>
+      <c r="K28" s="1">
+        <v>44211.568692129629</v>
+      </c>
+      <c r="L28" s="1">
+        <v>44211.568958333337</v>
+      </c>
+      <c r="M28" s="1">
+        <v>44211.569131944445</v>
+      </c>
+      <c r="N28">
+        <v>0.17</v>
+      </c>
+      <c r="O28">
+        <v>0.01</v>
+      </c>
+      <c r="P28">
+        <v>0.04</v>
+      </c>
+      <c r="Q28">
+        <v>0.02</v>
+      </c>
+      <c r="R28">
+        <v>0.04</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0.04</v>
+      </c>
+      <c r="U28">
+        <v>0.01</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29">
+        <v>30656651</v>
+      </c>
+      <c r="C29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="1">
+        <v>44211.690266203703</v>
+      </c>
+      <c r="F29" s="1">
+        <v>44211.696111111109</v>
+      </c>
+      <c r="G29" s="1">
+        <v>44211.773796296293</v>
+      </c>
+      <c r="H29" s="1">
+        <v>44211.860960648148</v>
+      </c>
+      <c r="I29" s="1">
+        <v>44211.932199074072</v>
+      </c>
+      <c r="J29" s="1">
+        <v>44211.957835648151</v>
+      </c>
+      <c r="K29" s="1">
+        <v>44212.028981481482</v>
+      </c>
+      <c r="L29" s="1">
+        <v>44212.059421296297</v>
+      </c>
+      <c r="M29" s="1">
+        <v>44212.070115740738</v>
+      </c>
+      <c r="N29">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="O29">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P29">
+        <v>1.86</v>
+      </c>
+      <c r="Q29">
+        <v>2.09</v>
+      </c>
+      <c r="R29">
+        <v>1.71</v>
+      </c>
+      <c r="S29">
+        <v>0.62</v>
+      </c>
+      <c r="T29">
+        <v>1.71</v>
+      </c>
+      <c r="U29">
+        <v>0.73</v>
+      </c>
+      <c r="V29">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30">
+        <v>30656653</v>
+      </c>
+      <c r="C30" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="1">
+        <v>44211.694861111115</v>
+      </c>
+      <c r="F30" s="1">
+        <v>44211.698518518519</v>
+      </c>
+      <c r="G30" s="1">
+        <v>44211.762187499997</v>
+      </c>
+      <c r="H30" s="1">
+        <v>44211.821701388886</v>
+      </c>
+      <c r="I30" s="1">
+        <v>44211.878888888888</v>
+      </c>
+      <c r="J30" s="1">
+        <v>44211.896111111113</v>
+      </c>
+      <c r="K30" s="1">
+        <v>44211.959363425929</v>
+      </c>
+      <c r="L30" s="1">
+        <v>44211.97896990741</v>
+      </c>
+      <c r="M30" s="1">
+        <v>44211.986319444448</v>
+      </c>
+      <c r="N30">
+        <v>7</v>
+      </c>
+      <c r="O30">
+        <v>0.09</v>
+      </c>
+      <c r="P30">
+        <v>1.53</v>
+      </c>
+      <c r="Q30">
+        <v>1.43</v>
+      </c>
+      <c r="R30">
+        <v>1.37</v>
+      </c>
+      <c r="S30">
+        <v>0.41</v>
+      </c>
+      <c r="T30">
+        <v>1.52</v>
+      </c>
+      <c r="U30">
+        <v>0.47</v>
+      </c>
+      <c r="V30">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31">
+        <v>30656655</v>
+      </c>
+      <c r="C31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="1">
+        <v>44211.694861111115</v>
+      </c>
+      <c r="F31" s="1">
+        <v>44211.69803240741</v>
+      </c>
+      <c r="G31" s="1">
+        <v>44211.752199074072</v>
+      </c>
+      <c r="H31" s="1">
+        <v>44211.79859953704</v>
+      </c>
+      <c r="I31" s="1">
+        <v>44211.846886574072</v>
+      </c>
+      <c r="J31" s="1">
+        <v>44211.861527777779</v>
+      </c>
+      <c r="K31" s="1">
+        <v>44211.908020833333</v>
+      </c>
+      <c r="L31" s="1">
+        <v>44211.924618055556</v>
+      </c>
+      <c r="M31" s="1">
+        <v>44211.930428240739</v>
+      </c>
+      <c r="N31">
+        <v>5.65</v>
+      </c>
+      <c r="O31">
+        <v>0.08</v>
+      </c>
+      <c r="P31">
+        <v>1.3</v>
+      </c>
+      <c r="Q31">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="R31">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="S31">
+        <v>0.35</v>
+      </c>
+      <c r="T31">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="U31">
+        <v>0.4</v>
+      </c>
+      <c r="V31">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32">
+        <v>30656657</v>
+      </c>
+      <c r="C32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="1">
+        <v>44211.694861111115</v>
+      </c>
+      <c r="F32" s="1">
+        <v>44211.698136574072</v>
+      </c>
+      <c r="G32" s="1">
+        <v>44211.748877314814</v>
+      </c>
+      <c r="H32" s="1">
+        <v>44211.793900462966</v>
+      </c>
+      <c r="I32" s="1">
+        <v>44211.838368055556</v>
+      </c>
+      <c r="J32" s="1">
+        <v>44211.852361111109</v>
+      </c>
+      <c r="K32" s="1">
+        <v>44211.896493055552</v>
+      </c>
+      <c r="L32" s="1">
+        <v>44211.911921296298</v>
+      </c>
+      <c r="M32" s="1">
+        <v>44211.917280092595</v>
+      </c>
+      <c r="N32">
+        <v>5.34</v>
+      </c>
+      <c r="O32">
+        <v>0.08</v>
+      </c>
+      <c r="P32">
+        <v>1.22</v>
+      </c>
+      <c r="Q32">
+        <v>1.08</v>
+      </c>
+      <c r="R32">
+        <v>1.07</v>
+      </c>
+      <c r="S32">
+        <v>0.34</v>
+      </c>
+      <c r="T32">
+        <v>1.06</v>
+      </c>
+      <c r="U32">
+        <v>0.37</v>
+      </c>
+      <c r="V32">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33">
+        <v>30656659</v>
+      </c>
+      <c r="C33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="1">
+        <v>44211.695185185185</v>
+      </c>
+      <c r="F33" s="1">
+        <v>44211.698206018518</v>
+      </c>
+      <c r="G33" s="1">
+        <v>44211.744942129626</v>
+      </c>
+      <c r="H33" s="1">
+        <v>44211.785960648151</v>
+      </c>
+      <c r="I33" s="1">
+        <v>44211.82613425926</v>
+      </c>
+      <c r="J33" s="1">
+        <v>44211.838703703703</v>
+      </c>
+      <c r="K33" s="1">
+        <v>44211.879421296297</v>
+      </c>
+      <c r="L33" s="1">
+        <v>44211.894305555557</v>
+      </c>
+      <c r="M33" s="1">
+        <v>44211.899039351854</v>
+      </c>
+      <c r="N33">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="O33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P33">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="Q33">
+        <v>0.98</v>
+      </c>
+      <c r="R33">
+        <v>0.96</v>
+      </c>
+      <c r="S33">
+        <v>0.3</v>
+      </c>
+      <c r="T33">
+        <v>0.98</v>
+      </c>
+      <c r="U33">
+        <v>0.36</v>
+      </c>
+      <c r="V33">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34">
+        <v>30656661</v>
+      </c>
+      <c r="C34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="1">
+        <v>44211.695185185185</v>
+      </c>
+      <c r="F34" s="1">
+        <v>44211.697824074072</v>
+      </c>
+      <c r="G34" s="1">
+        <v>44211.745196759257</v>
+      </c>
+      <c r="H34" s="1">
+        <v>44211.788298611114</v>
+      </c>
+      <c r="I34" s="1">
+        <v>44211.834976851853</v>
+      </c>
+      <c r="J34" s="1">
+        <v>44211.847708333335</v>
+      </c>
+      <c r="K34" s="1">
+        <v>44211.891111111108</v>
+      </c>
+      <c r="L34" s="1">
+        <v>44211.905810185184</v>
+      </c>
+      <c r="M34" s="1">
+        <v>44211.910752314812</v>
+      </c>
+      <c r="N34">
+        <v>5.17</v>
+      </c>
+      <c r="O34">
+        <v>0.06</v>
+      </c>
+      <c r="P34">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="Q34">
+        <v>1.03</v>
+      </c>
+      <c r="R34">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="S34">
+        <v>0.31</v>
+      </c>
+      <c r="T34">
+        <v>1.04</v>
+      </c>
+      <c r="U34">
+        <v>0.35</v>
+      </c>
+      <c r="V34">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35">
+        <v>30656663</v>
+      </c>
+      <c r="C35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="1">
+        <v>44211.695185185185</v>
+      </c>
+      <c r="F35" s="1">
+        <v>44211.697928240741</v>
+      </c>
+      <c r="G35" s="1">
+        <v>44211.740532407406</v>
+      </c>
+      <c r="H35" s="1">
+        <v>44211.781423611108</v>
+      </c>
+      <c r="I35" s="1">
+        <v>44211.818368055552</v>
+      </c>
+      <c r="J35" s="1">
+        <v>44211.830682870372</v>
+      </c>
+      <c r="K35" s="1">
+        <v>44211.870694444442</v>
+      </c>
+      <c r="L35" s="1">
+        <v>44211.884814814817</v>
+      </c>
+      <c r="M35" s="1">
+        <v>44211.88957175926</v>
+      </c>
+      <c r="N35">
+        <v>4.67</v>
+      </c>
+      <c r="O35">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P35">
+        <v>1.02</v>
+      </c>
+      <c r="Q35">
+        <v>0.98</v>
+      </c>
+      <c r="R35">
+        <v>0.89</v>
+      </c>
+      <c r="S35">
+        <v>0.3</v>
+      </c>
+      <c r="T35">
+        <v>0.96</v>
+      </c>
+      <c r="U35">
+        <v>0.34</v>
+      </c>
+      <c r="V35">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36">
+        <v>30656665</v>
+      </c>
+      <c r="C36" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="1">
+        <v>44211.695185185185</v>
+      </c>
+      <c r="F36" s="1">
+        <v>44211.697754629633</v>
+      </c>
+      <c r="G36" s="1">
+        <v>44211.738275462965</v>
+      </c>
+      <c r="H36" s="1">
+        <v>44211.77275462963</v>
+      </c>
+      <c r="I36" s="1">
+        <v>44211.808738425927</v>
+      </c>
+      <c r="J36" s="1">
+        <v>44211.818912037037</v>
+      </c>
+      <c r="K36" s="1">
+        <v>44211.854745370372</v>
+      </c>
+      <c r="L36" s="1">
+        <v>44211.867743055554</v>
+      </c>
+      <c r="M36" s="1">
+        <v>44211.87195601852</v>
+      </c>
+      <c r="N36">
+        <v>4.24</v>
+      </c>
+      <c r="O36">
+        <v>0.06</v>
+      </c>
+      <c r="P36">
+        <v>0.97</v>
+      </c>
+      <c r="Q36">
+        <v>0.83</v>
+      </c>
+      <c r="R36">
+        <v>0.86</v>
+      </c>
+      <c r="S36">
+        <v>0.24</v>
+      </c>
+      <c r="T36">
+        <v>0.86</v>
+      </c>
+      <c r="U36">
+        <v>0.31</v>
+      </c>
+      <c r="V36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37">
+        <v>30656667</v>
+      </c>
+      <c r="C37" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="1">
+        <v>44211.695185185185</v>
+      </c>
+      <c r="F37" s="1">
+        <v>44211.697569444441</v>
+      </c>
+      <c r="G37" s="1">
+        <v>44211.734189814815</v>
+      </c>
+      <c r="H37" s="1">
+        <v>44211.76425925926</v>
+      </c>
+      <c r="I37" s="1">
+        <v>44211.797546296293</v>
+      </c>
+      <c r="J37" s="1">
+        <v>44211.806400462963</v>
+      </c>
+      <c r="K37" s="1">
+        <v>44211.836967592593</v>
+      </c>
+      <c r="L37" s="1">
+        <v>44211.847627314812</v>
+      </c>
+      <c r="M37" s="1">
+        <v>44211.851458333331</v>
+      </c>
+      <c r="N37">
+        <v>3.75</v>
+      </c>
+      <c r="O37">
+        <v>0.06</v>
+      </c>
+      <c r="P37">
+        <v>0.88</v>
+      </c>
+      <c r="Q37">
+        <v>0.72</v>
+      </c>
+      <c r="R37">
+        <v>0.8</v>
+      </c>
+      <c r="S37">
+        <v>0.21</v>
+      </c>
+      <c r="T37">
+        <v>0.73</v>
+      </c>
+      <c r="U37">
+        <v>0.26</v>
+      </c>
+      <c r="V37">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38">
+        <v>30656669</v>
+      </c>
+      <c r="C38" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="1">
+        <v>44211.695185185185</v>
+      </c>
+      <c r="F38" s="1">
+        <v>44211.697581018518</v>
+      </c>
+      <c r="G38" s="1">
+        <v>44211.738796296297</v>
+      </c>
+      <c r="H38" s="1">
+        <v>44211.772048611114</v>
+      </c>
+      <c r="I38" s="1">
+        <v>44211.806562500002</v>
+      </c>
+      <c r="J38" s="1">
+        <v>44211.816030092596</v>
+      </c>
+      <c r="K38" s="1">
+        <v>44211.850416666668</v>
+      </c>
+      <c r="L38" s="1">
+        <v>44211.861712962964</v>
+      </c>
+      <c r="M38" s="1">
+        <v>44211.865694444445</v>
+      </c>
+      <c r="N38">
+        <v>4.09</v>
+      </c>
+      <c r="O38">
+        <v>0.06</v>
+      </c>
+      <c r="P38">
+        <v>0.99</v>
+      </c>
+      <c r="Q38">
+        <v>0.8</v>
+      </c>
+      <c r="R38">
+        <v>0.83</v>
+      </c>
+      <c r="S38">
+        <v>0.23</v>
+      </c>
+      <c r="T38">
+        <v>0.83</v>
+      </c>
+      <c r="U38">
+        <v>0.27</v>
+      </c>
+      <c r="V38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>30656671</v>
+      </c>
+      <c r="C39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="1">
+        <v>44211.695185185185</v>
+      </c>
+      <c r="F39" s="1">
+        <v>44211.697476851848</v>
+      </c>
+      <c r="G39" s="1">
+        <v>44211.734444444446</v>
+      </c>
+      <c r="H39" s="1">
+        <v>44211.767048611109</v>
+      </c>
+      <c r="I39" s="1">
+        <v>44211.798148148147</v>
+      </c>
+      <c r="J39" s="1">
+        <v>44211.807824074072</v>
+      </c>
+      <c r="K39" s="1">
+        <v>44211.844571759262</v>
+      </c>
+      <c r="L39" s="1">
+        <v>44211.856064814812</v>
+      </c>
+      <c r="M39" s="1">
+        <v>44211.859930555554</v>
+      </c>
+      <c r="N39">
+        <v>3.95</v>
+      </c>
+      <c r="O39">
+        <v>0.06</v>
+      </c>
+      <c r="P39">
+        <v>0.89</v>
+      </c>
+      <c r="Q39">
+        <v>0.78</v>
+      </c>
+      <c r="R39">
+        <v>0.75</v>
+      </c>
+      <c r="S39">
+        <v>0.23</v>
+      </c>
+      <c r="T39">
+        <v>0.88</v>
+      </c>
+      <c r="U39">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="V39">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40">
+        <v>30656673</v>
+      </c>
+      <c r="C40" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="1">
+        <v>44211.695185185185</v>
+      </c>
+      <c r="F40" s="1">
+        <v>44211.697465277779</v>
+      </c>
+      <c r="G40" s="1">
+        <v>44211.734131944446</v>
+      </c>
+      <c r="H40" s="1">
+        <v>44211.766087962962</v>
+      </c>
+      <c r="I40" s="1">
+        <v>44211.799224537041</v>
+      </c>
+      <c r="J40" s="1">
+        <v>44211.808703703704</v>
+      </c>
+      <c r="K40" s="1">
+        <v>44211.840138888889</v>
+      </c>
+      <c r="L40" s="1">
+        <v>44211.8515162037</v>
+      </c>
+      <c r="M40" s="1">
+        <v>44211.855254629627</v>
+      </c>
+      <c r="N40">
+        <v>3.84</v>
+      </c>
+      <c r="O40">
+        <v>0.05</v>
+      </c>
+      <c r="P40">
+        <v>0.88</v>
+      </c>
+      <c r="Q40">
+        <v>0.77</v>
+      </c>
+      <c r="R40">
+        <v>0.8</v>
+      </c>
+      <c r="S40">
+        <v>0.23</v>
+      </c>
+      <c r="T40">
+        <v>0.75</v>
+      </c>
+      <c r="U40">
+        <v>0.27</v>
+      </c>
+      <c r="V40">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41">
+        <v>30656675</v>
+      </c>
+      <c r="C41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="1">
+        <v>44211.695185185185</v>
+      </c>
+      <c r="F41" s="1">
+        <v>44211.696932870371</v>
+      </c>
+      <c r="G41" s="1">
+        <v>44211.72383101852</v>
+      </c>
+      <c r="H41" s="1">
+        <v>44211.746793981481</v>
+      </c>
+      <c r="I41" s="1">
+        <v>44211.770624999997</v>
+      </c>
+      <c r="J41" s="1">
+        <v>44211.777754629627</v>
+      </c>
+      <c r="K41" s="1">
+        <v>44211.80363425926</v>
+      </c>
+      <c r="L41" s="1">
+        <v>44211.811678240738</v>
+      </c>
+      <c r="M41" s="1">
+        <v>44211.81459490741</v>
+      </c>
+      <c r="N41">
+        <v>2.87</v>
+      </c>
+      <c r="O41">
+        <v>0.04</v>
+      </c>
+      <c r="P41">
+        <v>0.65</v>
+      </c>
+      <c r="Q41">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R41">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="S41">
+        <v>0.17</v>
+      </c>
+      <c r="T41">
+        <v>0.62</v>
+      </c>
+      <c r="U41">
+        <v>0.19</v>
+      </c>
+      <c r="V41">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>30656677</v>
+      </c>
+      <c r="C42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="1">
+        <v>44211.695185185185</v>
+      </c>
+      <c r="F42" s="1">
+        <v>44211.696759259263</v>
+      </c>
+      <c r="G42" s="1">
+        <v>44211.720752314817</v>
+      </c>
+      <c r="H42" s="1">
+        <v>44211.740833333337</v>
+      </c>
+      <c r="I42" s="1">
+        <v>44211.762384259258</v>
+      </c>
+      <c r="J42" s="1">
+        <v>44211.768703703703</v>
+      </c>
+      <c r="K42" s="1">
+        <v>44211.791296296295</v>
+      </c>
+      <c r="L42" s="1">
+        <v>44211.798530092594</v>
+      </c>
+      <c r="M42" s="1">
+        <v>44211.800856481481</v>
+      </c>
+      <c r="N42">
+        <v>2.54</v>
+      </c>
+      <c r="O42">
+        <v>0.04</v>
+      </c>
+      <c r="P42">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q42">
+        <v>0.48</v>
+      </c>
+      <c r="R42">
+        <v>0.52</v>
+      </c>
+      <c r="S42">
+        <v>0.15</v>
+      </c>
+      <c r="T42">
+        <v>0.54</v>
+      </c>
+      <c r="U42">
+        <v>0.17</v>
+      </c>
+      <c r="V42">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43">
+        <v>30656680</v>
+      </c>
+      <c r="C43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="1">
+        <v>44211.695185185185</v>
+      </c>
+      <c r="F43" s="1">
+        <v>44211.696793981479</v>
+      </c>
+      <c r="G43" s="1">
+        <v>44211.720300925925</v>
+      </c>
+      <c r="H43" s="1">
+        <v>44211.739872685182</v>
+      </c>
+      <c r="I43" s="1">
+        <v>44211.759583333333</v>
+      </c>
+      <c r="J43" s="1">
+        <v>44211.765532407408</v>
+      </c>
+      <c r="K43" s="1">
+        <v>44211.785960648151</v>
+      </c>
+      <c r="L43" s="1">
+        <v>44211.792974537035</v>
+      </c>
+      <c r="M43" s="1">
+        <v>44211.795497685183</v>
+      </c>
+      <c r="N43">
+        <v>2.41</v>
+      </c>
+      <c r="O43">
+        <v>0.04</v>
+      </c>
+      <c r="P43">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Q43">
+        <v>0.47</v>
+      </c>
+      <c r="R43">
+        <v>0.47</v>
+      </c>
+      <c r="S43">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T43">
+        <v>0.49</v>
+      </c>
+      <c r="U43">
+        <v>0.17</v>
+      </c>
+      <c r="V43">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>30656681</v>
+      </c>
+      <c r="C44" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="1">
+        <v>44211.695520833331</v>
+      </c>
+      <c r="F44" s="1">
+        <v>44211.697476851848</v>
+      </c>
+      <c r="G44" s="1">
+        <v>44211.721099537041</v>
+      </c>
+      <c r="H44" s="1">
+        <v>44211.745775462965</v>
+      </c>
+      <c r="I44" s="1">
+        <v>44211.764594907407</v>
+      </c>
+      <c r="J44" s="1">
+        <v>44211.771064814813</v>
+      </c>
+      <c r="K44" s="1">
+        <v>44211.790520833332</v>
+      </c>
+      <c r="L44" s="1">
+        <v>44211.797314814816</v>
+      </c>
+      <c r="M44" s="1">
+        <v>44211.799768518518</v>
+      </c>
+      <c r="N44">
+        <v>2.5</v>
+      </c>
+      <c r="O44">
+        <v>0.05</v>
+      </c>
+      <c r="P44">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q44">
+        <v>0.59</v>
+      </c>
+      <c r="R44">
+        <v>0.45</v>
+      </c>
+      <c r="S44">
+        <v>0.16</v>
+      </c>
+      <c r="T44">
+        <v>0.47</v>
+      </c>
+      <c r="U44">
+        <v>0.16</v>
+      </c>
+      <c r="V44">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45">
+        <v>30656683</v>
+      </c>
+      <c r="C45" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="1">
+        <v>44211.695520833331</v>
+      </c>
+      <c r="F45" s="1">
+        <v>44211.697048611109</v>
+      </c>
+      <c r="G45" s="1">
+        <v>44211.719826388886</v>
+      </c>
+      <c r="H45" s="1">
+        <v>44211.741655092592</v>
+      </c>
+      <c r="I45" s="1">
+        <v>44211.763229166667</v>
+      </c>
+      <c r="J45" s="1">
+        <v>44211.769953703704</v>
+      </c>
+      <c r="K45" s="1">
+        <v>44211.791215277779</v>
+      </c>
+      <c r="L45" s="1">
+        <v>44211.799351851849</v>
+      </c>
+      <c r="M45" s="1">
+        <v>44211.803402777776</v>
+      </c>
+      <c r="N45">
+        <v>2.59</v>
+      </c>
+      <c r="O45">
+        <v>0.04</v>
+      </c>
+      <c r="P45">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q45">
+        <v>0.52</v>
+      </c>
+      <c r="R45">
+        <v>0.52</v>
+      </c>
+      <c r="S45">
+        <v>0.16</v>
+      </c>
+      <c r="T45">
+        <v>0.51</v>
+      </c>
+      <c r="U45">
+        <v>0.2</v>
+      </c>
+      <c r="V45">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>30656685</v>
+      </c>
+      <c r="C46" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="1">
+        <v>44211.695520833331</v>
+      </c>
+      <c r="F46" s="1">
+        <v>44211.69699074074</v>
+      </c>
+      <c r="G46" s="1">
+        <v>44211.718148148146</v>
+      </c>
+      <c r="H46" s="1">
+        <v>44211.737581018519</v>
+      </c>
+      <c r="I46" s="1">
+        <v>44211.758194444446</v>
+      </c>
+      <c r="J46" s="1">
+        <v>44211.764525462961</v>
+      </c>
+      <c r="K46" s="1">
+        <v>44211.785034722219</v>
+      </c>
+      <c r="L46" s="1">
+        <v>44211.792256944442</v>
+      </c>
+      <c r="M46" s="1">
+        <v>44211.794988425929</v>
+      </c>
+      <c r="N46">
+        <v>2.39</v>
+      </c>
+      <c r="O46">
+        <v>0.04</v>
+      </c>
+      <c r="P46">
+        <v>0.51</v>
+      </c>
+      <c r="Q46">
+        <v>0.47</v>
+      </c>
+      <c r="R46">
+        <v>0.49</v>
+      </c>
+      <c r="S46">
+        <v>0.15</v>
+      </c>
+      <c r="T46">
+        <v>0.49</v>
+      </c>
+      <c r="U46">
+        <v>0.17</v>
+      </c>
+      <c r="V46">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>30656687</v>
+      </c>
+      <c r="C47" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" s="1">
+        <v>44211.695520833331</v>
+      </c>
+      <c r="F47" s="1">
+        <v>44211.696585648147</v>
+      </c>
+      <c r="G47" s="1">
+        <v>44211.711157407408</v>
+      </c>
+      <c r="H47" s="1">
+        <v>44211.72515046296</v>
+      </c>
+      <c r="I47" s="1">
+        <v>44211.738946759258</v>
+      </c>
+      <c r="J47" s="1">
+        <v>44211.743159722224</v>
+      </c>
+      <c r="K47" s="1">
+        <v>44211.757245370369</v>
+      </c>
+      <c r="L47" s="1">
+        <v>44211.762708333335</v>
+      </c>
+      <c r="M47" s="1">
+        <v>44211.765266203707</v>
+      </c>
+      <c r="N47">
+        <v>1.67</v>
+      </c>
+      <c r="O47">
+        <v>0.03</v>
+      </c>
+      <c r="P47">
+        <v>0.35</v>
+      </c>
+      <c r="Q47">
+        <v>0.34</v>
+      </c>
+      <c r="R47">
+        <v>0.33</v>
+      </c>
+      <c r="S47">
+        <v>0.1</v>
+      </c>
+      <c r="T47">
+        <v>0.34</v>
+      </c>
+      <c r="U47">
+        <v>0.13</v>
+      </c>
+      <c r="V47">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>30656689</v>
+      </c>
+      <c r="C48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="1">
+        <v>44211.695520833331</v>
+      </c>
+      <c r="F48" s="1">
+        <v>44211.696817129632</v>
+      </c>
+      <c r="G48" s="1">
+        <v>44211.71435185185</v>
+      </c>
+      <c r="H48" s="1">
+        <v>44211.730775462966</v>
+      </c>
+      <c r="I48" s="1">
+        <v>44211.747025462966</v>
+      </c>
+      <c r="J48" s="1">
+        <v>44211.751817129632</v>
+      </c>
+      <c r="K48" s="1">
+        <v>44211.768958333334</v>
+      </c>
+      <c r="L48" s="1">
+        <v>44211.774513888886</v>
+      </c>
+      <c r="M48" s="1">
+        <v>44211.776666666665</v>
+      </c>
+      <c r="N48">
+        <v>1.95</v>
+      </c>
+      <c r="O48">
+        <v>0.03</v>
+      </c>
+      <c r="P48">
+        <v>0.42</v>
+      </c>
+      <c r="Q48">
+        <v>0.39</v>
+      </c>
+      <c r="R48">
+        <v>0.39</v>
+      </c>
+      <c r="S48">
+        <v>0.12</v>
+      </c>
+      <c r="T48">
+        <v>0.41</v>
+      </c>
+      <c r="U48">
+        <v>0.13</v>
+      </c>
+      <c r="V48">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>30656691</v>
+      </c>
+      <c r="C49" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="1">
+        <v>44211.695520833331</v>
+      </c>
+      <c r="F49" s="1">
+        <v>44211.696585648147</v>
+      </c>
+      <c r="G49" s="1">
+        <v>44211.706747685188</v>
+      </c>
+      <c r="H49" s="1">
+        <v>44211.716620370367</v>
+      </c>
+      <c r="I49" s="1">
+        <v>44211.726226851853</v>
+      </c>
+      <c r="J49" s="1">
+        <v>44211.729108796295</v>
+      </c>
+      <c r="K49" s="1">
+        <v>44211.738310185188</v>
+      </c>
+      <c r="L49" s="1">
+        <v>44211.74150462963</v>
+      </c>
+      <c r="M49" s="1">
+        <v>44211.742662037039</v>
+      </c>
+      <c r="N49">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="O49">
+        <v>0.03</v>
+      </c>
+      <c r="P49">
+        <v>0.24</v>
+      </c>
+      <c r="Q49">
+        <v>0.24</v>
+      </c>
+      <c r="R49">
+        <v>0.23</v>
+      </c>
+      <c r="S49">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T49">
+        <v>0.22</v>
+      </c>
+      <c r="U49">
+        <v>0.08</v>
+      </c>
+      <c r="V49">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50">
+        <v>30656693</v>
+      </c>
+      <c r="C50" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="1">
+        <v>44211.695520833331</v>
+      </c>
+      <c r="F50" s="1">
+        <v>44211.696400462963</v>
+      </c>
+      <c r="G50" s="1">
+        <v>44211.707025462965</v>
+      </c>
+      <c r="H50" s="1">
+        <v>44211.716585648152</v>
+      </c>
+      <c r="I50" s="1">
+        <v>44211.725972222222</v>
+      </c>
+      <c r="J50" s="1">
+        <v>44211.728761574072</v>
+      </c>
+      <c r="K50" s="1">
+        <v>44211.73814814815</v>
+      </c>
+      <c r="L50" s="1">
+        <v>44211.741597222222</v>
+      </c>
+      <c r="M50" s="1">
+        <v>44211.742893518516</v>
+      </c>
+      <c r="N50">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="O50">
+        <v>0.02</v>
+      </c>
+      <c r="P50">
+        <v>0.26</v>
+      </c>
+      <c r="Q50">
+        <v>0.23</v>
+      </c>
+      <c r="R50">
+        <v>0.23</v>
+      </c>
+      <c r="S50">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T50">
+        <v>0.23</v>
+      </c>
+      <c r="U50">
+        <v>0.08</v>
+      </c>
+      <c r="V50">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51">
+        <v>30656695</v>
+      </c>
+      <c r="C51" t="s">
+        <v>140</v>
+      </c>
+      <c r="D51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" s="1">
+        <v>44211.695520833331</v>
+      </c>
+      <c r="F51" s="1">
+        <v>44211.696921296294</v>
+      </c>
+      <c r="G51" s="1">
+        <v>44211.732418981483</v>
+      </c>
+      <c r="H51" s="1">
+        <v>44211.768680555557</v>
+      </c>
+      <c r="I51" s="1">
+        <v>44211.804259259261</v>
+      </c>
+      <c r="J51" s="1">
+        <v>44211.81863425926</v>
+      </c>
+      <c r="K51" s="1">
+        <v>44211.855057870373</v>
+      </c>
+      <c r="L51" s="1">
+        <v>44211.873715277776</v>
+      </c>
+      <c r="M51" s="1">
+        <v>44211.892962962964</v>
+      </c>
+      <c r="N51">
+        <v>4.74</v>
+      </c>
+      <c r="O51">
+        <v>0.03</v>
+      </c>
+      <c r="P51">
+        <v>0.85</v>
+      </c>
+      <c r="Q51">
+        <v>0.87</v>
+      </c>
+      <c r="R51">
+        <v>0.85</v>
+      </c>
+      <c r="S51">
+        <v>0.34</v>
+      </c>
+      <c r="T51">
+        <v>0.87</v>
+      </c>
+      <c r="U51">
+        <v>0.45</v>
+      </c>
+      <c r="V51">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52">
+        <v>30656697</v>
+      </c>
+      <c r="C52" t="s">
+        <v>140</v>
+      </c>
+      <c r="D52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" s="1">
+        <v>44211.695520833331</v>
+      </c>
+      <c r="F52" s="1">
+        <v>44211.696192129632</v>
+      </c>
+      <c r="G52" s="1">
+        <v>44211.702777777777</v>
+      </c>
+      <c r="H52" s="1">
+        <v>44211.708275462966</v>
+      </c>
+      <c r="I52" s="1">
+        <v>44211.714432870373</v>
+      </c>
+      <c r="J52" s="1">
+        <v>44211.716458333336</v>
+      </c>
+      <c r="K52" s="1">
+        <v>44211.722453703704</v>
+      </c>
+      <c r="L52" s="1">
+        <v>44211.725104166668</v>
+      </c>
+      <c r="M52" s="1">
+        <v>44211.726898148147</v>
+      </c>
+      <c r="N52">
+        <v>0.75</v>
+      </c>
+      <c r="O52">
+        <v>0.02</v>
+      </c>
+      <c r="P52">
+        <v>0.16</v>
+      </c>
+      <c r="Q52">
+        <v>0.13</v>
+      </c>
+      <c r="R52">
+        <v>0.15</v>
+      </c>
+      <c r="S52">
+        <v>0.05</v>
+      </c>
+      <c r="T52">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="U52">
+        <v>0.06</v>
+      </c>
+      <c r="V52">
+        <v>0.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>